--- a/Docs/InsertLocalizationText.xlsx
+++ b/Docs/InsertLocalizationText.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="5415" yWindow="-195" windowWidth="18735" windowHeight="11700" activeTab="1"/>
@@ -12,7 +12,7 @@
     <sheet name="num" sheetId="2" r:id="rId3"/>
     <sheet name="Plan3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -22,7 +22,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="E235" authorId="0">
+    <comment ref="E235" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="E235" authorId="0">
+    <comment ref="E235" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="152">
   <si>
     <t xml:space="preserve">      'en-us'</t>
   </si>
@@ -528,8 +528,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,13 +574,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -618,9 +626,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -652,9 +660,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -686,9 +695,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -861,25 +871,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N273"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N282"/>
   <sheetViews>
-    <sheetView topLeftCell="E238" workbookViewId="0">
-      <selection activeCell="F256" sqref="F256:F273"/>
+    <sheetView topLeftCell="C262" workbookViewId="0">
+      <selection activeCell="F276" sqref="F276"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="49.140625" customWidth="1"/>
-    <col min="5" max="5" width="96.28515625" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" customWidth="1"/>
     <col min="6" max="6" width="39.28515625" customWidth="1"/>
     <col min="7" max="7" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1001</v>
       </c>
@@ -905,7 +915,7 @@
         <v>'</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1002</v>
       </c>
@@ -927,7 +937,7 @@
         <v>insert into sysLocalizationText Values(1002,      'en-us','1002',     'Validation-Error',    'Data validation error.')</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1003</v>
       </c>
@@ -949,7 +959,7 @@
         <v>insert into sysLocalizationText Values(1003,      'en-us','1003',     'Record-NotFound',    'The requested record was not found.')</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1004</v>
       </c>
@@ -971,7 +981,7 @@
         <v>insert into sysLocalizationText Values(1004,      'en-us','1004',     'Login-Invalid-Password',    'Invalid password. You still have 0 attempts before the account is deactivated.')</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1005</v>
       </c>
@@ -993,7 +1003,7 @@
         <v>insert into sysLocalizationText Values(1005,      'en-us','1005',     'Login-Attempts',    'You have already used access attempts and the account has been disabled. Request activation.')</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1006</v>
       </c>
@@ -1015,7 +1025,7 @@
         <v>insert into sysLocalizationText Values(1006,      'en-us','1006',     'Login-Inactive-Account',    'The account associated with the User is not active. Request account activation.')</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1007</v>
       </c>
@@ -1037,7 +1047,7 @@
         <v>insert into sysLocalizationText Values(1007,      'en-us','1007',     'Login-Locked-Account',    'The account associated with the User is locked out. Contact your system administrator.')</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1008</v>
       </c>
@@ -1059,7 +1069,7 @@
         <v>insert into sysLocalizationText Values(1008,      'en-us','1008',     'Login-User-NotFound',    'User not found.')</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1009</v>
       </c>
@@ -1081,7 +1091,7 @@
         <v>insert into sysLocalizationText Values(1009,      'en-us','1009',     'User-Exists',    'There is already a user with the email')</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1010</v>
       </c>
@@ -1103,7 +1113,7 @@
         <v>insert into sysLocalizationText Values(1010,      'en-us','1010',     'Email-Exists',    'The email you entered already exists.')</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1011</v>
       </c>
@@ -1125,7 +1135,7 @@
         <v>insert into sysLocalizationText Values(1011,      'en-us','1011',     'Profile-NotBe-Null',    'The Profile cannot be null.')</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1012</v>
       </c>
@@ -1147,7 +1157,7 @@
         <v>insert into sysLocalizationText Values(1012,      'en-us','1012',     'User-Error-Exclude-Childs',    'There was an error deleting child items (Roles).')</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1013</v>
       </c>
@@ -1169,7 +1179,7 @@
         <v>insert into sysLocalizationText Values(1013,      'en-us','1013',     'User-Invalid-Password-Code',    'The password exchange authorization code is invalid.')</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1014</v>
       </c>
@@ -1191,7 +1201,7 @@
         <v>insert into sysLocalizationText Values(1014,      'en-us','1014',     'Account-Active',    'The account associated with the User is already active.')</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1015</v>
       </c>
@@ -1213,7 +1223,7 @@
         <v>insert into sysLocalizationText Values(1015,      'en-us','1015',     'User-Invalid-Activation-Code',    'The activation authorization code is invalid.')</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1016</v>
       </c>
@@ -1235,7 +1245,7 @@
         <v>insert into sysLocalizationText Values(1016,      'en-us','1016',     'User-No-Image',    'Send the image file.')</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1017</v>
       </c>
@@ -1257,7 +1267,7 @@
         <v>insert into sysLocalizationText Values(1017,      'en-us','1017',     'User-Role-Exists',    'This Role is already associated with the user.')</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1018</v>
       </c>
@@ -1279,7 +1289,7 @@
         <v>insert into sysLocalizationText Values(1018,      'en-us','1018',     'User-Role-No-Exists',    'This Role does not belong to the user.')</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1019</v>
       </c>
@@ -1301,7 +1311,7 @@
         <v>insert into sysLocalizationText Values(1019,      'en-us','1019',     'Http-Unauthorized',    'Unauthorized access')</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1020</v>
       </c>
@@ -1323,7 +1333,7 @@
         <v>insert into sysLocalizationText Values(1020,      'en-us','1020',     'Http-NotFound',    'The resource could not be found')</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1021</v>
       </c>
@@ -1345,7 +1355,7 @@
         <v>insert into sysLocalizationText Values(1021,      'en-us','1021',     'Http-Forbidden',    'User profile without access permission.')</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1022</v>
       </c>
@@ -1367,7 +1377,7 @@
         <v>insert into sysLocalizationText Values(1022,      'en-us','1022',     'Http-500Error',    'An error occurred in the processing of the request.')</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1023</v>
       </c>
@@ -1389,7 +1399,7 @@
         <v>insert into sysLocalizationText Values(1023,      'en-us','1023',     'Http-ServiceUnavailable',    'The requested service is unavailable.')</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1024</v>
       </c>
@@ -1411,7 +1421,7 @@
         <v>insert into sysLocalizationText Values(1024,      'en-us','1024',     'API-Unexpected-Exception',    'Unexpected error not identified GetInnerExceptions@f2]')</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1025</v>
       </c>
@@ -1433,7 +1443,7 @@
         <v>insert into sysLocalizationText Values(1025,      'en-us','1025',     'ShortDayName-1',    'Sun')</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1026</v>
       </c>
@@ -1455,7 +1465,7 @@
         <v>insert into sysLocalizationText Values(1026,      'en-us','1026',     'ShortDayName-2',    'Mon')</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1027</v>
       </c>
@@ -1477,7 +1487,7 @@
         <v>insert into sysLocalizationText Values(1027,      'en-us','1027',     'ShortDayName-3',    'Tue')</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1028</v>
       </c>
@@ -1499,7 +1509,7 @@
         <v>insert into sysLocalizationText Values(1028,      'en-us','1028',     'ShortDayName-4',    'Wed')</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1029</v>
       </c>
@@ -1521,7 +1531,7 @@
         <v>insert into sysLocalizationText Values(1029,      'en-us','1029',     'ShortDayName-5',    'Thu')</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1030</v>
       </c>
@@ -1543,7 +1553,7 @@
         <v>insert into sysLocalizationText Values(1030,      'en-us','1030',     'ShortDayName-6',    'Fri')</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1031</v>
       </c>
@@ -1565,7 +1575,7 @@
         <v>insert into sysLocalizationText Values(1031,      'en-us','1031',     'ShortDayName-7',    'Sat'  )</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1032</v>
       </c>
@@ -1587,7 +1597,7 @@
         <v>insert into sysLocalizationText Values(1032,      'en-us','1032',     'MonthName-1',    'JANUARY')</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1033</v>
       </c>
@@ -1609,7 +1619,7 @@
         <v>insert into sysLocalizationText Values(1033,      'en-us','1033',     'MonthName-2',    'FEBRUARY')</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1034</v>
       </c>
@@ -1631,7 +1641,7 @@
         <v>insert into sysLocalizationText Values(1034,      'en-us','1034',     'MonthName-3',    'MARCH')</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1035</v>
       </c>
@@ -1653,7 +1663,7 @@
         <v>insert into sysLocalizationText Values(1035,      'en-us','1035',     'MonthName-4',    'APRIL')</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1036</v>
       </c>
@@ -1675,7 +1685,7 @@
         <v>insert into sysLocalizationText Values(1036,      'en-us','1036',     'MonthName-5',    'MAY')</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1037</v>
       </c>
@@ -1697,7 +1707,7 @@
         <v>insert into sysLocalizationText Values(1037,      'en-us','1037',     'MonthName-6',    'JUNE')</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1038</v>
       </c>
@@ -1719,7 +1729,7 @@
         <v>insert into sysLocalizationText Values(1038,      'en-us','1038',     'MonthName-7',    'JULY')</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1039</v>
       </c>
@@ -1741,7 +1751,7 @@
         <v>insert into sysLocalizationText Values(1039,      'en-us','1039',     'MonthName-8',    'AUGUST')</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1040</v>
       </c>
@@ -1763,7 +1773,7 @@
         <v>insert into sysLocalizationText Values(1040,      'en-us','1040',     'MonthName-9',    'SEPTEMBER')</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1041</v>
       </c>
@@ -1785,7 +1795,7 @@
         <v>insert into sysLocalizationText Values(1041,      'en-us','1041',     'MonthName-10',    'OCTOBER')</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1042</v>
       </c>
@@ -1807,7 +1817,7 @@
         <v>insert into sysLocalizationText Values(1042,      'en-us','1042',     'MonthName-11',    'NOVEMBER')</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1043</v>
       </c>
@@ -1829,7 +1839,7 @@
         <v>insert into sysLocalizationText Values(1043,      'en-us','1043',     'MonthName-12',    'DECEMBER')</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1044</v>
       </c>
@@ -1851,7 +1861,7 @@
         <v>insert into sysLocalizationText Values(1044,      'en-us','1044',     'Validation-NotNull',    'cannot be null.')</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1045</v>
       </c>
@@ -1873,7 +1883,7 @@
         <v>insert into sysLocalizationText Values(1045,      'en-us','1045',     'Validation-Max-Characters',    'The {0} field cannot have more than 1 characters.')</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1046</v>
       </c>
@@ -1895,7 +1905,7 @@
         <v>insert into sysLocalizationText Values(1046,      'en-us','1046',     'Validation-Invalid-Field',    'The {0} field is invalid.')</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1047</v>
       </c>
@@ -1917,7 +1927,7 @@
         <v>insert into sysLocalizationText Values(1047,      'en-us','1047',     'Validation-Invalid-UserName',    'The {0} field is invalid. Do not use special characters or spaces.')</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1048</v>
       </c>
@@ -1939,7 +1949,7 @@
         <v>insert into sysLocalizationText Values(1048,      'en-us','1048',     'Validation-Unique-Value',    'The {0} field is invalid. Value must be unique.')</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1049</v>
       </c>
@@ -1961,7 +1971,7 @@
         <v>insert into sysLocalizationText Values(1049,      'en-us','1049',     'User-Instance-Exists',    'This Instance is already associated with the user.')</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1050</v>
       </c>
@@ -1983,7 +1993,7 @@
         <v>insert into sysLocalizationText Values(1050,      'en-us','1050',     'User-Instance-No-Exists',    'This Instance does not belong to the user.')</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1051</v>
       </c>
@@ -2007,7 +2017,7 @@
         <v>insert into sysLocalizationText Values(1051,      'en-us','1051','User-PageTitle','User Management')</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1052</v>
       </c>
@@ -2031,7 +2041,7 @@
         <v>insert into sysLocalizationText Values(1052,      'en-us','1052','SearchButtonLabel','Search')</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1053</v>
       </c>
@@ -2055,7 +2065,7 @@
         <v>insert into sysLocalizationText Values(1053,      'en-us','1053','SearchingLabel','Searching...')</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1054</v>
       </c>
@@ -2079,7 +2089,7 @@
         <v>insert into sysLocalizationText Values(1054,      'en-us','1054','InsertingLoadingLabel','Inserting...')</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1055</v>
       </c>
@@ -2103,7 +2113,7 @@
         <v>insert into sysLocalizationText Values(1055,      'en-us','1055','SearchResultLabel','Search Result')</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1056</v>
       </c>
@@ -2127,7 +2137,7 @@
         <v>insert into sysLocalizationText Values(1056,      'en-us','1056','DetailsLabel','Details')</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1057</v>
       </c>
@@ -2151,7 +2161,7 @@
         <v>insert into sysLocalizationText Values(1057,      'en-us','1057','NoRecordsFound','No records was found')</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1058</v>
       </c>
@@ -2175,7 +2185,7 @@
         <v>insert into sysLocalizationText Values(1058,      'en-us','1058','LoadingPage','Loading. Wait...')</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1059</v>
       </c>
@@ -2199,7 +2209,7 @@
         <v>insert into sysLocalizationText Values(1059,      'en-us','1059','LoadingData','Loading Page. Wait...')</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1060</v>
       </c>
@@ -2223,7 +2233,7 @@
         <v>insert into sysLocalizationText Values(1060,      'en-us','1060','ErrorOnExecuteSearch','Error on execute search')</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1061</v>
       </c>
@@ -2247,7 +2257,7 @@
         <v>insert into sysLocalizationText Values(1061,      'en-us','1061','ErrorOnReturnData','Error on return data')</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1062</v>
       </c>
@@ -2271,7 +2281,7 @@
         <v>insert into sysLocalizationText Values(1062,      'en-us','1062','ErrorOnCreateNewRecord','Error on create record')</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1063</v>
       </c>
@@ -2295,7 +2305,7 @@
         <v>insert into sysLocalizationText Values(1063,      'en-us','1063','AfterSaveAnswering','The new record was created successfuly. Do you want inserting ?')</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1064</v>
       </c>
@@ -2319,7 +2329,7 @@
         <v>insert into sysLocalizationText Values(1064,      'en-us','1064','NoticeLabel','Notice')</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1065</v>
       </c>
@@ -2343,7 +2353,7 @@
         <v>insert into sysLocalizationText Values(1065,      'en-us','1065','SuccessLabel','Success')</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1066</v>
       </c>
@@ -2367,7 +2377,7 @@
         <v>insert into sysLocalizationText Values(1066,      'en-us','1066','SuccessSaveMessage','The record was saved successfuly.')</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1067</v>
       </c>
@@ -2391,7 +2401,7 @@
         <v>insert into sysLocalizationText Values(1067,      'en-us','1067','Email-Label','E-mail')</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1068</v>
       </c>
@@ -2415,7 +2425,7 @@
         <v>insert into sysLocalizationText Values(1068,      'en-us','1068','UserName-Label','User Name')</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1069</v>
       </c>
@@ -2439,7 +2449,7 @@
         <v>insert into sysLocalizationText Values(1069,      'en-us','1069','Password-Label','Password')</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1070</v>
       </c>
@@ -2463,7 +2473,7 @@
         <v>insert into sysLocalizationText Values(1070,      'en-us','1070','Instance-Label','Instance')</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1071</v>
       </c>
@@ -2487,7 +2497,7 @@
         <v>insert into sysLocalizationText Values(1071,      'en-us','1071','Role-Label','Role')</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1072</v>
       </c>
@@ -2511,7 +2521,7 @@
         <v>insert into sysLocalizationText Values(1072,      'en-us','1072','Yes-Text','Yes')</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1073</v>
       </c>
@@ -2535,7 +2545,7 @@
         <v>insert into sysLocalizationText Values(1073,      'en-us','1073','No-Text','No')</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1074</v>
       </c>
@@ -2559,7 +2569,7 @@
         <v>insert into sysLocalizationText Values(1074,      'en-us','1074','Saving-Label','Saving...')</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1075</v>
       </c>
@@ -2583,7 +2593,7 @@
         <v>insert into sysLocalizationText Values(1075,      'en-us','1075','Edit-Label','Edit')</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1076</v>
       </c>
@@ -2607,7 +2617,7 @@
         <v>insert into sysLocalizationText Values(1076,      'en-us','1076','Date-Label','Date')</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1077</v>
       </c>
@@ -2631,7 +2641,7 @@
         <v>insert into sysLocalizationText Values(1077,      'en-us','1077','Field-Label','Field')</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1078</v>
       </c>
@@ -2655,7 +2665,7 @@
         <v>insert into sysLocalizationText Values(1078,      'en-us','1078','Value-Label','Value')</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1079</v>
       </c>
@@ -2679,7 +2689,7 @@
         <v>insert into sysLocalizationText Values(1079,      'en-us','1079','SelectItem-Description','Select a item')</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1080</v>
       </c>
@@ -2703,7 +2713,7 @@
         <v>insert into sysLocalizationText Values(1080,      'en-us','1080','AllItem-Description','All')</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1081</v>
       </c>
@@ -2727,7 +2737,7 @@
         <v>insert into sysLocalizationText Values(1081,      'en-us','1081','Welcome-Label','Welcome to GW Template')</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1082</v>
       </c>
@@ -2751,7 +2761,7 @@
         <v>insert into sysLocalizationText Values(1082,      'en-us','1082','LoginTitle-Label','Sign In')</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1083</v>
       </c>
@@ -2775,7 +2785,7 @@
         <v>insert into sysLocalizationText Values(1083,      'en-us','1083','LoginTitle-Description','Enter your login and password')</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1084</v>
       </c>
@@ -2799,7 +2809,7 @@
         <v>insert into sysLocalizationText Values(1084,      'en-us','1084','InputEmail-Description','Input your account e-mail')</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1085</v>
       </c>
@@ -2823,7 +2833,7 @@
         <v>insert into sysLocalizationText Values(1085,      'en-us','1085','InputPassword-Description','Input your password')</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1086</v>
       </c>
@@ -2847,7 +2857,7 @@
         <v>insert into sysLocalizationText Values(1086,      'en-us','1086','ForgetPassword-Description','Forgot your password ?')</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1087</v>
       </c>
@@ -2871,7 +2881,7 @@
         <v>insert into sysLocalizationText Values(1087,      'en-us','1087','LoginButton-Label','Confirm')</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1088</v>
       </c>
@@ -2895,7 +2905,7 @@
         <v>insert into sysLocalizationText Values(1088,      'en-us','1088','LoginLoading-Label','Entering...')</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1089</v>
       </c>
@@ -2919,7 +2929,7 @@
         <v>insert into sysLocalizationText Values(1089,      'en-us','1089','SendText-Description','Sending...')</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1090</v>
       </c>
@@ -2943,7 +2953,7 @@
         <v>insert into sysLocalizationText Values(1090,      'en-us','1090','ActiveAccountButton-Label','Activate Account')</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1091</v>
       </c>
@@ -2967,7 +2977,7 @@
         <v>insert into sysLocalizationText Values(1091,      'en-us','1091','ActiveAccount-Label','Account Activation')</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1092</v>
       </c>
@@ -2991,7 +3001,7 @@
         <v>insert into sysLocalizationText Values(1092,      'en-us','1092','ActiveAccount-Description','Cannot access ?')</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1093</v>
       </c>
@@ -3015,7 +3025,7 @@
         <v>insert into sysLocalizationText Values(1093,      'en-us','1093','ActiveAccount-Step1','Send the activation code to your registration email')</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1094</v>
       </c>
@@ -3039,7 +3049,7 @@
         <v>insert into sysLocalizationText Values(1094,      'en-us','1094','ActiveAccount-Step2','Enter the activation code received')</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1095</v>
       </c>
@@ -3063,7 +3073,7 @@
         <v>insert into sysLocalizationText Values(1095,      'en-us','1095','SendCodeButton-Label','Send code')</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1096</v>
       </c>
@@ -3087,7 +3097,7 @@
         <v>insert into sysLocalizationText Values(1096,      'en-us','1096','ActiveLoading-Label','Request Activation')</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1097</v>
       </c>
@@ -3111,7 +3121,7 @@
         <v>insert into sysLocalizationText Values(1097,      'en-us','1097','InputCode-Description','Input code received on e-mail')</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1098</v>
       </c>
@@ -3135,7 +3145,7 @@
         <v>insert into sysLocalizationText Values(1098,      'en-us','1098','Unlogged-Label','Not Logged')</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1099</v>
       </c>
@@ -3159,7 +3169,7 @@
         <v>insert into sysLocalizationText Values(1099,      'en-us','1099','MyProfile-Label','My Profile')</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1100</v>
       </c>
@@ -3183,7 +3193,7 @@
         <v>insert into sysLocalizationText Values(1100,      'en-us','1100','MainProfileData-Label','Main Info')</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1101</v>
       </c>
@@ -3207,7 +3217,7 @@
         <v>insert into sysLocalizationText Values(1101,      'en-us','1101','AlterPassword-Label','Change Password')</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1102</v>
       </c>
@@ -3231,7 +3241,7 @@
         <v>insert into sysLocalizationText Values(1102,      'en-us','1102','LanguageRole-Label','Language')</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1103</v>
       </c>
@@ -3255,7 +3265,7 @@
         <v>insert into sysLocalizationText Values(1103,      'en-us','1103','AlterProfileImage-Label','Change Profile Image')</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1104</v>
       </c>
@@ -3279,7 +3289,7 @@
         <v>insert into sysLocalizationText Values(1104,      'en-us','1104','AlterPasswordStep1-Label','Click on the link below to receive an email with the security code to change your password')</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1105</v>
       </c>
@@ -3303,7 +3313,7 @@
         <v>insert into sysLocalizationText Values(1105,      'en-us','1105','AlterPasswordStep2-Label','After receiving the code, fill in the information below and click Change Password')</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1106</v>
       </c>
@@ -3327,7 +3337,7 @@
         <v>insert into sysLocalizationText Values(1106,      'en-us','1106','InputNewPassword-Label','Input the new password')</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1107</v>
       </c>
@@ -3351,7 +3361,7 @@
         <v>insert into sysLocalizationText Values(1107,      'en-us','1107','AlterPasswordButton-Label','Change Password')</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1108</v>
       </c>
@@ -3375,7 +3385,7 @@
         <v>insert into sysLocalizationText Values(1108,      'en-us','1108','AlterPasswordButton-Loading','Changing password...')</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1109</v>
       </c>
@@ -3399,7 +3409,7 @@
         <v>insert into sysLocalizationText Values(1109,      'en-us','1109','InvalidCredentials-Title','Invalid Credentiais')</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1110</v>
       </c>
@@ -3423,7 +3433,7 @@
         <v>insert into sysLocalizationText Values(1110,      'en-us','1110','InvalidCredentials-Message','E-mail or password invalid.')</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1111</v>
       </c>
@@ -3447,7 +3457,7 @@
         <v>insert into sysLocalizationText Values(1111,      'en-us','1111','TemporaryPassword-Title','Temporary Password Sent')</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1112</v>
       </c>
@@ -3471,7 +3481,7 @@
         <v>insert into sysLocalizationText Values(1112,      'en-us','1112','TemporaryPassword-Message','A temporary password has been sent to your registration e-mail. When logging in, ask to change your password.')</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1113</v>
       </c>
@@ -3495,7 +3505,7 @@
         <v>insert into sysLocalizationText Values(1113,      'en-us','1113','SuccessActivated-Title','Activation Successfuly')</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1114</v>
       </c>
@@ -3519,7 +3529,7 @@
         <v>insert into sysLocalizationText Values(1114,      'en-us','1114','SuccessActivated-Message','The account has been successfully activated. You can now log in.')</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1115</v>
       </c>
@@ -3543,7 +3553,7 @@
         <v>insert into sysLocalizationText Values(1115,      'en-us','1115','ActivateCode-Title','Code was Sent .')</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1116</v>
       </c>
@@ -3567,7 +3577,7 @@
         <v>insert into sysLocalizationText Values(1116,      'en-us','1116','ActivateCode-Message','A security code has been sent by e-mail.')</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1117</v>
       </c>
@@ -3591,7 +3601,7 @@
         <v>insert into sysLocalizationText Values(1117,      'en-us','1117','PasswordChanged-Title','Changed Password')</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1118</v>
       </c>
@@ -3615,7 +3625,7 @@
         <v>insert into sysLocalizationText Values(1118,      'en-us','1118','PasswordChanged-Message','The password has been successfully changed. Log in again.')</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1119</v>
       </c>
@@ -3639,7 +3649,7 @@
         <v>insert into sysLocalizationText Values(1119,      'en-us','1119','ImageChanged-Title','Altered Image')</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1120</v>
       </c>
@@ -3663,7 +3673,7 @@
         <v>insert into sysLocalizationText Values(1120,      'en-us','1120','ImageChanged-Message','The profile picture has been changed. At the next login the new image will be displayed.')</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1121</v>
       </c>
@@ -3687,7 +3697,7 @@
         <v>insert into sysLocalizationText Values(1121,      'en-us','1121','SearchByEmail-Label','By E-mail')</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1122</v>
       </c>
@@ -3711,7 +3721,7 @@
         <v>insert into sysLocalizationText Values(1122,      'en-us','1122','SearchByUserName-Label','By User Name')</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1123</v>
       </c>
@@ -3735,7 +3745,7 @@
         <v>insert into sysLocalizationText Values(1123,      'en-us','1123','SearchByEmail-Description','Search By E-mail')</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1124</v>
       </c>
@@ -3759,7 +3769,7 @@
         <v>insert into sysLocalizationText Values(1124,      'en-us','1124','SearchByUserName-Description','Search By User Name')</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1125</v>
       </c>
@@ -3783,7 +3793,7 @@
         <v>insert into sysLocalizationText Values(1125,      'en-us','1125','SearchByInstance-Label','By Instance')</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1126</v>
       </c>
@@ -3807,7 +3817,7 @@
         <v>insert into sysLocalizationText Values(1126,      'en-us','1126','SearchByRole-Label','By Role')</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1127</v>
       </c>
@@ -3831,7 +3841,7 @@
         <v>insert into sysLocalizationText Values(1127,      'en-us','1127','NewUser-Label','New User')</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1128</v>
       </c>
@@ -3855,7 +3865,7 @@
         <v>insert into sysLocalizationText Values(1128,      'en-us','1128','NewUser-Description','Click here to create new User')</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1129</v>
       </c>
@@ -3879,7 +3889,7 @@
         <v>insert into sysLocalizationText Values(1129,      'en-us','1129','Active-Label','Active')</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1130</v>
       </c>
@@ -3903,7 +3913,7 @@
         <v>insert into sysLocalizationText Values(1130,      'en-us','1130','Locked-Label','Locked')</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1131</v>
       </c>
@@ -3927,7 +3937,7 @@
         <v>insert into sysLocalizationText Values(1131,      'en-us','1131','MainData-Label','Main Data')</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1132</v>
       </c>
@@ -3951,7 +3961,7 @@
         <v>insert into sysLocalizationText Values(1132,      'en-us','1132','User-SecondTabLabel','Instances &amp; Roles')</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1133</v>
       </c>
@@ -3975,7 +3985,7 @@
         <v>insert into sysLocalizationText Values(1133,      'en-us','1133','CreateDate-Label','Create Date')</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1134</v>
       </c>
@@ -3999,7 +4009,7 @@
         <v>insert into sysLocalizationText Values(1134,      'en-us','1134','LastLoginDate-Label','Last Login Date')</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1135</v>
       </c>
@@ -4023,7 +4033,7 @@
         <v>insert into sysLocalizationText Values(1135,      'en-us','1135','DefaultLanguage-Label','Default Language')</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1136</v>
       </c>
@@ -4047,7 +4057,7 @@
         <v>insert into sysLocalizationText Values(1136,      'en-us','1136','LastLoginIP-Label','Last Login IP')</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1137</v>
       </c>
@@ -4071,7 +4081,7 @@
         <v>insert into sysLocalizationText Values(1137,      'en-us','1137','LoginCounter-Label','Login Counter')</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1138</v>
       </c>
@@ -4095,7 +4105,7 @@
         <v>insert into sysLocalizationText Values(1138,      'en-us','1138','PasswordRecovery-Label','Password Recovery Code')</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1139</v>
       </c>
@@ -4119,7 +4129,7 @@
         <v>insert into sysLocalizationText Values(1139,      'en-us','1139','AlterInstance-Label','Alter Instance')</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1140</v>
       </c>
@@ -4143,7 +4153,7 @@
         <v>insert into sysLocalizationText Values(1140,      'en-us','1140','AlterInstance-Description','Select a Instance to change')</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1141</v>
       </c>
@@ -4167,7 +4177,7 @@
         <v>insert into sysLocalizationText Values(1141,      'en-us','1141','Altering-Label','Altering...')</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1142</v>
       </c>
@@ -4191,7 +4201,7 @@
         <v>insert into sysLocalizationText Values(1142,      'en-us','1142','AlterRole-Label','Alter Role')</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1143</v>
       </c>
@@ -4215,7 +4225,7 @@
         <v>insert into sysLocalizationText Values(1143,      'en-us','1143','AlterRole-Description','Select a Role to change')</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1144</v>
       </c>
@@ -4239,7 +4249,7 @@
         <v>insert into sysLocalizationText Values(1144,      'en-us','1144','UserStatus-Label','User Status')</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1145</v>
       </c>
@@ -4263,7 +4273,7 @@
         <v>insert into sysLocalizationText Values(1145,      'en-us','1145','ChangeUserState-Description','Click here to change status')</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1146</v>
       </c>
@@ -4287,7 +4297,7 @@
         <v>insert into sysLocalizationText Values(1146,      'en-us','1146','ChangeUserState-Label','Update Status')</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1147</v>
       </c>
@@ -4311,7 +4321,7 @@
         <v>insert into sysLocalizationText Values(1147,      'en-us','1147','CreateUser-Label','Creating New User')</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1148</v>
       </c>
@@ -4335,7 +4345,7 @@
         <v>insert into sysLocalizationText Values(1148,      'en-us','1148','CreateUser-Description','Click here to create new user record.')</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1149</v>
       </c>
@@ -4359,7 +4369,7 @@
         <v>insert into sysLocalizationText Values(1149,      'en-us','1149','CreateUserButton-Label','Save')</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1150</v>
       </c>
@@ -4383,7 +4393,7 @@
         <v>insert into sysLocalizationText Values(1150,      'en-us','1150','AlterStatus-Error','Error on alter user status')</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1151</v>
       </c>
@@ -4407,7 +4417,7 @@
         <v>insert into sysLocalizationText Values(1151,      'en-us','1151','AlterStatus-Success','User status altered successfuly')</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1152</v>
       </c>
@@ -4431,7 +4441,7 @@
         <v>insert into sysLocalizationText Values(1152,      'en-us','1152','AlterInstance-Error','Error on alter instance')</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1153</v>
       </c>
@@ -4455,7 +4465,7 @@
         <v>insert into sysLocalizationText Values(1153,      'en-us','1153','AlterInstance-Success','Instance altered successfuly')</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1154</v>
       </c>
@@ -4479,7 +4489,7 @@
         <v>insert into sysLocalizationText Values(1154,      'en-us','1154','AlterRole-Error','Error on alter user role')</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1155</v>
       </c>
@@ -4503,7 +4513,7 @@
         <v>insert into sysLocalizationText Values(1155,      'en-us','1155','AlterRole-Success','Role altered successfuly')</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1156</v>
       </c>
@@ -4527,7 +4537,7 @@
         <v>insert into sysLocalizationText Values(1156,      'en-us','1156','Instance-PageTitle','Instance')</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1157</v>
       </c>
@@ -4551,7 +4561,7 @@
         <v>insert into sysLocalizationText Values(1157,      'en-us','1157','SearchByInstanceName-Label','By Instance Name')</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1158</v>
       </c>
@@ -4575,7 +4585,7 @@
         <v>insert into sysLocalizationText Values(1158,      'en-us','1158','SearchByInstanceName-Description','Search by Instance Name')</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1159</v>
       </c>
@@ -4599,7 +4609,7 @@
         <v>insert into sysLocalizationText Values(1159,      'en-us','1159','SearchByInstanceTypeName-Label','By Type Name')</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1160</v>
       </c>
@@ -4623,7 +4633,7 @@
         <v>insert into sysLocalizationText Values(1160,      'en-us','1160','SearchByInstanceTypeName-Description','Search by Type Name')</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1161</v>
       </c>
@@ -4647,7 +4657,7 @@
         <v>insert into sysLocalizationText Values(1161,      'en-us','1161','NewInstance-Label','New Instance')</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1162</v>
       </c>
@@ -4671,7 +4681,7 @@
         <v>insert into sysLocalizationText Values(1162,      'en-us','1162','NewInstance-Description','Click here to create new Instance')</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1163</v>
       </c>
@@ -4695,7 +4705,7 @@
         <v>insert into sysLocalizationText Values(1163,      'en-us','1163','InstanceTypeName-Label','Instance Type Name')</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1164</v>
       </c>
@@ -4719,7 +4729,7 @@
         <v>insert into sysLocalizationText Values(1164,      'en-us','1164','InstanceName-Label','Instance Name')</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1165</v>
       </c>
@@ -4743,7 +4753,7 @@
         <v>insert into sysLocalizationText Values(1165,      'en-us','1165','InstanceRecord-Label','Instance Record')</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1166</v>
       </c>
@@ -4767,7 +4777,7 @@
         <v>insert into sysLocalizationText Values(1166,      'en-us','1166','SaveInstanceButton-Label','Save Instance')</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1167</v>
       </c>
@@ -4791,7 +4801,7 @@
         <v>insert into sysLocalizationText Values(1167,      'en-us','1167','SaveInstanceButton-Description','Click here to save Instance')</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1168</v>
       </c>
@@ -4815,7 +4825,7 @@
         <v>insert into sysLocalizationText Values(1168,      'en-us','1168','DataLog-PageTitle','Data Log')</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1169</v>
       </c>
@@ -4839,7 +4849,7 @@
         <v>insert into sysLocalizationText Values(1169,      'en-us','1169','SearchByOperationType-Label','By Operation Type')</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1170</v>
       </c>
@@ -4863,7 +4873,7 @@
         <v>insert into sysLocalizationText Values(1170,      'en-us','1170','SearchByObject-Label','By Object')</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1171</v>
       </c>
@@ -4887,7 +4897,7 @@
         <v>insert into sysLocalizationText Values(1171,      'en-us','1171','SearchByIntervalDate-Label','By Date Range')</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1172</v>
       </c>
@@ -4911,7 +4921,7 @@
         <v>insert into sysLocalizationText Values(1172,      'en-us','1172','SearchByInicialDate-Label','Start Date')</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1173</v>
       </c>
@@ -4935,7 +4945,7 @@
         <v>insert into sysLocalizationText Values(1173,      'en-us','1173','SearchByFinalDate-Label','End Date')</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1174</v>
       </c>
@@ -4959,7 +4969,7 @@
         <v>insert into sysLocalizationText Values(1174,      'en-us','1174','SearchByRecordID-Label','Search Record ID')</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1175</v>
       </c>
@@ -4983,7 +4993,7 @@
         <v>insert into sysLocalizationText Values(1175,      'en-us','1175','TableName-Label','Table Name')</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1176</v>
       </c>
@@ -5007,7 +5017,7 @@
         <v>insert into sysLocalizationText Values(1176,      'en-us','1176','OperationText-Label','Operation Text')</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1177</v>
       </c>
@@ -5031,7 +5041,7 @@
         <v>insert into sysLocalizationText Values(1177,      'en-us','1177','LogID-Label','Log ID')</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1178</v>
       </c>
@@ -5055,7 +5065,7 @@
         <v>insert into sysLocalizationText Values(1178,      'en-us','1178','LogInformation-Label','Log Information')</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1179</v>
       </c>
@@ -5079,7 +5089,7 @@
         <v>insert into sysLocalizationText Values(1179,      'en-us','1179','ShowTimeLine-Label','Show Time Line')</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1180</v>
       </c>
@@ -5103,7 +5113,7 @@
         <v>insert into sysLocalizationText Values(1180,      'en-us','1180','OldVersionData-Label','Old Version')</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1181</v>
       </c>
@@ -5127,7 +5137,7 @@
         <v>insert into sysLocalizationText Values(1181,      'en-us','1181','HasNoOldVersion-Label','No data was found')</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1182</v>
       </c>
@@ -5151,7 +5161,7 @@
         <v>insert into sysLocalizationText Values(1182,      'en-us','1182','CurrentVersionData-Label','Current Version')</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1183</v>
       </c>
@@ -5175,7 +5185,7 @@
         <v>insert into sysLocalizationText Values(1183,      'en-us','1183','HasNoCurrentVersion-Label','No data was found')</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1184</v>
       </c>
@@ -5199,7 +5209,7 @@
         <v>insert into sysLocalizationText Values(1184,      'en-us','1184','RecordTimeLine-Label','Record Time Line')</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1185</v>
       </c>
@@ -5223,7 +5233,7 @@
         <v>insert into sysLocalizationText Values(1185,      'en-us','1185','HasNoTimeLine-Label','No data on time line')</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1186</v>
       </c>
@@ -5247,7 +5257,7 @@
         <v>insert into sysLocalizationText Values(1186,      'en-us','1186','Localization-PageTitle','Localization Text')</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1187</v>
       </c>
@@ -5271,7 +5281,7 @@
         <v>insert into sysLocalizationText Values(1187,      'en-us','1187','SearchByLanguage-Label','By Language')</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1188</v>
       </c>
@@ -5295,7 +5305,7 @@
         <v>insert into sysLocalizationText Values(1188,      'en-us','1188','SearchByLanguage-Description','Search by Language')</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1189</v>
       </c>
@@ -5319,7 +5329,7 @@
         <v>insert into sysLocalizationText Values(1189,      'en-us','1189','SearchByLocalizationCode-Label','By Localization Code')</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1190</v>
       </c>
@@ -5343,7 +5353,7 @@
         <v>insert into sysLocalizationText Values(1190,      'en-us','1190','SearchByLocalizationCode-Description','Search by Localization Code')</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1191</v>
       </c>
@@ -5367,7 +5377,7 @@
         <v>insert into sysLocalizationText Values(1191,      'en-us','1191','SearchByLocalizationName-Label','By Localization Name')</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1192</v>
       </c>
@@ -5391,7 +5401,7 @@
         <v>insert into sysLocalizationText Values(1192,      'en-us','1192','SearchByLocalizationName-Description','Search by Localization Name')</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1193</v>
       </c>
@@ -5415,7 +5425,7 @@
         <v>insert into sysLocalizationText Values(1193,      'en-us','1193','SearchByLocalizationText-Label','By Localization Text')</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1194</v>
       </c>
@@ -5439,7 +5449,7 @@
         <v>insert into sysLocalizationText Values(1194,      'en-us','1194','SearchByLocalizationText-Description','Search by Localization Text')</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1195</v>
       </c>
@@ -5463,7 +5473,7 @@
         <v>insert into sysLocalizationText Values(1195,      'en-us','1195','Language-Label','Language')</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1196</v>
       </c>
@@ -5487,7 +5497,7 @@
         <v>insert into sysLocalizationText Values(1196,      'en-us','1196','LocalizationCode-Label','Localization Code')</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1197</v>
       </c>
@@ -5511,7 +5521,7 @@
         <v>insert into sysLocalizationText Values(1197,      'en-us','1197','LocalizationName-Label','Localization Name')</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1198</v>
       </c>
@@ -5535,7 +5545,7 @@
         <v>insert into sysLocalizationText Values(1198,      'en-us','1198','LocalizationRecord-Label','Localization Text Record')</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1199</v>
       </c>
@@ -5559,7 +5569,7 @@
         <v>insert into sysLocalizationText Values(1199,      'en-us','1199','LocalizationText-Label','Localization Text')</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1200</v>
       </c>
@@ -5583,7 +5593,7 @@
         <v>insert into sysLocalizationText Values(1200,      'en-us','1200','SaveLocalizationButton-Label','Save Localization')</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1201</v>
       </c>
@@ -5607,7 +5617,7 @@
         <v>insert into sysLocalizationText Values(1201,      'en-us','1201','SaveLocalizationButton-Description','Click here to save localization')</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1202</v>
       </c>
@@ -5631,7 +5641,7 @@
         <v>insert into sysLocalizationText Values(1202,      'en-us','1202','NewLocalization-Label','New Localization')</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1203</v>
       </c>
@@ -5655,7 +5665,7 @@
         <v>insert into sysLocalizationText Values(1203,      'en-us','1203','ObjectPermission-PageTitle','Object Permission')</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1204</v>
       </c>
@@ -5679,7 +5689,7 @@
         <v>insert into sysLocalizationText Values(1204,      'en-us','1204','SearchByObjectName-Label','By Object Name')</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1205</v>
       </c>
@@ -5703,7 +5713,7 @@
         <v>insert into sysLocalizationText Values(1205,      'en-us','1205','SearchByObjectName-Description','Search by Object Name')</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1206</v>
       </c>
@@ -5727,7 +5737,7 @@
         <v>insert into sysLocalizationText Values(1206,      'en-us','1206','SearchByObjectCode-Label','By Object Code')</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1207</v>
       </c>
@@ -5751,7 +5761,7 @@
         <v>insert into sysLocalizationText Values(1207,      'en-us','1207','SearchByObjectCode-Description','Search by Object Code')</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1208</v>
       </c>
@@ -5775,7 +5785,7 @@
         <v>insert into sysLocalizationText Values(1208,      'en-us','1208','NewObject-Label','New Object')</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1209</v>
       </c>
@@ -5799,7 +5809,7 @@
         <v>insert into sysLocalizationText Values(1209,      'en-us','1209','ObjectName-Label','Object Name')</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1210</v>
       </c>
@@ -5823,7 +5833,7 @@
         <v>insert into sysLocalizationText Values(1210,      'en-us','1210','ObjectCode-Label','Object Code')</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1211</v>
       </c>
@@ -5847,7 +5857,7 @@
         <v>insert into sysLocalizationText Values(1211,      'en-us','1211','ObjectPermissionRecord-Label','Object Permission Record')</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1212</v>
       </c>
@@ -5871,7 +5881,7 @@
         <v>insert into sysLocalizationText Values(1212,      'en-us','1212','SaveObjectPermissionButton-Label','Save Object Permission')</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1213</v>
       </c>
@@ -5895,7 +5905,7 @@
         <v>insert into sysLocalizationText Values(1213,      'en-us','1213','SaveObjectPermissionButton-Description','Click here to save Object Permission')</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1214</v>
       </c>
@@ -5919,7 +5929,7 @@
         <v>insert into sysLocalizationText Values(1214,      'en-us','1214','Permission-PageTitle','Permission')</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1215</v>
       </c>
@@ -5943,7 +5953,7 @@
         <v>insert into sysLocalizationText Values(1215,      'en-us','1215','SearchByObjectPermission-Label','By Object Permission')</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1216</v>
       </c>
@@ -5967,7 +5977,7 @@
         <v>insert into sysLocalizationText Values(1216,      'en-us','1216','SearchByRole-Label','By Role')</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1217</v>
       </c>
@@ -5991,7 +6001,7 @@
         <v>insert into sysLocalizationText Values(1217,      'en-us','1217','SearchByUser-Label','By User')</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1218</v>
       </c>
@@ -6015,7 +6025,7 @@
         <v>insert into sysLocalizationText Values(1218,      'en-us','1218','NewPermission-Label','New Permission')</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1219</v>
       </c>
@@ -6039,7 +6049,7 @@
         <v>insert into sysLocalizationText Values(1219,      'en-us','1219','NewPermission-Description','Click here to create new permission')</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1220</v>
       </c>
@@ -6063,7 +6073,7 @@
         <v>insert into sysLocalizationText Values(1220,      'en-us','1220','ObjectName-Label','Object Name')</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1221</v>
       </c>
@@ -6087,7 +6097,7 @@
         <v>insert into sysLocalizationText Values(1221,      'en-us','1221','RoleName-Label','Role Name')</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1222</v>
       </c>
@@ -6111,7 +6121,7 @@
         <v>insert into sysLocalizationText Values(1222,      'en-us','1222','PermissionRecord-Label','Permission Record')</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1223</v>
       </c>
@@ -6135,7 +6145,7 @@
         <v>insert into sysLocalizationText Values(1223,      'en-us','1223','PermissionType-Label','Permission Type')</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1224</v>
       </c>
@@ -6159,7 +6169,7 @@
         <v>insert into sysLocalizationText Values(1224,      'en-us','1224','ReadStatus-Label','Read Status')</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1225</v>
       </c>
@@ -6183,7 +6193,7 @@
         <v>insert into sysLocalizationText Values(1225,      'en-us','1225','SaveStatus-Label','Save Status')</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1226</v>
       </c>
@@ -6207,7 +6217,7 @@
         <v>insert into sysLocalizationText Values(1226,      'en-us','1226','DeleteStatus-Label','Delete Status')</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1227</v>
       </c>
@@ -6231,7 +6241,7 @@
         <v>insert into sysLocalizationText Values(1227,      'en-us','1227','SavePermissionButton-Label','Save Permission')</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1228</v>
       </c>
@@ -6255,7 +6265,7 @@
         <v>insert into sysLocalizationText Values(1228,      'en-us','1228','SavePermissionButton-Description','Click here to save Permission')</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1229</v>
       </c>
@@ -6279,7 +6289,7 @@
         <v>insert into sysLocalizationText Values(1229,      'en-us','1229','Role-PageTitle','Role')</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1230</v>
       </c>
@@ -6303,7 +6313,7 @@
         <v>insert into sysLocalizationText Values(1230,      'en-us','1230','SearchByRoleName-Label','By Role Name')</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1231</v>
       </c>
@@ -6327,7 +6337,7 @@
         <v>insert into sysLocalizationText Values(1231,      'en-us','1231','SearchByRoleName-Description','Search by Role Name')</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1232</v>
       </c>
@@ -6351,7 +6361,7 @@
         <v>insert into sysLocalizationText Values(1232,      'en-us','1232','NewRole-Label','New Role')</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1233</v>
       </c>
@@ -6371,11 +6381,11 @@
         <v>'Click here to create new Role'</v>
       </c>
       <c r="F233" t="str">
-        <f t="shared" ref="F233:F273" si="10">"insert into sysLocalizationText Values(" &amp;A233 &amp; "," &amp; B233 &amp; "," &amp;C233 &amp; "," &amp; D233 &amp; "," &amp; E233 &amp; ")"</f>
+        <f t="shared" ref="F233:F277" si="10">"insert into sysLocalizationText Values(" &amp;A233 &amp; "," &amp; B233 &amp; "," &amp;C233 &amp; "," &amp; D233 &amp; "," &amp; E233 &amp; ")"</f>
         <v>insert into sysLocalizationText Values(1233,      'en-us','1233','NewRole-Description','Click here to create new Role')</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1234</v>
       </c>
@@ -6399,7 +6409,7 @@
         <v>insert into sysLocalizationText Values(1234,      'en-us','1234','RoleName-Label','Role Name')</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1235</v>
       </c>
@@ -6423,7 +6433,7 @@
         <v>insert into sysLocalizationText Values(1235,      'en-us','1235','RoleRecord-Label','Role Record')</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1236</v>
       </c>
@@ -6447,7 +6457,7 @@
         <v>insert into sysLocalizationText Values(1236,      'en-us','1236','SaveRoleButton-Label','Save Role')</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1237</v>
       </c>
@@ -6471,7 +6481,7 @@
         <v>insert into sysLocalizationText Values(1237,      'en-us','1237','SaveRoleButton-Description','Click here to save Role')</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1238</v>
       </c>
@@ -6495,7 +6505,7 @@
         <v>insert into sysLocalizationText Values(1238,      'en-us','1238','SessionLog-PageTitle','Session Log')</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1239</v>
       </c>
@@ -6519,7 +6529,7 @@
         <v>insert into sysLocalizationText Values(1239,      'en-us','1239','SearchByEmail-Description','Search by E-mail')</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1240</v>
       </c>
@@ -6543,7 +6553,7 @@
         <v>insert into sysLocalizationText Values(1240,      'en-us','1240','SearchByDateInterval-Label','By Date Range')</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1241</v>
       </c>
@@ -6567,7 +6577,7 @@
         <v>insert into sysLocalizationText Values(1241,      'en-us','1241','SearchByInicialDate-Label','Start Date')</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1242</v>
       </c>
@@ -6591,7 +6601,7 @@
         <v>insert into sysLocalizationText Values(1242,      'en-us','1242','SearchByFinalDate-Label','End Date')</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1243</v>
       </c>
@@ -6615,7 +6625,7 @@
         <v>insert into sysLocalizationText Values(1243,      'en-us','1243','AccessDate-Label','Access Date')</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1244</v>
       </c>
@@ -6639,7 +6649,7 @@
         <v>insert into sysLocalizationText Values(1244,      'en-us','1244','IP-Label','IP')</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1245</v>
       </c>
@@ -6663,7 +6673,7 @@
         <v>insert into sysLocalizationText Values(1245,      'en-us','1245','SuperAdmin-MenuText','Super Admin')</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1246</v>
       </c>
@@ -6687,7 +6697,7 @@
         <v>insert into sysLocalizationText Values(1246,      'en-us','1246','BasicsData-MenuText','Management')</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1247</v>
       </c>
@@ -6711,7 +6721,7 @@
         <v>insert into sysLocalizationText Values(1247,      'en-us','1247','Monitoring-MenuText','Monitoring')</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1248</v>
       </c>
@@ -6735,7 +6745,7 @@
         <v>insert into sysLocalizationText Values(1248,      'en-us','1248','Instance-MenuText','Instances')</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1249</v>
       </c>
@@ -6759,7 +6769,7 @@
         <v>insert into sysLocalizationText Values(1249,      'en-us','1249','Role-MenuText','Roles')</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1250</v>
       </c>
@@ -6783,7 +6793,7 @@
         <v>insert into sysLocalizationText Values(1250,      'en-us','1250','Users-MenuText','Users')</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1251</v>
       </c>
@@ -6807,7 +6817,7 @@
         <v>insert into sysLocalizationText Values(1251,      'en-us','1251','ObjectPermission-MenuText','Objects Permission')</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1252</v>
       </c>
@@ -6831,7 +6841,7 @@
         <v>insert into sysLocalizationText Values(1252,      'en-us','1252','Permissions-MenuText','Permissions')</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1253</v>
       </c>
@@ -6855,7 +6865,7 @@
         <v>insert into sysLocalizationText Values(1253,      'en-us','1253','Localization-MenuText','Localization Texts')</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1256</v>
       </c>
@@ -6879,7 +6889,7 @@
         <v>insert into sysLocalizationText Values(1256,      'en-us','1256','DataLog-MenuText','Data Log')</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1257</v>
       </c>
@@ -6903,7 +6913,7 @@
         <v>insert into sysLocalizationText Values(1257,      'en-us','1257','SessionLog-MenuText','Session Log')</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1258</v>
       </c>
@@ -6927,7 +6937,7 @@
         <v>insert into sysLocalizationText Values(1258,      'en-us','1258','SearchByGroupParameterName-Label','Group Parameter Name')</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1259</v>
       </c>
@@ -6935,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="str">
-        <f t="shared" ref="C256:C263" si="13">"'" &amp; A257 &amp; "'"</f>
+        <f t="shared" ref="C257:C263" si="13">"'" &amp; A257 &amp; "'"</f>
         <v>'1259'</v>
       </c>
       <c r="D257" t="str">
@@ -6951,7 +6961,7 @@
         <v>insert into sysLocalizationText Values(1259,      'en-us','1259','SearchByGroupParameterName-Description','Search by Group Parameter Name')</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1260</v>
       </c>
@@ -6975,7 +6985,7 @@
         <v>insert into sysLocalizationText Values(1260,      'en-us','1260','NewGroupParameter-Label','New Group Parameter')</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1261</v>
       </c>
@@ -6999,7 +7009,7 @@
         <v>insert into sysLocalizationText Values(1261,      'en-us','1261','NewGroupParameter-Description','Click here to create new Group Parameter ')</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1262</v>
       </c>
@@ -7023,7 +7033,7 @@
         <v>insert into sysLocalizationText Values(1262,      'en-us','1262','GroupParameterRecord-Label','Group Parameter Record')</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1263</v>
       </c>
@@ -7047,7 +7057,7 @@
         <v>insert into sysLocalizationText Values(1263,      'en-us','1263','GroupParameterName-Label','Group Parameter Name ')</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1264</v>
       </c>
@@ -7071,7 +7081,7 @@
         <v>insert into sysLocalizationText Values(1264,      'en-us','1264','SaveGroupParameterButton-Label','Save Group Parameter')</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1265</v>
       </c>
@@ -7095,7 +7105,7 @@
         <v>insert into sysLocalizationText Values(1265,      'en-us','1265','SaveGroupParameterButton-Description','Click here to save Group Parameter')</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1266</v>
       </c>
@@ -7119,7 +7129,7 @@
         <v>insert into sysLocalizationText Values(1266,      'en-us','1266','GroupParameter-PageTitle','Group Parameters')</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1267</v>
       </c>
@@ -7143,7 +7153,7 @@
         <v>insert into sysLocalizationText Values(1267,      'en-us','1267','SearchByParameterName-Label','Parameter Name')</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1268</v>
       </c>
@@ -7167,7 +7177,7 @@
         <v>insert into sysLocalizationText Values(1268,      'en-us','1268','SearchByParameterName-Description','Search by Parameter Name')</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1269</v>
       </c>
@@ -7191,7 +7201,7 @@
         <v>insert into sysLocalizationText Values(1269,      'en-us','1269','NewParameter-Label','New Parameter')</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1270</v>
       </c>
@@ -7215,7 +7225,7 @@
         <v>insert into sysLocalizationText Values(1270,      'en-us','1270','NewParameter-Description','Click here to create new Parameter ')</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1271</v>
       </c>
@@ -7223,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="C269" t="str">
-        <f t="shared" ref="C269:C273" si="15">"'" &amp; A269 &amp; "'"</f>
+        <f t="shared" ref="C269:C277" si="15">"'" &amp; A269 &amp; "'"</f>
         <v>'1271'</v>
       </c>
       <c r="D269" t="str">
@@ -7239,7 +7249,7 @@
         <v>insert into sysLocalizationText Values(1271,      'en-us','1271','ParameterRecord-Label','Parameter Record')</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1272</v>
       </c>
@@ -7263,7 +7273,7 @@
         <v>insert into sysLocalizationText Values(1272,      'en-us','1272','ParameterName-Label','Parameter Name ')</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1273</v>
       </c>
@@ -7287,7 +7297,7 @@
         <v>insert into sysLocalizationText Values(1273,      'en-us','1273','SaveParameterButton-Label','Save Parameter')</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1274</v>
       </c>
@@ -7311,7 +7321,7 @@
         <v>insert into sysLocalizationText Values(1274,      'en-us','1274','SaveParameterButton-Description','Click here to save Parameter')</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1275</v>
       </c>
@@ -7333,6 +7343,184 @@
       <c r="F273" t="str">
         <f t="shared" si="10"/>
         <v>insert into sysLocalizationText Values(1275,      'en-us','1275','Parameter-PageTitle','Parameters')</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1278</v>
+      </c>
+      <c r="B276" t="s">
+        <v>0</v>
+      </c>
+      <c r="C276" t="str">
+        <f t="shared" ref="C276" si="16">"'" &amp; A276 &amp; "'"</f>
+        <v>'1278'</v>
+      </c>
+      <c r="D276" t="str">
+        <f>$N$1 &amp; "ExceptionLog-PageTitle" &amp; $N$1</f>
+        <v>'ExceptionLog-PageTitle'</v>
+      </c>
+      <c r="E276" t="str">
+        <f>$N$1 &amp; "Exception Log" &amp; $N$1</f>
+        <v>'Exception Log'</v>
+      </c>
+      <c r="F276" t="str">
+        <f t="shared" ref="F276:F282" si="17">"insert into sysLocalizationText Values(" &amp;A276 &amp; "," &amp; B276 &amp; "," &amp;C276 &amp; "," &amp; D276 &amp; "," &amp; E276 &amp; ")"</f>
+        <v>insert into sysLocalizationText Values(1278,      'en-us','1278','ExceptionLog-PageTitle','Exception Log')</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1279</v>
+      </c>
+      <c r="B277" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" t="str">
+        <f t="shared" si="15"/>
+        <v>'1279'</v>
+      </c>
+      <c r="D277" t="str">
+        <f>$N$1 &amp; "SearchByOrgin-Label" &amp; $N$1</f>
+        <v>'SearchByOrgin-Label'</v>
+      </c>
+      <c r="E277" t="str">
+        <f>$N$1 &amp; "Search by Origin" &amp; $N$1</f>
+        <v>'Search by Origin'</v>
+      </c>
+      <c r="F277" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into sysLocalizationText Values(1279,      'en-us','1279','SearchByOrgin-Label','Search by Origin')</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>1280</v>
+      </c>
+      <c r="B278" t="s">
+        <v>0</v>
+      </c>
+      <c r="C278" t="str">
+        <f t="shared" ref="C278" si="18">"'" &amp; A278 &amp; "'"</f>
+        <v>'1280'</v>
+      </c>
+      <c r="D278" t="str">
+        <f>$N$1 &amp; "Origin-Label" &amp; $N$1</f>
+        <v>'Origin-Label'</v>
+      </c>
+      <c r="E278" t="str">
+        <f>$N$1 &amp; "Origin" &amp; $N$1</f>
+        <v>'Origin'</v>
+      </c>
+      <c r="F278" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into sysLocalizationText Values(1280,      'en-us','1280','Origin-Label','Origin')</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>1281</v>
+      </c>
+      <c r="B279" t="s">
+        <v>0</v>
+      </c>
+      <c r="C279" t="str">
+        <f t="shared" ref="C279" si="19">"'" &amp; A279 &amp; "'"</f>
+        <v>'1281'</v>
+      </c>
+      <c r="D279" t="str">
+        <f>$N$1 &amp; "TargetSite-Label" &amp; $N$1</f>
+        <v>'TargetSite-Label'</v>
+      </c>
+      <c r="E279" t="str">
+        <f>$N$1 &amp; "Target Site" &amp; $N$1</f>
+        <v>'Target Site'</v>
+      </c>
+      <c r="F279" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into sysLocalizationText Values(1281,      'en-us','1281','TargetSite-Label','Target Site')</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>1282</v>
+      </c>
+      <c r="B280" t="s">
+        <v>0</v>
+      </c>
+      <c r="C280" t="str">
+        <f t="shared" ref="C280" si="20">"'" &amp; A280 &amp; "'"</f>
+        <v>'1282'</v>
+      </c>
+      <c r="D280" t="str">
+        <f>$N$1 &amp; "ErrMessage-Label" &amp; $N$1</f>
+        <v>'ErrMessage-Label'</v>
+      </c>
+      <c r="E280" t="str">
+        <f>$N$1 &amp; "Err Message" &amp; $N$1</f>
+        <v>'Err Message'</v>
+      </c>
+      <c r="F280" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into sysLocalizationText Values(1282,      'en-us','1282','ErrMessage-Label','Err Message')</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>1283</v>
+      </c>
+      <c r="B281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C281" t="str">
+        <f t="shared" ref="C281" si="21">"'" &amp; A281 &amp; "'"</f>
+        <v>'1283'</v>
+      </c>
+      <c r="D281" t="str">
+        <f>$N$1 &amp; "StackTrace-Label" &amp; $N$1</f>
+        <v>'StackTrace-Label'</v>
+      </c>
+      <c r="E281" t="str">
+        <f>$N$1 &amp; "Stack Trace" &amp; $N$1</f>
+        <v>'Stack Trace'</v>
+      </c>
+      <c r="F281" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into sysLocalizationText Values(1283,      'en-us','1283','StackTrace-Label','Stack Trace')</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1284</v>
+      </c>
+      <c r="B282" t="s">
+        <v>0</v>
+      </c>
+      <c r="C282" t="str">
+        <f t="shared" ref="C282" si="22">"'" &amp; A282 &amp; "'"</f>
+        <v>'1284'</v>
+      </c>
+      <c r="D282" t="str">
+        <f>$N$1 &amp; "ClientIP-Label" &amp; $N$1</f>
+        <v>'ClientIP-Label'</v>
+      </c>
+      <c r="E282" t="str">
+        <f>$N$1 &amp; "Client IP" &amp; $N$1</f>
+        <v>'Client IP'</v>
+      </c>
+      <c r="F282" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into sysLocalizationText Values(1284,      'en-us','1284','ClientIP-Label','Client IP')</v>
       </c>
     </row>
   </sheetData>
@@ -7343,14 +7531,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N273"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E241" workbookViewId="0">
-      <selection activeCell="F256" sqref="F256:F273"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="39.5703125" customWidth="1"/>
@@ -7358,7 +7546,7 @@
     <col min="6" max="6" width="92.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2001</v>
       </c>
@@ -7384,7 +7572,7 @@
         <v>'</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2002</v>
       </c>
@@ -7406,7 +7594,7 @@
         <v>insert into sysLocalizationText Values(2002,      'pt-br','2002',     'Validation-Error',    'Erro na validação de dados.')</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2003</v>
       </c>
@@ -7428,7 +7616,7 @@
         <v>insert into sysLocalizationText Values(2003,      'pt-br','2003',     'Record-NotFound',    'O registro solicitado não foi encontrado.')</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2004</v>
       </c>
@@ -7450,7 +7638,7 @@
         <v>insert into sysLocalizationText Values(2004,      'pt-br','2004',     'Login-Invalid-Password',    'Senha inválida. Você ainda tem {0} tentativas antes da conta ser desativada.')</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2005</v>
       </c>
@@ -7472,7 +7660,7 @@
         <v>insert into sysLocalizationText Values(2005,      'pt-br','2005',     'Login-Attempts',    'Você já utilizou as tentativas de acesso e a conta foi desativada. Solicite a ativação.')</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2006</v>
       </c>
@@ -7494,7 +7682,7 @@
         <v>insert into sysLocalizationText Values(2006,      'pt-br','2006',     'Login-Inactive-Account',    'A conta associada ao Usuário não está ativa. Solicite a ativação da conta.')</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2007</v>
       </c>
@@ -7516,7 +7704,7 @@
         <v>insert into sysLocalizationText Values(2007,      'pt-br','2007',     'Login-Locked-Account',    'A conta associada ao Usuário está bloqueada. Contate o administrador do sistema.')</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -7538,7 +7726,7 @@
         <v>insert into sysLocalizationText Values(2008,      'pt-br','2008',     'Login-User-NotFound',    'Usuário não encontrado.')</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -7560,7 +7748,7 @@
         <v>insert into sysLocalizationText Values(2009,      'pt-br','2009',     'User-Exists',    'Já existe um usuário com o e-mail ')</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -7582,7 +7770,7 @@
         <v>insert into sysLocalizationText Values(2010,      'pt-br','2010',     'Email-Exists',    'O e-mail informado já existe.')</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -7604,7 +7792,7 @@
         <v>insert into sysLocalizationText Values(2011,      'pt-br','2011',     'Profile-NotBe-Null',    'O Perfil não pode ser nulo.')</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -7626,7 +7814,7 @@
         <v>insert into sysLocalizationText Values(2012,      'pt-br','2012',     'User-Error-Exclude-Childs',    'Houve um erro ao excluir os itens filhos (Roles).')</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -7648,7 +7836,7 @@
         <v>insert into sysLocalizationText Values(2013,      'pt-br','2013',     'User-Invalid-Password-Code',    'O código de autorização de troca de senha é inválido.')</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -7670,7 +7858,7 @@
         <v>insert into sysLocalizationText Values(2014,      'pt-br','2014',     'Account-Active',    'A conta associada ao Usuário já está ativa.')</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -7692,7 +7880,7 @@
         <v>insert into sysLocalizationText Values(2015,      'pt-br','2015',     'User-Invalid-Activation-Code',    'O código de autorização de ativação é inválido.')</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -7714,7 +7902,7 @@
         <v>insert into sysLocalizationText Values(2016,      'pt-br','2016',     'User-No-Image',    'Envie o arquivo da imagem.')</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2017</v>
       </c>
@@ -7736,7 +7924,7 @@
         <v>insert into sysLocalizationText Values(2017,      'pt-br','2017',     'User-Role-Exists',    'Esta Role já está associada ao usuário.')</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -7758,7 +7946,7 @@
         <v>insert into sysLocalizationText Values(2018,      'pt-br','2018',     'User-Role-No-Exists',    'Esta Role não pertence ao usuário.')</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -7780,7 +7968,7 @@
         <v>insert into sysLocalizationText Values(2019,      'pt-br','2019',     'Http-Unauthorized',    'Acesso não autorizado')</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2020</v>
       </c>
@@ -7802,7 +7990,7 @@
         <v>insert into sysLocalizationText Values(2020,      'pt-br','2020',     'Http-NotFound',    'O recurso não foi encontrado')</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2021</v>
       </c>
@@ -7824,7 +8012,7 @@
         <v>insert into sysLocalizationText Values(2021,      'pt-br','2021',     'Http-Forbidden',    'Perfil do usuário sem permissão de acesso')</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -7846,7 +8034,7 @@
         <v>insert into sysLocalizationText Values(2022,      'pt-br','2022',     'Http-500Error',    'Ocorreu um erro no processamento da requisição.')</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2023</v>
       </c>
@@ -7868,7 +8056,7 @@
         <v>insert into sysLocalizationText Values(2023,      'pt-br','2023',     'Http-ServiceUnavailable',    'O serviço solicitado está indisponível.')</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2024</v>
       </c>
@@ -7890,7 +8078,7 @@
         <v>insert into sysLocalizationText Values(2024,      'pt-br','2024',     'API-Unexpected-Exception',    'Erro inesperado não identificado GetInnerExceptions@f2]')</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2025</v>
       </c>
@@ -7912,7 +8100,7 @@
         <v>insert into sysLocalizationText Values(2025,      'pt-br','2025',     'ShortDayName-1',    'Dom')</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2026</v>
       </c>
@@ -7934,7 +8122,7 @@
         <v>insert into sysLocalizationText Values(2026,      'pt-br','2026',     'ShortDayName-2',    'Seg')</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2027</v>
       </c>
@@ -7956,7 +8144,7 @@
         <v>insert into sysLocalizationText Values(2027,      'pt-br','2027',     'ShortDayName-3',    'Ter')</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -7978,7 +8166,7 @@
         <v>insert into sysLocalizationText Values(2028,      'pt-br','2028',     'ShortDayName-4',    'Qua')</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2029</v>
       </c>
@@ -8000,7 +8188,7 @@
         <v>insert into sysLocalizationText Values(2029,      'pt-br','2029',     'ShortDayName-5',    'Qui')</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2030</v>
       </c>
@@ -8022,7 +8210,7 @@
         <v>insert into sysLocalizationText Values(2030,      'pt-br','2030',     'ShortDayName-6',    'Sex')</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2031</v>
       </c>
@@ -8044,7 +8232,7 @@
         <v>insert into sysLocalizationText Values(2031,      'pt-br','2031',     'ShortDayName-7',    'Sáb')</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2032</v>
       </c>
@@ -8066,7 +8254,7 @@
         <v>insert into sysLocalizationText Values(2032,      'pt-br','2032',     'MonthName-1',    'JANEIRO')</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2033</v>
       </c>
@@ -8088,7 +8276,7 @@
         <v>insert into sysLocalizationText Values(2033,      'pt-br','2033',     'MonthName-2',    'FEVEREIRO')</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2034</v>
       </c>
@@ -8110,7 +8298,7 @@
         <v>insert into sysLocalizationText Values(2034,      'pt-br','2034',     'MonthName-3',    'MARÇO')</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2035</v>
       </c>
@@ -8132,7 +8320,7 @@
         <v>insert into sysLocalizationText Values(2035,      'pt-br','2035',     'MonthName-4',    'ABRIL')</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2036</v>
       </c>
@@ -8154,7 +8342,7 @@
         <v>insert into sysLocalizationText Values(2036,      'pt-br','2036',     'MonthName-5',    'MAIO')</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2037</v>
       </c>
@@ -8176,7 +8364,7 @@
         <v>insert into sysLocalizationText Values(2037,      'pt-br','2037',     'MonthName-6',    'JUNHO')</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2038</v>
       </c>
@@ -8198,7 +8386,7 @@
         <v>insert into sysLocalizationText Values(2038,      'pt-br','2038',     'MonthName-7',    'JULHO')</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2039</v>
       </c>
@@ -8220,7 +8408,7 @@
         <v>insert into sysLocalizationText Values(2039,      'pt-br','2039',     'MonthName-8',    'AGOSTO')</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2040</v>
       </c>
@@ -8242,7 +8430,7 @@
         <v>insert into sysLocalizationText Values(2040,      'pt-br','2040',     'MonthName-9',    'SETEMBRO')</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2041</v>
       </c>
@@ -8264,7 +8452,7 @@
         <v>insert into sysLocalizationText Values(2041,      'pt-br','2041',     'MonthName-10',    'OUTUBRO')</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2042</v>
       </c>
@@ -8286,7 +8474,7 @@
         <v>insert into sysLocalizationText Values(2042,      'pt-br','2042',     'MonthName-11',    'NOVEMBRO')</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2043</v>
       </c>
@@ -8308,7 +8496,7 @@
         <v>insert into sysLocalizationText Values(2043,      'pt-br','2043',     'MonthName-12',    'DEZEMBRO')</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2044</v>
       </c>
@@ -8330,7 +8518,7 @@
         <v>insert into sysLocalizationText Values(2044,      'pt-br','2044',     'Validation-NotNull',    'não pode ser nulo.')</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2045</v>
       </c>
@@ -8352,7 +8540,7 @@
         <v>insert into sysLocalizationText Values(2045,      'pt-br','2045',     'Validation-Max-Characters',    'O campo {0} não pode ter mais de maxlength caracteres.')</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2046</v>
       </c>
@@ -8374,7 +8562,7 @@
         <v>insert into sysLocalizationText Values(2046,      'pt-br','2046',     'Validation-Invalid-Field',    'O campo {0} é inválido.')</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2047</v>
       </c>
@@ -8396,7 +8584,7 @@
         <v>insert into sysLocalizationText Values(2047,      'pt-br','2047',     'Validation-Invalid-UserName',    'O campo {0} é inválido. Não use caracteres especiais ou espaços.')</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2048</v>
       </c>
@@ -8418,7 +8606,7 @@
         <v>insert into sysLocalizationText Values(2048,      'pt-br','2048',     'Validation-Unique-Value',    'O campo {0} é inválido. O valor informado deve ser único.')</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2049</v>
       </c>
@@ -8440,7 +8628,7 @@
         <v>insert into sysLocalizationText Values(2049,      'pt-br','2049',     'User-Instance-Exists',    'Esta Instância já está associada ao Usuário.')</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2050</v>
       </c>
@@ -8462,7 +8650,7 @@
         <v>insert into sysLocalizationText Values(2050,      'pt-br','2050',     'User-Instance-No-Exists',    'Esta Instância não pertence ao Usuário.')</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2051</v>
       </c>
@@ -8486,7 +8674,7 @@
         <v>insert into sysLocalizationText Values(2051,      'pt-br','2051','User-PageTitle','Gerenciamento de Usuários')</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2052</v>
       </c>
@@ -8510,7 +8698,7 @@
         <v>insert into sysLocalizationText Values(2052,      'pt-br','2052','SearchButtonLabel','Pesquisar')</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2053</v>
       </c>
@@ -8534,7 +8722,7 @@
         <v>insert into sysLocalizationText Values(2053,      'pt-br','2053','SearchingLabel','Pesquisando...')</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2054</v>
       </c>
@@ -8558,7 +8746,7 @@
         <v>insert into sysLocalizationText Values(2054,      'pt-br','2054','InsertingLoadingLabel','Inserindo...')</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2055</v>
       </c>
@@ -8582,7 +8770,7 @@
         <v>insert into sysLocalizationText Values(2055,      'pt-br','2055','SearchResultLabel','Resultado da Busca')</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2056</v>
       </c>
@@ -8606,7 +8794,7 @@
         <v>insert into sysLocalizationText Values(2056,      'pt-br','2056','DetailsLabel','Detalhes')</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2057</v>
       </c>
@@ -8630,7 +8818,7 @@
         <v>insert into sysLocalizationText Values(2057,      'pt-br','2057','NoRecordsFound','Nenhum registro encontrado')</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2058</v>
       </c>
@@ -8654,7 +8842,7 @@
         <v>insert into sysLocalizationText Values(2058,      'pt-br','2058','LoadingPage','Carregando. Aguarde...')</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2059</v>
       </c>
@@ -8678,7 +8866,7 @@
         <v>insert into sysLocalizationText Values(2059,      'pt-br','2059','LoadingData','Carregando a página. Aguarde...')</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2060</v>
       </c>
@@ -8702,7 +8890,7 @@
         <v>insert into sysLocalizationText Values(2060,      'pt-br','2060','ErrorOnExecuteSearch','Erro ao efetuar a busca')</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2061</v>
       </c>
@@ -8726,7 +8914,7 @@
         <v>insert into sysLocalizationText Values(2061,      'pt-br','2061','ErrorOnReturnData','Erro ao retornar dados')</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2062</v>
       </c>
@@ -8750,7 +8938,7 @@
         <v>insert into sysLocalizationText Values(2062,      'pt-br','2062','ErrorOnCreateNewRecord','Erro ao criar registro')</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2063</v>
       </c>
@@ -8774,7 +8962,7 @@
         <v>insert into sysLocalizationText Values(2063,      'pt-br','2063','AfterSaveAnswering','O novo registro foi criado com sucesso. Deseja continuar inserindo ?')</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2064</v>
       </c>
@@ -8798,7 +8986,7 @@
         <v>insert into sysLocalizationText Values(2064,      'pt-br','2064','NoticeLabel','Aviso')</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2065</v>
       </c>
@@ -8822,7 +9010,7 @@
         <v>insert into sysLocalizationText Values(2065,      'pt-br','2065','SuccessLabel','Sucesso')</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2066</v>
       </c>
@@ -8846,7 +9034,7 @@
         <v>insert into sysLocalizationText Values(2066,      'pt-br','2066','SuccessSaveMessage','O registro foi salvo com sucesso.')</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2067</v>
       </c>
@@ -8870,7 +9058,7 @@
         <v>insert into sysLocalizationText Values(2067,      'pt-br','2067','Email-Label','E-mail')</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2068</v>
       </c>
@@ -8894,7 +9082,7 @@
         <v>insert into sysLocalizationText Values(2068,      'pt-br','2068','UserName-Label','Nome de Usuário')</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2069</v>
       </c>
@@ -8918,7 +9106,7 @@
         <v>insert into sysLocalizationText Values(2069,      'pt-br','2069','Password-Label','Senha')</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2070</v>
       </c>
@@ -8942,7 +9130,7 @@
         <v>insert into sysLocalizationText Values(2070,      'pt-br','2070','Instance-Label','Instância')</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2071</v>
       </c>
@@ -8966,7 +9154,7 @@
         <v>insert into sysLocalizationText Values(2071,      'pt-br','2071','Role-Label','Perfim')</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2072</v>
       </c>
@@ -8990,7 +9178,7 @@
         <v>insert into sysLocalizationText Values(2072,      'pt-br','2072','Yes-Text','Sim')</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2073</v>
       </c>
@@ -9014,7 +9202,7 @@
         <v>insert into sysLocalizationText Values(2073,      'pt-br','2073','No-Text','Não')</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2074</v>
       </c>
@@ -9038,7 +9226,7 @@
         <v>insert into sysLocalizationText Values(2074,      'pt-br','2074','Saving-Label','Salvando...')</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2075</v>
       </c>
@@ -9062,7 +9250,7 @@
         <v>insert into sysLocalizationText Values(2075,      'pt-br','2075','Edit-Label','Editar')</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2076</v>
       </c>
@@ -9086,7 +9274,7 @@
         <v>insert into sysLocalizationText Values(2076,      'pt-br','2076','Date-Label','Data')</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2077</v>
       </c>
@@ -9110,7 +9298,7 @@
         <v>insert into sysLocalizationText Values(2077,      'pt-br','2077','Field-Label','Campo')</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2078</v>
       </c>
@@ -9134,7 +9322,7 @@
         <v>insert into sysLocalizationText Values(2078,      'pt-br','2078','Value-Label','Valor')</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2079</v>
       </c>
@@ -9158,7 +9346,7 @@
         <v>insert into sysLocalizationText Values(2079,      'pt-br','2079','SelectItem-Description','Selecione um Item')</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2080</v>
       </c>
@@ -9182,7 +9370,7 @@
         <v>insert into sysLocalizationText Values(2080,      'pt-br','2080','AllItem-Description','Todos')</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2081</v>
       </c>
@@ -9206,7 +9394,7 @@
         <v>insert into sysLocalizationText Values(2081,      'pt-br','2081','Welcome-Label','Bem-vindo ao GW Template')</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2082</v>
       </c>
@@ -9230,7 +9418,7 @@
         <v>insert into sysLocalizationText Values(2082,      'pt-br','2082','LoginTitle-Label','Entrar')</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2083</v>
       </c>
@@ -9254,7 +9442,7 @@
         <v>insert into sysLocalizationText Values(2083,      'pt-br','2083','LoginTitle-Description','Insira seu login e senha')</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2084</v>
       </c>
@@ -9278,7 +9466,7 @@
         <v>insert into sysLocalizationText Values(2084,      'pt-br','2084','InputEmail-Description','Digite seu e-mail de cadastro')</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2085</v>
       </c>
@@ -9302,7 +9490,7 @@
         <v>insert into sysLocalizationText Values(2085,      'pt-br','2085','InputPassword-Description','Digite sua senha')</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2086</v>
       </c>
@@ -9326,7 +9514,7 @@
         <v>insert into sysLocalizationText Values(2086,      'pt-br','2086','ForgetPassword-Description','Esqueceu a senha ?')</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2087</v>
       </c>
@@ -9350,7 +9538,7 @@
         <v>insert into sysLocalizationText Values(2087,      'pt-br','2087','LoginButton-Label','Confirmar')</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2088</v>
       </c>
@@ -9374,7 +9562,7 @@
         <v>insert into sysLocalizationText Values(2088,      'pt-br','2088','LoginLoading-Label','Entrando...')</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2089</v>
       </c>
@@ -9398,7 +9586,7 @@
         <v>insert into sysLocalizationText Values(2089,      'pt-br','2089','SendText-Description','Enviando...')</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2090</v>
       </c>
@@ -9422,7 +9610,7 @@
         <v>insert into sysLocalizationText Values(2090,      'pt-br','2090','ActiveAccountButton-Label','Ativar Conta')</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2091</v>
       </c>
@@ -9446,7 +9634,7 @@
         <v>insert into sysLocalizationText Values(2091,      'pt-br','2091','ActiveAccount-Label','Ativação de Conta')</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2092</v>
       </c>
@@ -9470,7 +9658,7 @@
         <v>insert into sysLocalizationText Values(2092,      'pt-br','2092','ActiveAccount-Description','Não consegue acessar ?')</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2093</v>
       </c>
@@ -9494,7 +9682,7 @@
         <v>insert into sysLocalizationText Values(2093,      'pt-br','2093','ActiveAccount-Step1','Envie o código de ativação para o seu e-mail de cadastro')</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2094</v>
       </c>
@@ -9518,7 +9706,7 @@
         <v>insert into sysLocalizationText Values(2094,      'pt-br','2094','ActiveAccount-Step2','Informe o código de ativação recebido')</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2095</v>
       </c>
@@ -9542,7 +9730,7 @@
         <v>insert into sysLocalizationText Values(2095,      'pt-br','2095','SendCodeButton-Label','Enviar Código')</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2096</v>
       </c>
@@ -9566,7 +9754,7 @@
         <v>insert into sysLocalizationText Values(2096,      'pt-br','2096','ActiveLoading-Label','Solicitar Ativação')</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2097</v>
       </c>
@@ -9590,7 +9778,7 @@
         <v>insert into sysLocalizationText Values(2097,      'pt-br','2097','InputCode-Description','Digite o código recebido por e-mail')</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2098</v>
       </c>
@@ -9614,7 +9802,7 @@
         <v>insert into sysLocalizationText Values(2098,      'pt-br','2098','Unlogged-Label','Você não está logado')</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2099</v>
       </c>
@@ -9638,7 +9826,7 @@
         <v>insert into sysLocalizationText Values(2099,      'pt-br','2099','MyProfile-Label','Meu Perfil')</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2100</v>
       </c>
@@ -9662,7 +9850,7 @@
         <v>insert into sysLocalizationText Values(2100,      'pt-br','2100','MainProfileData-Label','Dados do Perfil')</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2101</v>
       </c>
@@ -9686,7 +9874,7 @@
         <v>insert into sysLocalizationText Values(2101,      'pt-br','2101','AlterPassword-Label','Trocar Senha')</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2102</v>
       </c>
@@ -9710,7 +9898,7 @@
         <v>insert into sysLocalizationText Values(2102,      'pt-br','2102','LanguageRole-Label','Linguagem')</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2103</v>
       </c>
@@ -9734,7 +9922,7 @@
         <v>insert into sysLocalizationText Values(2103,      'pt-br','2103','AlterProfileImage-Label','Alterar a imagem de perfil')</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2104</v>
       </c>
@@ -9758,7 +9946,7 @@
         <v>insert into sysLocalizationText Values(2104,      'pt-br','2104','AlterPasswordStep1-Label','Clique no link abaixo para receber um email com o código de segurança para troca de senha')</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2105</v>
       </c>
@@ -9782,7 +9970,7 @@
         <v>insert into sysLocalizationText Values(2105,      'pt-br','2105','AlterPasswordStep2-Label','Após receber código, preencha as informações abaixo e clique em Altera Senha')</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2106</v>
       </c>
@@ -9806,7 +9994,7 @@
         <v>insert into sysLocalizationText Values(2106,      'pt-br','2106','InputNewPassword-Label','Digite a nova senha')</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2107</v>
       </c>
@@ -9830,7 +10018,7 @@
         <v>insert into sysLocalizationText Values(2107,      'pt-br','2107','AlterPasswordButton-Label','Alterar a Senha')</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2108</v>
       </c>
@@ -9854,7 +10042,7 @@
         <v>insert into sysLocalizationText Values(2108,      'pt-br','2108','AlterPasswordButton-Loading','Alterando a senha....')</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2109</v>
       </c>
@@ -9878,7 +10066,7 @@
         <v>insert into sysLocalizationText Values(2109,      'pt-br','2109','InvalidCredentials-Title','Credenciais Inválidas')</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2110</v>
       </c>
@@ -9902,7 +10090,7 @@
         <v>insert into sysLocalizationText Values(2110,      'pt-br','2110','InvalidCredentials-Message','E-mail ou senha inválidos!')</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2111</v>
       </c>
@@ -9926,7 +10114,7 @@
         <v>insert into sysLocalizationText Values(2111,      'pt-br','2111','TemporaryPassword-Title','Senha Enviada')</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2112</v>
       </c>
@@ -9950,7 +10138,7 @@
         <v>insert into sysLocalizationText Values(2112,      'pt-br','2112','TemporaryPassword-Message','Uma senha temporária foi enviada para o seu e-mail de cadastro. Ao logar, solicite a troca de senha.')</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2113</v>
       </c>
@@ -9974,7 +10162,7 @@
         <v>insert into sysLocalizationText Values(2113,      'pt-br','2113','SuccessActivated-Title','Conta Ativada com Sucesso')</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2114</v>
       </c>
@@ -9998,7 +10186,7 @@
         <v>insert into sysLocalizationText Values(2114,      'pt-br','2114','SuccessActivated-Message','A conta foi ativada com sucesso. Você já pode efetuar login.')</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2115</v>
       </c>
@@ -10022,7 +10210,7 @@
         <v>insert into sysLocalizationText Values(2115,      'pt-br','2115','ActivateCode-Title','Código Enviado')</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2116</v>
       </c>
@@ -10046,7 +10234,7 @@
         <v>insert into sysLocalizationText Values(2116,      'pt-br','2116','ActivateCode-Message','O código de segurança foi enviado por e-mail.')</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2117</v>
       </c>
@@ -10070,7 +10258,7 @@
         <v>insert into sysLocalizationText Values(2117,      'pt-br','2117','PasswordChanged-Title','Senha Alterada')</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2118</v>
       </c>
@@ -10094,7 +10282,7 @@
         <v>insert into sysLocalizationText Values(2118,      'pt-br','2118','PasswordChanged-Message','A senha foi alterada com sucesso. Efetue login novamente.')</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2119</v>
       </c>
@@ -10118,7 +10306,7 @@
         <v>insert into sysLocalizationText Values(2119,      'pt-br','2119','ImageChanged-Title','Imagem Alterada')</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2120</v>
       </c>
@@ -10142,7 +10330,7 @@
         <v>insert into sysLocalizationText Values(2120,      'pt-br','2120','ImageChanged-Message','A imagem de perfil foi alterada. No próximo login a nova imagem será exibida.')</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2121</v>
       </c>
@@ -10166,7 +10354,7 @@
         <v>insert into sysLocalizationText Values(2121,      'pt-br','2121','SearchByEmail-Label','Por E-mail')</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2122</v>
       </c>
@@ -10190,7 +10378,7 @@
         <v>insert into sysLocalizationText Values(2122,      'pt-br','2122','SearchByUserName-Label','Por Nome de Usuário')</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2123</v>
       </c>
@@ -10214,7 +10402,7 @@
         <v>insert into sysLocalizationText Values(2123,      'pt-br','2123','SearchByEmail-Description','Pesquisar por E-mail')</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2124</v>
       </c>
@@ -10238,7 +10426,7 @@
         <v>insert into sysLocalizationText Values(2124,      'pt-br','2124','SearchByUserName-Description','Pesquisar por Nome de Usuário')</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2125</v>
       </c>
@@ -10262,7 +10450,7 @@
         <v>insert into sysLocalizationText Values(2125,      'pt-br','2125','SearchByInstance-Label','Por Instância')</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2126</v>
       </c>
@@ -10286,7 +10474,7 @@
         <v>insert into sysLocalizationText Values(2126,      'pt-br','2126','SearchByRole-Label','Por Perfil')</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2127</v>
       </c>
@@ -10310,7 +10498,7 @@
         <v>insert into sysLocalizationText Values(2127,      'pt-br','2127','NewUser-Label','Novo Usuáro')</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2128</v>
       </c>
@@ -10334,7 +10522,7 @@
         <v>insert into sysLocalizationText Values(2128,      'pt-br','2128','NewUser-Description','Clique aqui para criar novo usuário')</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2129</v>
       </c>
@@ -10358,7 +10546,7 @@
         <v>insert into sysLocalizationText Values(2129,      'pt-br','2129','Active-Label','Ativo')</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2130</v>
       </c>
@@ -10382,7 +10570,7 @@
         <v>insert into sysLocalizationText Values(2130,      'pt-br','2130','Locked-Label','Bloqueado')</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2131</v>
       </c>
@@ -10406,7 +10594,7 @@
         <v>insert into sysLocalizationText Values(2131,      'pt-br','2131','MainData-Label','Dados Principais')</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2132</v>
       </c>
@@ -10430,7 +10618,7 @@
         <v>insert into sysLocalizationText Values(2132,      'pt-br','2132','User-SecondTabLabel','Instância e Perfil')</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2133</v>
       </c>
@@ -10454,7 +10642,7 @@
         <v>insert into sysLocalizationText Values(2133,      'pt-br','2133','CreateDate-Label','Data de Cadastro')</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2134</v>
       </c>
@@ -10478,7 +10666,7 @@
         <v>insert into sysLocalizationText Values(2134,      'pt-br','2134','LastLoginDate-Label','Data do Último Acesso')</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2135</v>
       </c>
@@ -10502,7 +10690,7 @@
         <v>insert into sysLocalizationText Values(2135,      'pt-br','2135','DefaultLanguage-Label','Idioma Padrão')</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2136</v>
       </c>
@@ -10526,7 +10714,7 @@
         <v>insert into sysLocalizationText Values(2136,      'pt-br','2136','LastLoginIP-Label','IP do Último Acesso')</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2137</v>
       </c>
@@ -10550,7 +10738,7 @@
         <v>insert into sysLocalizationText Values(2137,      'pt-br','2137','LoginCounter-Label','Total de Acessos')</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2138</v>
       </c>
@@ -10574,7 +10762,7 @@
         <v>insert into sysLocalizationText Values(2138,      'pt-br','2138','PasswordRecovery-Label','Código de Recuperação de Senha')</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2139</v>
       </c>
@@ -10598,7 +10786,7 @@
         <v>insert into sysLocalizationText Values(2139,      'pt-br','2139','AlterInstance-Label','Alterar a Instância')</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2140</v>
       </c>
@@ -10622,7 +10810,7 @@
         <v>insert into sysLocalizationText Values(2140,      'pt-br','2140','AlterInstance-Description','Selecione uma Instância para alterar')</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2141</v>
       </c>
@@ -10646,7 +10834,7 @@
         <v>insert into sysLocalizationText Values(2141,      'pt-br','2141','Altering-Label','Alterando...')</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2142</v>
       </c>
@@ -10670,7 +10858,7 @@
         <v>insert into sysLocalizationText Values(2142,      'pt-br','2142','AlterRole-Label','Alterar Perfil')</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2143</v>
       </c>
@@ -10694,7 +10882,7 @@
         <v>insert into sysLocalizationText Values(2143,      'pt-br','2143','AlterRole-Description','Selecione um Perfil para alterar')</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2144</v>
       </c>
@@ -10718,7 +10906,7 @@
         <v>insert into sysLocalizationText Values(2144,      'pt-br','2144','UserStatus-Label','Status do Usuário')</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2145</v>
       </c>
@@ -10742,7 +10930,7 @@
         <v>insert into sysLocalizationText Values(2145,      'pt-br','2145','ChangeUserState-Description','Clique aqui para alterar o status')</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2146</v>
       </c>
@@ -10766,7 +10954,7 @@
         <v>insert into sysLocalizationText Values(2146,      'pt-br','2146','ChangeUserState-Label','Atualizar Status')</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2147</v>
       </c>
@@ -10790,7 +10978,7 @@
         <v>insert into sysLocalizationText Values(2147,      'pt-br','2147','CreateUser-Label','Novo Usuário')</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2148</v>
       </c>
@@ -10814,7 +11002,7 @@
         <v>insert into sysLocalizationText Values(2148,      'pt-br','2148','CreateUser-Description','Clique aqui para cciar o novo usuário')</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2149</v>
       </c>
@@ -10838,7 +11026,7 @@
         <v>insert into sysLocalizationText Values(2149,      'pt-br','2149','CreateUserButton-Label','Salvar')</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2150</v>
       </c>
@@ -10862,7 +11050,7 @@
         <v>insert into sysLocalizationText Values(2150,      'pt-br','2150','AlterStatus-Error','Error ao alterar o status do usuário')</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2151</v>
       </c>
@@ -10886,7 +11074,7 @@
         <v>insert into sysLocalizationText Values(2151,      'pt-br','2151','AlterStatus-Success','O status do usuário foi alterado com sucesso')</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2152</v>
       </c>
@@ -10910,7 +11098,7 @@
         <v>insert into sysLocalizationText Values(2152,      'pt-br','2152','AlterInstance-Error','Erro ao alterar instância')</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2153</v>
       </c>
@@ -10934,7 +11122,7 @@
         <v>insert into sysLocalizationText Values(2153,      'pt-br','2153','AlterInstance-Success','A instância foi alterada com sucesso')</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2154</v>
       </c>
@@ -10958,7 +11146,7 @@
         <v>insert into sysLocalizationText Values(2154,      'pt-br','2154','AlterRole-Error','Erro ao alterar o perfil.')</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2155</v>
       </c>
@@ -10982,7 +11170,7 @@
         <v>insert into sysLocalizationText Values(2155,      'pt-br','2155','AlterRole-Success','O status foi alterado com sucesso')</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2156</v>
       </c>
@@ -11006,7 +11194,7 @@
         <v>insert into sysLocalizationText Values(2156,      'pt-br','2156','Instance-PageTitle','Instância')</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2157</v>
       </c>
@@ -11030,7 +11218,7 @@
         <v>insert into sysLocalizationText Values(2157,      'pt-br','2157','SearchByInstanceName-Label','Por Nome da Instância')</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2158</v>
       </c>
@@ -11054,7 +11242,7 @@
         <v>insert into sysLocalizationText Values(2158,      'pt-br','2158','SearchByInstanceName-Description','Pesquisar por Nome da Instância')</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2159</v>
       </c>
@@ -11078,7 +11266,7 @@
         <v>insert into sysLocalizationText Values(2159,      'pt-br','2159','SearchByInstanceTypeName-Label','Por Tipo da Instância')</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2160</v>
       </c>
@@ -11102,7 +11290,7 @@
         <v>insert into sysLocalizationText Values(2160,      'pt-br','2160','SearchByInstanceTypeName-Description','Pesquisar por Tipo da Instância')</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2161</v>
       </c>
@@ -11126,7 +11314,7 @@
         <v>insert into sysLocalizationText Values(2161,      'pt-br','2161','NewInstance-Label','Nova Instância')</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2162</v>
       </c>
@@ -11150,7 +11338,7 @@
         <v>insert into sysLocalizationText Values(2162,      'pt-br','2162','NewInstance-Description','Clique aqui para criar uma nova Instância')</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2163</v>
       </c>
@@ -11174,7 +11362,7 @@
         <v>insert into sysLocalizationText Values(2163,      'pt-br','2163','InstanceTypeName-Label','Tipo de Instância')</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2164</v>
       </c>
@@ -11198,7 +11386,7 @@
         <v>insert into sysLocalizationText Values(2164,      'pt-br','2164','InstanceName-Label','Nome da Instância')</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2165</v>
       </c>
@@ -11222,7 +11410,7 @@
         <v>insert into sysLocalizationText Values(2165,      'pt-br','2165','InstanceRecord-Label','Dados da Instância')</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2166</v>
       </c>
@@ -11246,7 +11434,7 @@
         <v>insert into sysLocalizationText Values(2166,      'pt-br','2166','SaveInstanceButton-Label','Salvar Instância')</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2167</v>
       </c>
@@ -11270,7 +11458,7 @@
         <v>insert into sysLocalizationText Values(2167,      'pt-br','2167','SaveInstanceButton-Description','Clque aqui para salvar a Instância')</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2168</v>
       </c>
@@ -11294,7 +11482,7 @@
         <v>insert into sysLocalizationText Values(2168,      'pt-br','2168','DataLog-PageTitle','Log de Dados')</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2169</v>
       </c>
@@ -11318,7 +11506,7 @@
         <v>insert into sysLocalizationText Values(2169,      'pt-br','2169','SearchByOperationType-Label','Por Tipo de Operação')</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2170</v>
       </c>
@@ -11342,7 +11530,7 @@
         <v>insert into sysLocalizationText Values(2170,      'pt-br','2170','SearchByObject-Label','Por Objeto')</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2171</v>
       </c>
@@ -11366,7 +11554,7 @@
         <v>insert into sysLocalizationText Values(2171,      'pt-br','2171','SearchByIntervalDate-Label','Por Intervalo de Datas')</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2172</v>
       </c>
@@ -11390,7 +11578,7 @@
         <v>insert into sysLocalizationText Values(2172,      'pt-br','2172','SearchByInicialDate-Label','Data Inicial')</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2173</v>
       </c>
@@ -11414,7 +11602,7 @@
         <v>insert into sysLocalizationText Values(2173,      'pt-br','2173','SearchByFinalDate-Label','Data Final')</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2174</v>
       </c>
@@ -11438,7 +11626,7 @@
         <v>insert into sysLocalizationText Values(2174,      'pt-br','2174','SearchByRecordID-Label','Por ID do Registro')</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2175</v>
       </c>
@@ -11462,7 +11650,7 @@
         <v>insert into sysLocalizationText Values(2175,      'pt-br','2175','TableName-Label','Tabela')</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2176</v>
       </c>
@@ -11486,7 +11674,7 @@
         <v>insert into sysLocalizationText Values(2176,      'pt-br','2176','OperationText-Label','Operação')</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2177</v>
       </c>
@@ -11510,7 +11698,7 @@
         <v>insert into sysLocalizationText Values(2177,      'pt-br','2177','LogID-Label','Log ID')</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2178</v>
       </c>
@@ -11534,7 +11722,7 @@
         <v>insert into sysLocalizationText Values(2178,      'pt-br','2178','LogInformation-Label','Informação do Log')</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2179</v>
       </c>
@@ -11558,7 +11746,7 @@
         <v>insert into sysLocalizationText Values(2179,      'pt-br','2179','ShowTimeLine-Label','Exibir Linha do Tempo')</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2180</v>
       </c>
@@ -11582,7 +11770,7 @@
         <v>insert into sysLocalizationText Values(2180,      'pt-br','2180','OldVersionData-Label','Versão Antiga')</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2181</v>
       </c>
@@ -11606,7 +11794,7 @@
         <v>insert into sysLocalizationText Values(2181,      'pt-br','2181','HasNoOldVersion-Label','Não existe versão antiga')</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2182</v>
       </c>
@@ -11630,7 +11818,7 @@
         <v>insert into sysLocalizationText Values(2182,      'pt-br','2182','CurrentVersionData-Label','Versão Atual')</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2183</v>
       </c>
@@ -11654,7 +11842,7 @@
         <v>insert into sysLocalizationText Values(2183,      'pt-br','2183','HasNoCurrentVersion-Label','Não existe versão atual')</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2184</v>
       </c>
@@ -11678,7 +11866,7 @@
         <v>insert into sysLocalizationText Values(2184,      'pt-br','2184','RecordTimeLine-Label','Linha do Tempo do Registro')</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2185</v>
       </c>
@@ -11702,7 +11890,7 @@
         <v>insert into sysLocalizationText Values(2185,      'pt-br','2185','HasNoTimeLine-Label','Não existe dados da Linha do Tempo')</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2186</v>
       </c>
@@ -11726,7 +11914,7 @@
         <v>insert into sysLocalizationText Values(2186,      'pt-br','2186','Localization-PageTitle','Textos de Localização')</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2187</v>
       </c>
@@ -11750,7 +11938,7 @@
         <v>insert into sysLocalizationText Values(2187,      'pt-br','2187','SearchByLanguage-Label','Por Linguagem')</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2188</v>
       </c>
@@ -11774,7 +11962,7 @@
         <v>insert into sysLocalizationText Values(2188,      'pt-br','2188','SearchByLanguage-Description','Pesquisar por Linguagem')</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2189</v>
       </c>
@@ -11798,7 +11986,7 @@
         <v>insert into sysLocalizationText Values(2189,      'pt-br','2189','SearchByLocalizationCode-Label','Por Código')</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2190</v>
       </c>
@@ -11822,7 +12010,7 @@
         <v>insert into sysLocalizationText Values(2190,      'pt-br','2190','SearchByLocalizationCode-Description','Pesquisar por Código')</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2191</v>
       </c>
@@ -11846,7 +12034,7 @@
         <v>insert into sysLocalizationText Values(2191,      'pt-br','2191','SearchByLocalizationName-Label','Por Nome')</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2192</v>
       </c>
@@ -11870,7 +12058,7 @@
         <v>insert into sysLocalizationText Values(2192,      'pt-br','2192','SearchByLocalizationName-Description','Pesquisar por Nome')</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2193</v>
       </c>
@@ -11894,7 +12082,7 @@
         <v>insert into sysLocalizationText Values(2193,      'pt-br','2193','SearchByLocalizationText-Label','Por Texto')</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2194</v>
       </c>
@@ -11918,7 +12106,7 @@
         <v>insert into sysLocalizationText Values(2194,      'pt-br','2194','SearchByLocalizationText-Description','Pesquisar por Texto')</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2195</v>
       </c>
@@ -11942,7 +12130,7 @@
         <v>insert into sysLocalizationText Values(2195,      'pt-br','2195','Language-Label','Linguagem')</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2196</v>
       </c>
@@ -11966,7 +12154,7 @@
         <v>insert into sysLocalizationText Values(2196,      'pt-br','2196','LocalizationCode-Label','Código')</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2197</v>
       </c>
@@ -11990,7 +12178,7 @@
         <v>insert into sysLocalizationText Values(2197,      'pt-br','2197','LocalizationName-Label','Nome')</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2198</v>
       </c>
@@ -12014,7 +12202,7 @@
         <v>insert into sysLocalizationText Values(2198,      'pt-br','2198','LocalizationRecord-Label','Dados do Texto de Localização')</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2199</v>
       </c>
@@ -12038,7 +12226,7 @@
         <v>insert into sysLocalizationText Values(2199,      'pt-br','2199','LocalizationText-Label','Texto ')</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2200</v>
       </c>
@@ -12062,7 +12250,7 @@
         <v>insert into sysLocalizationText Values(2200,      'pt-br','2200','SaveLocalizationButton-Label','Salvar Texto de Localização')</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2201</v>
       </c>
@@ -12086,7 +12274,7 @@
         <v>insert into sysLocalizationText Values(2201,      'pt-br','2201','SaveLocalizationButton-Description','Clique aqui para salvar os dados.')</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2202</v>
       </c>
@@ -12110,7 +12298,7 @@
         <v>insert into sysLocalizationText Values(2202,      'pt-br','2202','NewLocalization-Label','Novo Texto de Localização')</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2203</v>
       </c>
@@ -12134,7 +12322,7 @@
         <v>insert into sysLocalizationText Values(2203,      'pt-br','2203','ObjectPermission-PageTitle','Objeto de Permissão')</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2204</v>
       </c>
@@ -12158,7 +12346,7 @@
         <v>insert into sysLocalizationText Values(2204,      'pt-br','2204','SearchByObjectName-Label','Por Nome')</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2205</v>
       </c>
@@ -12182,7 +12370,7 @@
         <v>insert into sysLocalizationText Values(2205,      'pt-br','2205','SearchByObjectName-Description','Pesquisar por Nome')</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2206</v>
       </c>
@@ -12206,7 +12394,7 @@
         <v>insert into sysLocalizationText Values(2206,      'pt-br','2206','SearchByObjectCode-Label','Por Código')</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2207</v>
       </c>
@@ -12230,7 +12418,7 @@
         <v>insert into sysLocalizationText Values(2207,      'pt-br','2207','SearchByObjectCode-Description','Pesquisar por Código')</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2208</v>
       </c>
@@ -12254,7 +12442,7 @@
         <v>insert into sysLocalizationText Values(2208,      'pt-br','2208','NewObject-Label','Novo Objeto de Permissão')</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2209</v>
       </c>
@@ -12278,7 +12466,7 @@
         <v>insert into sysLocalizationText Values(2209,      'pt-br','2209','ObjectName-Label','Nome')</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2210</v>
       </c>
@@ -12302,7 +12490,7 @@
         <v>insert into sysLocalizationText Values(2210,      'pt-br','2210','ObjectCode-Label','Código')</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2211</v>
       </c>
@@ -12326,7 +12514,7 @@
         <v>insert into sysLocalizationText Values(2211,      'pt-br','2211','ObjectPermissionRecord-Label','Dados do Objeto de Permissão')</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2212</v>
       </c>
@@ -12350,7 +12538,7 @@
         <v>insert into sysLocalizationText Values(2212,      'pt-br','2212','SaveObjectPermissionButton-Label','Salvar Objeto de Permissão')</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2213</v>
       </c>
@@ -12374,7 +12562,7 @@
         <v>insert into sysLocalizationText Values(2213,      'pt-br','2213','SaveObjectPermissionButton-Description','Clique aqui para salvar o Objeto de Permissão')</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2214</v>
       </c>
@@ -12398,7 +12586,7 @@
         <v>insert into sysLocalizationText Values(2214,      'pt-br','2214','Permission-PageTitle','Permissões')</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2215</v>
       </c>
@@ -12422,7 +12610,7 @@
         <v>insert into sysLocalizationText Values(2215,      'pt-br','2215','SearchByObjectPermission-Label','Por Objeto de Permissão')</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2216</v>
       </c>
@@ -12446,7 +12634,7 @@
         <v>insert into sysLocalizationText Values(2216,      'pt-br','2216','SearchByRole-Label','Por Perfil')</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2217</v>
       </c>
@@ -12470,7 +12658,7 @@
         <v>insert into sysLocalizationText Values(2217,      'pt-br','2217','SearchByUser-Label','Por Usuário')</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2218</v>
       </c>
@@ -12494,7 +12682,7 @@
         <v>insert into sysLocalizationText Values(2218,      'pt-br','2218','NewPermission-Label','Nova Permissão')</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2219</v>
       </c>
@@ -12518,7 +12706,7 @@
         <v>insert into sysLocalizationText Values(2219,      'pt-br','2219','NewPermission-Description','Clique aqui para inserir uma nova Permissão')</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2220</v>
       </c>
@@ -12542,7 +12730,7 @@
         <v>insert into sysLocalizationText Values(2220,      'pt-br','2220','ObjectName-Label','Objeto de Permissão')</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2221</v>
       </c>
@@ -12566,7 +12754,7 @@
         <v>insert into sysLocalizationText Values(2221,      'pt-br','2221','RoleName-Label','Perfil')</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2222</v>
       </c>
@@ -12590,7 +12778,7 @@
         <v>insert into sysLocalizationText Values(2222,      'pt-br','2222','PermissionRecord-Label','Dados da Permissão')</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2223</v>
       </c>
@@ -12614,7 +12802,7 @@
         <v>insert into sysLocalizationText Values(2223,      'pt-br','2223','PermissionType-Label','Tipo de Permissão')</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2224</v>
       </c>
@@ -12638,7 +12826,7 @@
         <v>insert into sysLocalizationText Values(2224,      'pt-br','2224','ReadStatus-Label','Status de Leitura')</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2225</v>
       </c>
@@ -12662,7 +12850,7 @@
         <v>insert into sysLocalizationText Values(2225,      'pt-br','2225','SaveStatus-Label','Status de Gravação')</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2226</v>
       </c>
@@ -12686,7 +12874,7 @@
         <v>insert into sysLocalizationText Values(2226,      'pt-br','2226','DeleteStatus-Label','Status de Exclusão')</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2227</v>
       </c>
@@ -12710,7 +12898,7 @@
         <v>insert into sysLocalizationText Values(2227,      'pt-br','2227','SavePermissionButton-Label','Salvar Permissão')</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2228</v>
       </c>
@@ -12734,7 +12922,7 @@
         <v>insert into sysLocalizationText Values(2228,      'pt-br','2228','SavePermissionButton-Description','Clique aqui para salvar a Permissão')</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2229</v>
       </c>
@@ -12758,7 +12946,7 @@
         <v>insert into sysLocalizationText Values(2229,      'pt-br','2229','Role-PageTitle','Perfil')</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2230</v>
       </c>
@@ -12782,7 +12970,7 @@
         <v>insert into sysLocalizationText Values(2230,      'pt-br','2230','SearchByRoleName-Label','Por Nome do Perfil')</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2231</v>
       </c>
@@ -12806,7 +12994,7 @@
         <v>insert into sysLocalizationText Values(2231,      'pt-br','2231','SearchByRoleName-Description','Pesquisar por Nome do Perfil')</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2232</v>
       </c>
@@ -12830,7 +13018,7 @@
         <v>insert into sysLocalizationText Values(2232,      'pt-br','2232','NewRole-Label','Novo Perfil')</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2233</v>
       </c>
@@ -12854,7 +13042,7 @@
         <v>insert into sysLocalizationText Values(2233,      'pt-br','2233','NewRole-Description','Clique aqui para criar um novo Perfil')</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2234</v>
       </c>
@@ -12874,11 +13062,11 @@
         <v>'Nome do Perfil'</v>
       </c>
       <c r="F234" t="str">
-        <f t="shared" ref="F234:F273" si="11">"insert into sysLocalizationText Values(" &amp;A234 &amp; "," &amp; B234 &amp; "," &amp;C234 &amp; "," &amp; D234 &amp; "," &amp; E234 &amp; ")"</f>
+        <f t="shared" ref="F234:F282" si="11">"insert into sysLocalizationText Values(" &amp;A234 &amp; "," &amp; B234 &amp; "," &amp;C234 &amp; "," &amp; D234 &amp; "," &amp; E234 &amp; ")"</f>
         <v>insert into sysLocalizationText Values(2234,      'pt-br','2234','RoleName-Label','Nome do Perfil')</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2235</v>
       </c>
@@ -12902,7 +13090,7 @@
         <v>insert into sysLocalizationText Values(2235,      'pt-br','2235','RoleRecord-Label','Dados do Perfil')</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2236</v>
       </c>
@@ -12926,7 +13114,7 @@
         <v>insert into sysLocalizationText Values(2236,      'pt-br','2236','SaveRoleButton-Label','Salvar Perfil')</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2237</v>
       </c>
@@ -12950,7 +13138,7 @@
         <v>insert into sysLocalizationText Values(2237,      'pt-br','2237','SaveRoleButton-Description','Clique aqui para salvar o Perfil')</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2238</v>
       </c>
@@ -12974,7 +13162,7 @@
         <v>insert into sysLocalizationText Values(2238,      'pt-br','2238','SessionLog-PageTitle','Dados de Sessão')</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2239</v>
       </c>
@@ -12998,7 +13186,7 @@
         <v>insert into sysLocalizationText Values(2239,      'pt-br','2239','SearchByEmail-Description','Pesquisar por E-mail')</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2240</v>
       </c>
@@ -13022,7 +13210,7 @@
         <v>insert into sysLocalizationText Values(2240,      'pt-br','2240','SearchByDateInterval-Label','Por Intervalo de Dados')</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2241</v>
       </c>
@@ -13046,7 +13234,7 @@
         <v>insert into sysLocalizationText Values(2241,      'pt-br','2241','SearchByInicialDate-Label','Data Inicial')</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>2242</v>
       </c>
@@ -13070,7 +13258,7 @@
         <v>insert into sysLocalizationText Values(2242,      'pt-br','2242','SearchByFinalDate-Label','Data Final')</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>2243</v>
       </c>
@@ -13094,7 +13282,7 @@
         <v>insert into sysLocalizationText Values(2243,      'pt-br','2243','AccessDate-Label','Data de Acesso')</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2244</v>
       </c>
@@ -13118,7 +13306,7 @@
         <v>insert into sysLocalizationText Values(2244,      'pt-br','2244','IP-Label','IP')</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>2245</v>
       </c>
@@ -13142,7 +13330,7 @@
         <v>insert into sysLocalizationText Values(2245,      'pt-br','2245','SuperAdmin-MenuText','Super Admin')</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2246</v>
       </c>
@@ -13166,7 +13354,7 @@
         <v>insert into sysLocalizationText Values(2246,      'pt-br','2246','BasicsData-MenuText','Gerenciamento')</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2247</v>
       </c>
@@ -13190,7 +13378,7 @@
         <v>insert into sysLocalizationText Values(2247,      'pt-br','2247','Monitoring-MenuText','Monitoramento')</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>2248</v>
       </c>
@@ -13214,7 +13402,7 @@
         <v>insert into sysLocalizationText Values(2248,      'pt-br','2248','Instance-MenuText','Instâncias')</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2249</v>
       </c>
@@ -13238,7 +13426,7 @@
         <v>insert into sysLocalizationText Values(2249,      'pt-br','2249','Role-MenuText','Perfils')</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2250</v>
       </c>
@@ -13262,7 +13450,7 @@
         <v>insert into sysLocalizationText Values(2250,      'pt-br','2250','Users-MenuText','Usuários')</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2251</v>
       </c>
@@ -13286,7 +13474,7 @@
         <v>insert into sysLocalizationText Values(2251,      'pt-br','2251','ObjectPermission-MenuText','Objetos de Permissões')</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2252</v>
       </c>
@@ -13310,7 +13498,7 @@
         <v>insert into sysLocalizationText Values(2252,      'pt-br','2252','Permissions-MenuText','Permissões')</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2253</v>
       </c>
@@ -13334,7 +13522,7 @@
         <v>insert into sysLocalizationText Values(2253,      'pt-br','2253','Localization-MenuText','Textos de Localização')</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2256</v>
       </c>
@@ -13358,7 +13546,7 @@
         <v>insert into sysLocalizationText Values(2256,      'pt-br','2256','DataLog-MenuText','Log de Dados')</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2257</v>
       </c>
@@ -13382,7 +13570,7 @@
         <v>insert into sysLocalizationText Values(2257,      'pt-br','2257','SessionLog-MenuText','Log de Sessão')</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2258</v>
       </c>
@@ -13406,7 +13594,7 @@
         <v>insert into sysLocalizationText Values(2258,      'pt-br','2258','SearchByGroupParameterName-Label','Nome do Grupo de Parâmetro')</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2259</v>
       </c>
@@ -13430,7 +13618,7 @@
         <v>insert into sysLocalizationText Values(2259,      'pt-br','2259','SearchByGroupParameterName-Description','Pesquisar por Nome de Grupo de Parâmetro')</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2260</v>
       </c>
@@ -13454,7 +13642,7 @@
         <v>insert into sysLocalizationText Values(2260,      'pt-br','2260','NewGroupParameter-Label','Novo Grupo de Parâmetro')</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2261</v>
       </c>
@@ -13478,7 +13666,7 @@
         <v>insert into sysLocalizationText Values(2261,      'pt-br','2261','NewGroupParameter-Description','Clique aqui para criar um novo Grupo de Parâmetro ')</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2262</v>
       </c>
@@ -13502,7 +13690,7 @@
         <v>insert into sysLocalizationText Values(2262,      'pt-br','2262','GroupParameterRecord-Label','Dados do Grupo de Parâmetro')</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2263</v>
       </c>
@@ -13526,7 +13714,7 @@
         <v>insert into sysLocalizationText Values(2263,      'pt-br','2263','GroupParameterName-Label','Nome do Grupo de Parâmetro')</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2264</v>
       </c>
@@ -13550,7 +13738,7 @@
         <v>insert into sysLocalizationText Values(2264,      'pt-br','2264','SaveGroupParameterButton-Label','Save Group Parameter')</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2265</v>
       </c>
@@ -13574,7 +13762,7 @@
         <v>insert into sysLocalizationText Values(2265,      'pt-br','2265','SaveGroupParameterButton-Description','Clique aqui para salvar o Grupo de Parâmetro')</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2266</v>
       </c>
@@ -13598,7 +13786,7 @@
         <v>insert into sysLocalizationText Values(2266,      'pt-br','2266','GroupParameter-PageTitle','Grupo de Parâmetros')</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2267</v>
       </c>
@@ -13622,7 +13810,7 @@
         <v>insert into sysLocalizationText Values(2267,      'pt-br','2267','SearchByParameterName-Label','Nome do Parâmetro')</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2268</v>
       </c>
@@ -13646,7 +13834,7 @@
         <v>insert into sysLocalizationText Values(2268,      'pt-br','2268','SearchByParameterName-Description','Pesquisar por Nome do Parâmetro')</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2269</v>
       </c>
@@ -13670,7 +13858,7 @@
         <v>insert into sysLocalizationText Values(2269,      'pt-br','2269','NewParameter-Label','Novo Parâmetro')</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2270</v>
       </c>
@@ -13694,7 +13882,7 @@
         <v>insert into sysLocalizationText Values(2270,      'pt-br','2270','NewParameter-Description','Clique aqui par acriar um novo Parâmetro')</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2271</v>
       </c>
@@ -13702,7 +13890,7 @@
         <v>97</v>
       </c>
       <c r="C269" t="str">
-        <f t="shared" ref="C269:C272" si="14">"'" &amp; A269 &amp; "'"</f>
+        <f t="shared" ref="C269:C282" si="14">"'" &amp; A269 &amp; "'"</f>
         <v>'2271'</v>
       </c>
       <c r="D269" t="str">
@@ -13718,7 +13906,7 @@
         <v>insert into sysLocalizationText Values(2271,      'pt-br','2271','ParameterRecord-Label','Dados do Parâmetro')</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2272</v>
       </c>
@@ -13742,7 +13930,7 @@
         <v>insert into sysLocalizationText Values(2272,      'pt-br','2272','ParameterName-Label','Nome do Parâmetro')</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2273</v>
       </c>
@@ -13766,7 +13954,7 @@
         <v>insert into sysLocalizationText Values(2273,      'pt-br','2273','SaveParameterButton-Label','Salvar Parâmetro')</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2274</v>
       </c>
@@ -13790,7 +13978,7 @@
         <v>insert into sysLocalizationText Values(2274,      'pt-br','2274','SaveParameterButton-Description','Clique aqui para salvar o Parâmetro')</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2275</v>
       </c>
@@ -13798,7 +13986,7 @@
         <v>97</v>
       </c>
       <c r="C273" t="str">
-        <f t="shared" ref="C273" si="15">"'" &amp; A273 &amp; "'"</f>
+        <f t="shared" ref="C273:C282" si="15">"'" &amp; A273 &amp; "'"</f>
         <v>'2275'</v>
       </c>
       <c r="D273" t="str">
@@ -13812,6 +14000,200 @@
       <c r="F273" t="str">
         <f t="shared" si="11"/>
         <v>insert into sysLocalizationText Values(2275,      'pt-br','2275','Parameter-PageTitle','Parâmetros')</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>2276</v>
+      </c>
+      <c r="C274" t="str">
+        <f t="shared" si="14"/>
+        <v>'2276'</v>
+      </c>
+      <c r="F274" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into sysLocalizationText Values(2276,,'2276',,)</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>2277</v>
+      </c>
+      <c r="C275" t="str">
+        <f t="shared" si="15"/>
+        <v>'2277'</v>
+      </c>
+      <c r="F275" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into sysLocalizationText Values(2277,,'2277',,)</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>2278</v>
+      </c>
+      <c r="B276" t="s">
+        <v>97</v>
+      </c>
+      <c r="C276" t="str">
+        <f t="shared" si="14"/>
+        <v>'2278'</v>
+      </c>
+      <c r="D276" t="str">
+        <f>$N$1 &amp; "ExceptionLog-PageTitle" &amp; $N$1</f>
+        <v>'ExceptionLog-PageTitle'</v>
+      </c>
+      <c r="E276" t="str">
+        <f>$N$1 &amp; "Log de Exceções" &amp; $N$1</f>
+        <v>'Log de Exceções'</v>
+      </c>
+      <c r="F276" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into sysLocalizationText Values(2278,      'pt-br','2278','ExceptionLog-PageTitle','Log de Exceções')</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>2279</v>
+      </c>
+      <c r="B277" t="s">
+        <v>97</v>
+      </c>
+      <c r="C277" t="str">
+        <f t="shared" si="15"/>
+        <v>'2279'</v>
+      </c>
+      <c r="D277" t="str">
+        <f>$N$1 &amp; "SearchByOrgin-Label" &amp; $N$1</f>
+        <v>'SearchByOrgin-Label'</v>
+      </c>
+      <c r="E277" t="str">
+        <f>$N$1 &amp; "Pesquisar por Origem" &amp; $N$1</f>
+        <v>'Pesquisar por Origem'</v>
+      </c>
+      <c r="F277" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into sysLocalizationText Values(2279,      'pt-br','2279','SearchByOrgin-Label','Pesquisar por Origem')</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>2280</v>
+      </c>
+      <c r="B278" t="s">
+        <v>97</v>
+      </c>
+      <c r="C278" t="str">
+        <f t="shared" si="14"/>
+        <v>'2280'</v>
+      </c>
+      <c r="D278" t="str">
+        <f>$N$1 &amp; "Origin-Label" &amp; $N$1</f>
+        <v>'Origin-Label'</v>
+      </c>
+      <c r="E278" t="str">
+        <f>$N$1 &amp; "Origem" &amp; $N$1</f>
+        <v>'Origem'</v>
+      </c>
+      <c r="F278" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into sysLocalizationText Values(2280,      'pt-br','2280','Origin-Label','Origem')</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>2281</v>
+      </c>
+      <c r="B279" t="s">
+        <v>97</v>
+      </c>
+      <c r="C279" t="str">
+        <f t="shared" si="15"/>
+        <v>'2281'</v>
+      </c>
+      <c r="D279" t="str">
+        <f>$N$1 &amp; "TargetSite-Label" &amp; $N$1</f>
+        <v>'TargetSite-Label'</v>
+      </c>
+      <c r="E279" t="str">
+        <f>$N$1 &amp; "Local Alvo" &amp; $N$1</f>
+        <v>'Local Alvo'</v>
+      </c>
+      <c r="F279" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into sysLocalizationText Values(2281,      'pt-br','2281','TargetSite-Label','Local Alvo')</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>2282</v>
+      </c>
+      <c r="B280" t="s">
+        <v>97</v>
+      </c>
+      <c r="C280" t="str">
+        <f t="shared" si="14"/>
+        <v>'2282'</v>
+      </c>
+      <c r="D280" t="str">
+        <f>$N$1 &amp; "ErrMessage-Label" &amp; $N$1</f>
+        <v>'ErrMessage-Label'</v>
+      </c>
+      <c r="E280" t="str">
+        <f>$N$1 &amp; "Messagem de Erro" &amp; $N$1</f>
+        <v>'Messagem de Erro'</v>
+      </c>
+      <c r="F280" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into sysLocalizationText Values(2282,      'pt-br','2282','ErrMessage-Label','Messagem de Erro')</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>2283</v>
+      </c>
+      <c r="B281" t="s">
+        <v>97</v>
+      </c>
+      <c r="C281" t="str">
+        <f t="shared" si="15"/>
+        <v>'2283'</v>
+      </c>
+      <c r="D281" t="str">
+        <f>$N$1 &amp; "StackTrace-Label" &amp; $N$1</f>
+        <v>'StackTrace-Label'</v>
+      </c>
+      <c r="E281" t="str">
+        <f>$N$1 &amp; "Rastreamento da Pilha" &amp; $N$1</f>
+        <v>'Rastreamento da Pilha'</v>
+      </c>
+      <c r="F281" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into sysLocalizationText Values(2283,      'pt-br','2283','StackTrace-Label','Rastreamento da Pilha')</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>2284</v>
+      </c>
+      <c r="B282" t="s">
+        <v>97</v>
+      </c>
+      <c r="C282" t="str">
+        <f t="shared" si="14"/>
+        <v>'2284'</v>
+      </c>
+      <c r="D282" t="str">
+        <f>$N$1 &amp; "ClientIP-Label" &amp; $N$1</f>
+        <v>'ClientIP-Label'</v>
+      </c>
+      <c r="E282" t="str">
+        <f>$N$1 &amp; "IP do Cliente" &amp; $N$1</f>
+        <v>'IP do Cliente'</v>
+      </c>
+      <c r="F282" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into sysLocalizationText Values(2284,      'pt-br','2284','ClientIP-Label','IP do Cliente')</v>
       </c>
     </row>
   </sheetData>
@@ -13821,19 +14203,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2001</v>
       </c>
@@ -13842,7 +14224,7 @@
         <v>'2001'</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2002</v>
       </c>
@@ -13851,7 +14233,7 @@
         <v>'2002'</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2003</v>
       </c>
@@ -13860,7 +14242,7 @@
         <v>'2003'</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2004</v>
       </c>
@@ -13869,7 +14251,7 @@
         <v>'2004'</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2005</v>
       </c>
@@ -13878,7 +14260,7 @@
         <v>'2005'</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2006</v>
       </c>
@@ -13887,7 +14269,7 @@
         <v>'2006'</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2007</v>
       </c>
@@ -13896,7 +14278,7 @@
         <v>'2007'</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -13905,7 +14287,7 @@
         <v>'2008'</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -13914,7 +14296,7 @@
         <v>'2009'</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -13923,7 +14305,7 @@
         <v>'2010'</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -13932,7 +14314,7 @@
         <v>'2011'</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -13941,7 +14323,7 @@
         <v>'2012'</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -13950,7 +14332,7 @@
         <v>'2013'</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -13959,7 +14341,7 @@
         <v>'2014'</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -13968,7 +14350,7 @@
         <v>'2015'</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -13977,7 +14359,7 @@
         <v>'2016'</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2017</v>
       </c>
@@ -13986,7 +14368,7 @@
         <v>'2017'</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -13995,7 +14377,7 @@
         <v>'2018'</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -14004,7 +14386,7 @@
         <v>'2019'</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2020</v>
       </c>
@@ -14013,7 +14395,7 @@
         <v>'2020'</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2021</v>
       </c>
@@ -14022,7 +14404,7 @@
         <v>'2021'</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -14031,7 +14413,7 @@
         <v>'2022'</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2023</v>
       </c>
@@ -14040,7 +14422,7 @@
         <v>'2023'</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2024</v>
       </c>
@@ -14049,7 +14431,7 @@
         <v>'2024'</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2025</v>
       </c>
@@ -14058,7 +14440,7 @@
         <v>'2025'</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2026</v>
       </c>
@@ -14067,7 +14449,7 @@
         <v>'2026'</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2027</v>
       </c>
@@ -14076,7 +14458,7 @@
         <v>'2027'</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -14085,7 +14467,7 @@
         <v>'2028'</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2029</v>
       </c>
@@ -14094,7 +14476,7 @@
         <v>'2029'</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2030</v>
       </c>
@@ -14103,7 +14485,7 @@
         <v>'2030'</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2031</v>
       </c>
@@ -14112,7 +14494,7 @@
         <v>'2031'</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2032</v>
       </c>
@@ -14121,7 +14503,7 @@
         <v>'2032'</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2033</v>
       </c>
@@ -14130,7 +14512,7 @@
         <v>'2033'</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2034</v>
       </c>
@@ -14139,7 +14521,7 @@
         <v>'2034'</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2035</v>
       </c>
@@ -14148,7 +14530,7 @@
         <v>'2035'</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2036</v>
       </c>
@@ -14157,7 +14539,7 @@
         <v>'2036'</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2037</v>
       </c>
@@ -14166,7 +14548,7 @@
         <v>'2037'</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2038</v>
       </c>
@@ -14175,7 +14557,7 @@
         <v>'2038'</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2039</v>
       </c>
@@ -14184,7 +14566,7 @@
         <v>'2039'</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2040</v>
       </c>
@@ -14193,7 +14575,7 @@
         <v>'2040'</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2041</v>
       </c>
@@ -14202,7 +14584,7 @@
         <v>'2041'</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2042</v>
       </c>
@@ -14211,7 +14593,7 @@
         <v>'2042'</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2043</v>
       </c>
@@ -14220,7 +14602,7 @@
         <v>'2043'</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2044</v>
       </c>
@@ -14229,7 +14611,7 @@
         <v>'2044'</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2045</v>
       </c>
@@ -14238,7 +14620,7 @@
         <v>'2045'</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2046</v>
       </c>
@@ -14247,7 +14629,7 @@
         <v>'2046'</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2047</v>
       </c>
@@ -14256,7 +14638,7 @@
         <v>'2047'</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2048</v>
       </c>
@@ -14265,7 +14647,7 @@
         <v>'2048'</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2049</v>
       </c>
@@ -14274,7 +14656,7 @@
         <v>'2049'</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2050</v>
       </c>
@@ -14290,20 +14672,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1001</v>
       </c>
@@ -14312,7 +14694,7 @@
         <v>'1001'</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1002</v>
       </c>
@@ -14321,7 +14703,7 @@
         <v>'1002'</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1003</v>
       </c>
@@ -14330,7 +14712,7 @@
         <v>'1003'</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1004</v>
       </c>
@@ -14339,7 +14721,7 @@
         <v>'1004'</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1005</v>
       </c>
@@ -14348,7 +14730,7 @@
         <v>'1005'</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1006</v>
       </c>
@@ -14357,7 +14739,7 @@
         <v>'1006'</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1007</v>
       </c>
@@ -14366,7 +14748,7 @@
         <v>'1007'</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1008</v>
       </c>
@@ -14375,7 +14757,7 @@
         <v>'1008'</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1009</v>
       </c>
@@ -14384,7 +14766,7 @@
         <v>'1009'</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1010</v>
       </c>
@@ -14393,7 +14775,7 @@
         <v>'1010'</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1011</v>
       </c>
@@ -14402,7 +14784,7 @@
         <v>'1011'</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1012</v>
       </c>
@@ -14411,7 +14793,7 @@
         <v>'1012'</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1013</v>
       </c>
@@ -14420,7 +14802,7 @@
         <v>'1013'</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1014</v>
       </c>
@@ -14429,7 +14811,7 @@
         <v>'1014'</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1015</v>
       </c>
@@ -14438,7 +14820,7 @@
         <v>'1015'</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1016</v>
       </c>
@@ -14447,7 +14829,7 @@
         <v>'1016'</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1017</v>
       </c>
@@ -14456,7 +14838,7 @@
         <v>'1017'</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1018</v>
       </c>
@@ -14465,7 +14847,7 @@
         <v>'1018'</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1019</v>
       </c>
@@ -14474,7 +14856,7 @@
         <v>'1019'</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1020</v>
       </c>
@@ -14483,7 +14865,7 @@
         <v>'1020'</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1021</v>
       </c>
@@ -14492,7 +14874,7 @@
         <v>'1021'</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1022</v>
       </c>
@@ -14501,7 +14883,7 @@
         <v>'1022'</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1023</v>
       </c>
@@ -14510,7 +14892,7 @@
         <v>'1023'</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1024</v>
       </c>
@@ -14519,7 +14901,7 @@
         <v>'1024'</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1025</v>
       </c>
@@ -14528,7 +14910,7 @@
         <v>'1025'</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1026</v>
       </c>
@@ -14537,7 +14919,7 @@
         <v>'1026'</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1027</v>
       </c>
@@ -14546,7 +14928,7 @@
         <v>'1027'</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1028</v>
       </c>
@@ -14555,7 +14937,7 @@
         <v>'1028'</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1029</v>
       </c>
@@ -14564,7 +14946,7 @@
         <v>'1029'</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1030</v>
       </c>
@@ -14573,7 +14955,7 @@
         <v>'1030'</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1031</v>
       </c>
@@ -14582,7 +14964,7 @@
         <v>'1031'</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1032</v>
       </c>
@@ -14591,7 +14973,7 @@
         <v>'1032'</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1033</v>
       </c>
@@ -14600,7 +14982,7 @@
         <v>'1033'</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1034</v>
       </c>
@@ -14609,7 +14991,7 @@
         <v>'1034'</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1035</v>
       </c>
@@ -14618,7 +15000,7 @@
         <v>'1035'</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1036</v>
       </c>
@@ -14627,7 +15009,7 @@
         <v>'1036'</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1037</v>
       </c>
@@ -14636,7 +15018,7 @@
         <v>'1037'</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1038</v>
       </c>
@@ -14645,7 +15027,7 @@
         <v>'1038'</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1039</v>
       </c>
@@ -14654,7 +15036,7 @@
         <v>'1039'</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1040</v>
       </c>
@@ -14663,7 +15045,7 @@
         <v>'1040'</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1041</v>
       </c>
@@ -14672,7 +15054,7 @@
         <v>'1041'</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1042</v>
       </c>
@@ -14681,7 +15063,7 @@
         <v>'1042'</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1043</v>
       </c>
@@ -14690,7 +15072,7 @@
         <v>'1043'</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1044</v>
       </c>
@@ -14699,7 +15081,7 @@
         <v>'1044'</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1045</v>
       </c>
@@ -14708,7 +15090,7 @@
         <v>'1045'</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1046</v>
       </c>
@@ -14717,7 +15099,7 @@
         <v>'1046'</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1047</v>
       </c>
@@ -14726,7 +15108,7 @@
         <v>'1047'</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1048</v>
       </c>
@@ -14735,7 +15117,7 @@
         <v>'1048'</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1049</v>
       </c>
@@ -14744,7 +15126,7 @@
         <v>'1049'</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1050</v>
       </c>
@@ -14753,7 +15135,7 @@
         <v>'1050'</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1051</v>
       </c>
@@ -14762,7 +15144,7 @@
         <v>'1051'</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1052</v>
       </c>
@@ -14771,7 +15153,7 @@
         <v>'1052'</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1053</v>
       </c>
@@ -14780,7 +15162,7 @@
         <v>'1053'</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1054</v>
       </c>
@@ -14789,7 +15171,7 @@
         <v>'1054'</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1055</v>
       </c>
@@ -14798,7 +15180,7 @@
         <v>'1055'</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1056</v>
       </c>
@@ -14807,7 +15189,7 @@
         <v>'1056'</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1057</v>
       </c>
@@ -14816,7 +15198,7 @@
         <v>'1057'</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1058</v>
       </c>
@@ -14825,7 +15207,7 @@
         <v>'1058'</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1059</v>
       </c>
@@ -14834,7 +15216,7 @@
         <v>'1059'</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1060</v>
       </c>
@@ -14843,7 +15225,7 @@
         <v>'1060'</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1061</v>
       </c>
@@ -14852,7 +15234,7 @@
         <v>'1061'</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1062</v>
       </c>
@@ -14861,7 +15243,7 @@
         <v>'1062'</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1063</v>
       </c>
@@ -14870,7 +15252,7 @@
         <v>'1063'</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1064</v>
       </c>

--- a/Docs/InsertLocalizationText.xlsx
+++ b/Docs/InsertLocalizationText.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="-195" windowWidth="18735" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="5415" yWindow="-195" windowWidth="18735" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="en-us" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="156">
   <si>
     <t xml:space="preserve">      'en-us'</t>
   </si>
@@ -524,6 +524,18 @@
   <si>
     <t xml:space="preserve">    'Senha inválida. Você ainda tem {0} tentativas antes da conta ser desativada.'</t>
   </si>
+  <si>
+    <t>'ChangeUserLanguage-Title'</t>
+  </si>
+  <si>
+    <t>'ChangeUserLanguage-Message'</t>
+  </si>
+  <si>
+    <t>'Alterar linguagem do usuário'</t>
+  </si>
+  <si>
+    <t>'A linguagem do usuário foi alterada com sucesso. Faça login novamente.'</t>
+  </si>
 </sst>
 </file>
 
@@ -872,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N282"/>
+  <dimension ref="A1:N294"/>
   <sheetViews>
-    <sheetView topLeftCell="C262" workbookViewId="0">
-      <selection activeCell="F276" sqref="F276"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="D284" sqref="D284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +897,7 @@
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="49.140625" customWidth="1"/>
     <col min="5" max="5" width="62.28515625" customWidth="1"/>
-    <col min="6" max="6" width="39.28515625" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" customWidth="1"/>
     <col min="7" max="7" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -907,8 +919,8 @@
         <v>2</v>
       </c>
       <c r="F1" t="str">
-        <f t="shared" ref="F1:F64" si="0">"insert into sysLocalizationText Values(" &amp;A1 &amp; "," &amp; B1 &amp; "," &amp;C1 &amp; "," &amp; D1 &amp; "," &amp; E1 &amp; ")"</f>
-        <v>insert into sysLocalizationText Values(1001,      'en-us','1001',     'Execution-Error',    'Execution error')</v>
+        <f>"insert into sysLocalizationText Values(" &amp;A1 &amp; "," &amp; B1 &amp; "," &amp;C1 &amp; "," &amp; D1 &amp; "," &amp; E1 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(1001,      'en-us','1001',     'Execution-Error',    'Execution error',getdate(),getdate())</v>
       </c>
       <c r="N1" t="str">
         <f>"'"</f>
@@ -923,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C65" si="1">"'" &amp; A2 &amp; "'"</f>
+        <f t="shared" ref="C2:C65" si="0">"'" &amp; A2 &amp; "'"</f>
         <v>'1002'</v>
       </c>
       <c r="D2" t="s">
@@ -933,8 +945,8 @@
         <v>4</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1002,      'en-us','1002',     'Validation-Error',    'Data validation error.')</v>
+        <f t="shared" ref="F2:F65" si="1">"insert into sysLocalizationText Values(" &amp;A2 &amp; "," &amp; B2 &amp; "," &amp;C2 &amp; "," &amp; D2 &amp; "," &amp; E2 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(1002,      'en-us','1002',     'Validation-Error',    'Data validation error.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -945,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1003'</v>
       </c>
       <c r="D3" t="s">
@@ -955,8 +967,8 @@
         <v>6</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1003,      'en-us','1003',     'Record-NotFound',    'The requested record was not found.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1003,      'en-us','1003',     'Record-NotFound',    'The requested record was not found.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -967,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1004'</v>
       </c>
       <c r="D4" t="s">
@@ -977,8 +989,8 @@
         <v>8</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1004,      'en-us','1004',     'Login-Invalid-Password',    'Invalid password. You still have 0 attempts before the account is deactivated.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1004,      'en-us','1004',     'Login-Invalid-Password',    'Invalid password. You still have 0 attempts before the account is deactivated.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -989,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1005'</v>
       </c>
       <c r="D5" t="s">
@@ -999,8 +1011,8 @@
         <v>10</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1005,      'en-us','1005',     'Login-Attempts',    'You have already used access attempts and the account has been disabled. Request activation.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1005,      'en-us','1005',     'Login-Attempts',    'You have already used access attempts and the account has been disabled. Request activation.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1011,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1006'</v>
       </c>
       <c r="D6" t="s">
@@ -1021,8 +1033,8 @@
         <v>12</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1006,      'en-us','1006',     'Login-Inactive-Account',    'The account associated with the User is not active. Request account activation.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1006,      'en-us','1006',     'Login-Inactive-Account',    'The account associated with the User is not active. Request account activation.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1033,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1007'</v>
       </c>
       <c r="D7" t="s">
@@ -1043,8 +1055,8 @@
         <v>14</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1007,      'en-us','1007',     'Login-Locked-Account',    'The account associated with the User is locked out. Contact your system administrator.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1007,      'en-us','1007',     'Login-Locked-Account',    'The account associated with the User is locked out. Contact your system administrator.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1055,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1008'</v>
       </c>
       <c r="D8" t="s">
@@ -1065,8 +1077,8 @@
         <v>16</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1008,      'en-us','1008',     'Login-User-NotFound',    'User not found.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1008,      'en-us','1008',     'Login-User-NotFound',    'User not found.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1077,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1009'</v>
       </c>
       <c r="D9" t="s">
@@ -1087,8 +1099,8 @@
         <v>18</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1009,      'en-us','1009',     'User-Exists',    'There is already a user with the email')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1009,      'en-us','1009',     'User-Exists',    'There is already a user with the email',getdate(),getdate())</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1099,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1010'</v>
       </c>
       <c r="D10" t="s">
@@ -1109,8 +1121,8 @@
         <v>20</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1010,      'en-us','1010',     'Email-Exists',    'The email you entered already exists.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1010,      'en-us','1010',     'Email-Exists',    'The email you entered already exists.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1121,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1011'</v>
       </c>
       <c r="D11" t="s">
@@ -1131,8 +1143,8 @@
         <v>22</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1011,      'en-us','1011',     'Profile-NotBe-Null',    'The Profile cannot be null.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1011,      'en-us','1011',     'Profile-NotBe-Null',    'The Profile cannot be null.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1143,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1012'</v>
       </c>
       <c r="D12" t="s">
@@ -1153,8 +1165,8 @@
         <v>24</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1012,      'en-us','1012',     'User-Error-Exclude-Childs',    'There was an error deleting child items (Roles).')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1012,      'en-us','1012',     'User-Error-Exclude-Childs',    'There was an error deleting child items (Roles).',getdate(),getdate())</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1165,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1013'</v>
       </c>
       <c r="D13" t="s">
@@ -1175,8 +1187,8 @@
         <v>26</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1013,      'en-us','1013',     'User-Invalid-Password-Code',    'The password exchange authorization code is invalid.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1013,      'en-us','1013',     'User-Invalid-Password-Code',    'The password exchange authorization code is invalid.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1187,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1014'</v>
       </c>
       <c r="D14" t="s">
@@ -1197,8 +1209,8 @@
         <v>28</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1014,      'en-us','1014',     'Account-Active',    'The account associated with the User is already active.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1014,      'en-us','1014',     'Account-Active',    'The account associated with the User is already active.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1209,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1015'</v>
       </c>
       <c r="D15" t="s">
@@ -1219,8 +1231,8 @@
         <v>30</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1015,      'en-us','1015',     'User-Invalid-Activation-Code',    'The activation authorization code is invalid.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1015,      'en-us','1015',     'User-Invalid-Activation-Code',    'The activation authorization code is invalid.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1231,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1016'</v>
       </c>
       <c r="D16" t="s">
@@ -1241,8 +1253,8 @@
         <v>32</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1016,      'en-us','1016',     'User-No-Image',    'Send the image file.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1016,      'en-us','1016',     'User-No-Image',    'Send the image file.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1253,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1017'</v>
       </c>
       <c r="D17" t="s">
@@ -1263,8 +1275,8 @@
         <v>34</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1017,      'en-us','1017',     'User-Role-Exists',    'This Role is already associated with the user.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1017,      'en-us','1017',     'User-Role-Exists',    'This Role is already associated with the user.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1018'</v>
       </c>
       <c r="D18" t="s">
@@ -1285,8 +1297,8 @@
         <v>36</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1018,      'en-us','1018',     'User-Role-No-Exists',    'This Role does not belong to the user.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1018,      'en-us','1018',     'User-Role-No-Exists',    'This Role does not belong to the user.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1019'</v>
       </c>
       <c r="D19" t="s">
@@ -1307,8 +1319,8 @@
         <v>38</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1019,      'en-us','1019',     'Http-Unauthorized',    'Unauthorized access')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1019,      'en-us','1019',     'Http-Unauthorized',    'Unauthorized access',getdate(),getdate())</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1319,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1020'</v>
       </c>
       <c r="D20" t="s">
@@ -1329,8 +1341,8 @@
         <v>40</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1020,      'en-us','1020',     'Http-NotFound',    'The resource could not be found')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1020,      'en-us','1020',     'Http-NotFound',    'The resource could not be found',getdate(),getdate())</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1341,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1021'</v>
       </c>
       <c r="D21" t="s">
@@ -1351,8 +1363,8 @@
         <v>42</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1021,      'en-us','1021',     'Http-Forbidden',    'User profile without access permission.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1021,      'en-us','1021',     'Http-Forbidden',    'User profile without access permission.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1363,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1022'</v>
       </c>
       <c r="D22" t="s">
@@ -1373,8 +1385,8 @@
         <v>44</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1022,      'en-us','1022',     'Http-500Error',    'An error occurred in the processing of the request.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1022,      'en-us','1022',     'Http-500Error',    'An error occurred in the processing of the request.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1385,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1023'</v>
       </c>
       <c r="D23" t="s">
@@ -1395,8 +1407,8 @@
         <v>46</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1023,      'en-us','1023',     'Http-ServiceUnavailable',    'The requested service is unavailable.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1023,      'en-us','1023',     'Http-ServiceUnavailable',    'The requested service is unavailable.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1407,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1024'</v>
       </c>
       <c r="D24" t="s">
@@ -1417,8 +1429,8 @@
         <v>48</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1024,      'en-us','1024',     'API-Unexpected-Exception',    'Unexpected error not identified GetInnerExceptions@f2]')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1024,      'en-us','1024',     'API-Unexpected-Exception',    'Unexpected error not identified GetInnerExceptions@f2]',getdate(),getdate())</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1429,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1025'</v>
       </c>
       <c r="D25" t="s">
@@ -1439,8 +1451,8 @@
         <v>50</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1025,      'en-us','1025',     'ShortDayName-1',    'Sun')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1025,      'en-us','1025',     'ShortDayName-1',    'Sun',getdate(),getdate())</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1451,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1026'</v>
       </c>
       <c r="D26" t="s">
@@ -1461,8 +1473,8 @@
         <v>52</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1026,      'en-us','1026',     'ShortDayName-2',    'Mon')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1026,      'en-us','1026',     'ShortDayName-2',    'Mon',getdate(),getdate())</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1473,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1027'</v>
       </c>
       <c r="D27" t="s">
@@ -1483,8 +1495,8 @@
         <v>54</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1027,      'en-us','1027',     'ShortDayName-3',    'Tue')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1027,      'en-us','1027',     'ShortDayName-3',    'Tue',getdate(),getdate())</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1495,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1028'</v>
       </c>
       <c r="D28" t="s">
@@ -1505,8 +1517,8 @@
         <v>56</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1028,      'en-us','1028',     'ShortDayName-4',    'Wed')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1028,      'en-us','1028',     'ShortDayName-4',    'Wed',getdate(),getdate())</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1517,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1029'</v>
       </c>
       <c r="D29" t="s">
@@ -1527,8 +1539,8 @@
         <v>58</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1029,      'en-us','1029',     'ShortDayName-5',    'Thu')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1029,      'en-us','1029',     'ShortDayName-5',    'Thu',getdate(),getdate())</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1539,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1030'</v>
       </c>
       <c r="D30" t="s">
@@ -1549,8 +1561,8 @@
         <v>60</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1030,      'en-us','1030',     'ShortDayName-6',    'Fri')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1030,      'en-us','1030',     'ShortDayName-6',    'Fri',getdate(),getdate())</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1561,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1031'</v>
       </c>
       <c r="D31" t="s">
@@ -1571,8 +1583,8 @@
         <v>62</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1031,      'en-us','1031',     'ShortDayName-7',    'Sat'  )</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1031,      'en-us','1031',     'ShortDayName-7',    'Sat'  ,getdate(),getdate())</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1032'</v>
       </c>
       <c r="D32" t="s">
@@ -1593,8 +1605,8 @@
         <v>64</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1032,      'en-us','1032',     'MonthName-1',    'JANUARY')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1032,      'en-us','1032',     'MonthName-1',    'JANUARY',getdate(),getdate())</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1605,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1033'</v>
       </c>
       <c r="D33" t="s">
@@ -1615,8 +1627,8 @@
         <v>66</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1033,      'en-us','1033',     'MonthName-2',    'FEBRUARY')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1033,      'en-us','1033',     'MonthName-2',    'FEBRUARY',getdate(),getdate())</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1627,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1034'</v>
       </c>
       <c r="D34" t="s">
@@ -1637,8 +1649,8 @@
         <v>68</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1034,      'en-us','1034',     'MonthName-3',    'MARCH')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1034,      'en-us','1034',     'MonthName-3',    'MARCH',getdate(),getdate())</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1649,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1035'</v>
       </c>
       <c r="D35" t="s">
@@ -1659,8 +1671,8 @@
         <v>70</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1035,      'en-us','1035',     'MonthName-4',    'APRIL')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1035,      'en-us','1035',     'MonthName-4',    'APRIL',getdate(),getdate())</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1671,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1036'</v>
       </c>
       <c r="D36" t="s">
@@ -1681,8 +1693,8 @@
         <v>72</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1036,      'en-us','1036',     'MonthName-5',    'MAY')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1036,      'en-us','1036',     'MonthName-5',    'MAY',getdate(),getdate())</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1693,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1037'</v>
       </c>
       <c r="D37" t="s">
@@ -1703,8 +1715,8 @@
         <v>74</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1037,      'en-us','1037',     'MonthName-6',    'JUNE')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1037,      'en-us','1037',     'MonthName-6',    'JUNE',getdate(),getdate())</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1715,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1038'</v>
       </c>
       <c r="D38" t="s">
@@ -1725,8 +1737,8 @@
         <v>76</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1038,      'en-us','1038',     'MonthName-7',    'JULY')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1038,      'en-us','1038',     'MonthName-7',    'JULY',getdate(),getdate())</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1737,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1039'</v>
       </c>
       <c r="D39" t="s">
@@ -1747,8 +1759,8 @@
         <v>78</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1039,      'en-us','1039',     'MonthName-8',    'AUGUST')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1039,      'en-us','1039',     'MonthName-8',    'AUGUST',getdate(),getdate())</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1759,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1040'</v>
       </c>
       <c r="D40" t="s">
@@ -1769,8 +1781,8 @@
         <v>80</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1040,      'en-us','1040',     'MonthName-9',    'SEPTEMBER')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1040,      'en-us','1040',     'MonthName-9',    'SEPTEMBER',getdate(),getdate())</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1041'</v>
       </c>
       <c r="D41" t="s">
@@ -1791,8 +1803,8 @@
         <v>82</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1041,      'en-us','1041',     'MonthName-10',    'OCTOBER')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1041,      'en-us','1041',     'MonthName-10',    'OCTOBER',getdate(),getdate())</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1803,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1042'</v>
       </c>
       <c r="D42" t="s">
@@ -1813,8 +1825,8 @@
         <v>84</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1042,      'en-us','1042',     'MonthName-11',    'NOVEMBER')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1042,      'en-us','1042',     'MonthName-11',    'NOVEMBER',getdate(),getdate())</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1825,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1043'</v>
       </c>
       <c r="D43" t="s">
@@ -1835,8 +1847,8 @@
         <v>86</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1043,      'en-us','1043',     'MonthName-12',    'DECEMBER')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1043,      'en-us','1043',     'MonthName-12',    'DECEMBER',getdate(),getdate())</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1847,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1044'</v>
       </c>
       <c r="D44" t="s">
@@ -1857,8 +1869,8 @@
         <v>88</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1044,      'en-us','1044',     'Validation-NotNull',    'cannot be null.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1044,      'en-us','1044',     'Validation-NotNull',    'cannot be null.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1869,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1045'</v>
       </c>
       <c r="D45" t="s">
@@ -1879,8 +1891,8 @@
         <v>147</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1045,      'en-us','1045',     'Validation-Max-Characters',    'The {0} field cannot have more than 1 characters.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1045,      'en-us','1045',     'Validation-Max-Characters',    'The {0} field cannot have more than 1 characters.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1891,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1046'</v>
       </c>
       <c r="D46" t="s">
@@ -1901,8 +1913,8 @@
         <v>148</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1046,      'en-us','1046',     'Validation-Invalid-Field',    'The {0} field is invalid.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1046,      'en-us','1046',     'Validation-Invalid-Field',    'The {0} field is invalid.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1913,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1047'</v>
       </c>
       <c r="D47" t="s">
@@ -1923,8 +1935,8 @@
         <v>149</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1047,      'en-us','1047',     'Validation-Invalid-UserName',    'The {0} field is invalid. Do not use special characters or spaces.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1047,      'en-us','1047',     'Validation-Invalid-UserName',    'The {0} field is invalid. Do not use special characters or spaces.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1935,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1048'</v>
       </c>
       <c r="D48" t="s">
@@ -1945,8 +1957,8 @@
         <v>150</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1048,      'en-us','1048',     'Validation-Unique-Value',    'The {0} field is invalid. Value must be unique.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1048,      'en-us','1048',     'Validation-Unique-Value',    'The {0} field is invalid. Value must be unique.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1957,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1049'</v>
       </c>
       <c r="D49" t="s">
@@ -1967,8 +1979,8 @@
         <v>94</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1049,      'en-us','1049',     'User-Instance-Exists',    'This Instance is already associated with the user.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1049,      'en-us','1049',     'User-Instance-Exists',    'This Instance is already associated with the user.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1979,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1050'</v>
       </c>
       <c r="D50" t="s">
@@ -1989,8 +2001,8 @@
         <v>96</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1050,      'en-us','1050',     'User-Instance-No-Exists',    'This Instance does not belong to the user.')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1050,      'en-us','1050',     'User-Instance-No-Exists',    'This Instance does not belong to the user.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2001,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1051'</v>
       </c>
       <c r="D51" t="str">
@@ -2013,8 +2025,8 @@
         <v>'User Management'</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1051,      'en-us','1051','User-PageTitle','User Management')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1051,      'en-us','1051','User-PageTitle','User Management',getdate(),getdate())</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2025,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1052'</v>
       </c>
       <c r="D52" s="1" t="str">
@@ -2037,8 +2049,8 @@
         <v>'Search'</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1052,      'en-us','1052','SearchButtonLabel','Search')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1052,      'en-us','1052','SearchButtonLabel','Search',getdate(),getdate())</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2049,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1053'</v>
       </c>
       <c r="D53" t="str">
@@ -2061,8 +2073,8 @@
         <v>'Searching...'</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1053,      'en-us','1053','SearchingLabel','Searching...')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1053,      'en-us','1053','SearchingLabel','Searching...',getdate(),getdate())</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2073,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1054'</v>
       </c>
       <c r="D54" t="str">
@@ -2085,8 +2097,8 @@
         <v>'Inserting...'</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1054,      'en-us','1054','InsertingLoadingLabel','Inserting...')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1054,      'en-us','1054','InsertingLoadingLabel','Inserting...',getdate(),getdate())</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2097,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1055'</v>
       </c>
       <c r="D55" t="str">
@@ -2109,8 +2121,8 @@
         <v>'Search Result'</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1055,      'en-us','1055','SearchResultLabel','Search Result')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1055,      'en-us','1055','SearchResultLabel','Search Result',getdate(),getdate())</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2121,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1056'</v>
       </c>
       <c r="D56" t="str">
@@ -2133,8 +2145,8 @@
         <v>'Details'</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1056,      'en-us','1056','DetailsLabel','Details')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1056,      'en-us','1056','DetailsLabel','Details',getdate(),getdate())</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2145,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1057'</v>
       </c>
       <c r="D57" t="str">
@@ -2157,8 +2169,8 @@
         <v>'No records was found'</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1057,      'en-us','1057','NoRecordsFound','No records was found')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1057,      'en-us','1057','NoRecordsFound','No records was found',getdate(),getdate())</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2169,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1058'</v>
       </c>
       <c r="D58" t="str">
@@ -2181,8 +2193,8 @@
         <v>'Loading. Wait...'</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1058,      'en-us','1058','LoadingPage','Loading. Wait...')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1058,      'en-us','1058','LoadingPage','Loading. Wait...',getdate(),getdate())</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2193,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1059'</v>
       </c>
       <c r="D59" t="str">
@@ -2205,8 +2217,8 @@
         <v>'Loading Page. Wait...'</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1059,      'en-us','1059','LoadingData','Loading Page. Wait...')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1059,      'en-us','1059','LoadingData','Loading Page. Wait...',getdate(),getdate())</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2217,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1060'</v>
       </c>
       <c r="D60" t="str">
@@ -2229,8 +2241,8 @@
         <v>'Error on execute search'</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1060,      'en-us','1060','ErrorOnExecuteSearch','Error on execute search')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1060,      'en-us','1060','ErrorOnExecuteSearch','Error on execute search',getdate(),getdate())</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2241,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1061'</v>
       </c>
       <c r="D61" t="str">
@@ -2253,8 +2265,8 @@
         <v>'Error on return data'</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1061,      'en-us','1061','ErrorOnReturnData','Error on return data')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1061,      'en-us','1061','ErrorOnReturnData','Error on return data',getdate(),getdate())</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2265,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1062'</v>
       </c>
       <c r="D62" t="str">
@@ -2277,8 +2289,8 @@
         <v>'Error on create record'</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1062,      'en-us','1062','ErrorOnCreateNewRecord','Error on create record')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1062,      'en-us','1062','ErrorOnCreateNewRecord','Error on create record',getdate(),getdate())</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2289,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1063'</v>
       </c>
       <c r="D63" t="str">
@@ -2301,8 +2313,8 @@
         <v>'The new record was created successfuly. Do you want inserting ?'</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1063,      'en-us','1063','AfterSaveAnswering','The new record was created successfuly. Do you want inserting ?')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1063,      'en-us','1063','AfterSaveAnswering','The new record was created successfuly. Do you want inserting ?',getdate(),getdate())</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2313,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1064'</v>
       </c>
       <c r="D64" t="str">
@@ -2325,8 +2337,8 @@
         <v>'Notice'</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into sysLocalizationText Values(1064,      'en-us','1064','NoticeLabel','Notice')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1064,      'en-us','1064','NoticeLabel','Notice',getdate(),getdate())</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2337,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1065'</v>
       </c>
       <c r="D65" t="str">
@@ -2349,8 +2361,8 @@
         <v>'Success'</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" ref="F65:F168" si="2">"insert into sysLocalizationText Values(" &amp;A65 &amp; "," &amp; B65 &amp; "," &amp;C65 &amp; "," &amp; D65 &amp; "," &amp; E65 &amp; ")"</f>
-        <v>insert into sysLocalizationText Values(1065,      'en-us','1065','SuccessLabel','Success')</v>
+        <f t="shared" si="1"/>
+        <v>insert into sysLocalizationText Values(1065,      'en-us','1065','SuccessLabel','Success',getdate(),getdate())</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2361,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" ref="C66:C169" si="3">"'" &amp; A66 &amp; "'"</f>
+        <f t="shared" ref="C66:C169" si="2">"'" &amp; A66 &amp; "'"</f>
         <v>'1066'</v>
       </c>
       <c r="D66" t="str">
@@ -2373,8 +2385,8 @@
         <v>'The record was saved successfuly.'</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1066,      'en-us','1066','SuccessSaveMessage','The record was saved successfuly.')</v>
+        <f t="shared" ref="F66:F129" si="3">"insert into sysLocalizationText Values(" &amp;A66 &amp; "," &amp; B66 &amp; "," &amp;C66 &amp; "," &amp; D66 &amp; "," &amp; E66 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(1066,      'en-us','1066','SuccessSaveMessage','The record was saved successfuly.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2385,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1067'</v>
       </c>
       <c r="D67" t="str">
@@ -2397,8 +2409,8 @@
         <v>'E-mail'</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1067,      'en-us','1067','Email-Label','E-mail')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1067,      'en-us','1067','Email-Label','E-mail',getdate(),getdate())</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2409,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1068'</v>
       </c>
       <c r="D68" t="str">
@@ -2421,8 +2433,8 @@
         <v>'User Name'</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1068,      'en-us','1068','UserName-Label','User Name')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1068,      'en-us','1068','UserName-Label','User Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2433,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1069'</v>
       </c>
       <c r="D69" t="str">
@@ -2445,8 +2457,8 @@
         <v>'Password'</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1069,      'en-us','1069','Password-Label','Password')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1069,      'en-us','1069','Password-Label','Password',getdate(),getdate())</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2457,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1070'</v>
       </c>
       <c r="D70" t="str">
@@ -2469,8 +2481,8 @@
         <v>'Instance'</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1070,      'en-us','1070','Instance-Label','Instance')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1070,      'en-us','1070','Instance-Label','Instance',getdate(),getdate())</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2481,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1071'</v>
       </c>
       <c r="D71" t="str">
@@ -2493,8 +2505,8 @@
         <v>'Role'</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1071,      'en-us','1071','Role-Label','Role')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1071,      'en-us','1071','Role-Label','Role',getdate(),getdate())</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2505,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1072'</v>
       </c>
       <c r="D72" t="str">
@@ -2517,8 +2529,8 @@
         <v>'Yes'</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1072,      'en-us','1072','Yes-Text','Yes')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1072,      'en-us','1072','Yes-Text','Yes',getdate(),getdate())</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2529,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1073'</v>
       </c>
       <c r="D73" t="str">
@@ -2541,8 +2553,8 @@
         <v>'No'</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1073,      'en-us','1073','No-Text','No')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1073,      'en-us','1073','No-Text','No',getdate(),getdate())</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2553,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1074'</v>
       </c>
       <c r="D74" t="str">
@@ -2565,8 +2577,8 @@
         <v>'Saving...'</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1074,      'en-us','1074','Saving-Label','Saving...')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1074,      'en-us','1074','Saving-Label','Saving...',getdate(),getdate())</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2577,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1075'</v>
       </c>
       <c r="D75" t="str">
@@ -2589,8 +2601,8 @@
         <v>'Edit'</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1075,      'en-us','1075','Edit-Label','Edit')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1075,      'en-us','1075','Edit-Label','Edit',getdate(),getdate())</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2601,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1076'</v>
       </c>
       <c r="D76" t="str">
@@ -2613,8 +2625,8 @@
         <v>'Date'</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1076,      'en-us','1076','Date-Label','Date')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1076,      'en-us','1076','Date-Label','Date',getdate(),getdate())</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2625,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1077'</v>
       </c>
       <c r="D77" t="str">
@@ -2637,8 +2649,8 @@
         <v>'Field'</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1077,      'en-us','1077','Field-Label','Field')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1077,      'en-us','1077','Field-Label','Field',getdate(),getdate())</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2649,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1078'</v>
       </c>
       <c r="D78" t="str">
@@ -2661,8 +2673,8 @@
         <v>'Value'</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1078,      'en-us','1078','Value-Label','Value')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1078,      'en-us','1078','Value-Label','Value',getdate(),getdate())</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2673,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1079'</v>
       </c>
       <c r="D79" t="str">
@@ -2685,8 +2697,8 @@
         <v>'Select a item'</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1079,      'en-us','1079','SelectItem-Description','Select a item')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1079,      'en-us','1079','SelectItem-Description','Select a item',getdate(),getdate())</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2697,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1080'</v>
       </c>
       <c r="D80" t="str">
@@ -2709,8 +2721,8 @@
         <v>'All'</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1080,      'en-us','1080','AllItem-Description','All')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1080,      'en-us','1080','AllItem-Description','All',getdate(),getdate())</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2733,8 +2745,8 @@
         <v>'Welcome to GW Template'</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1081,      'en-us','1081','Welcome-Label','Welcome to GW Template')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1081,      'en-us','1081','Welcome-Label','Welcome to GW Template',getdate(),getdate())</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2757,8 +2769,8 @@
         <v>'Sign In'</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1082,      'en-us','1082','LoginTitle-Label','Sign In')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1082,      'en-us','1082','LoginTitle-Label','Sign In',getdate(),getdate())</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2781,8 +2793,8 @@
         <v>'Enter your login and password'</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1083,      'en-us','1083','LoginTitle-Description','Enter your login and password')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1083,      'en-us','1083','LoginTitle-Description','Enter your login and password',getdate(),getdate())</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2805,8 +2817,8 @@
         <v>'Input your account e-mail'</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1084,      'en-us','1084','InputEmail-Description','Input your account e-mail')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1084,      'en-us','1084','InputEmail-Description','Input your account e-mail',getdate(),getdate())</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2829,8 +2841,8 @@
         <v>'Input your password'</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1085,      'en-us','1085','InputPassword-Description','Input your password')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1085,      'en-us','1085','InputPassword-Description','Input your password',getdate(),getdate())</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2853,8 +2865,8 @@
         <v>'Forgot your password ?'</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1086,      'en-us','1086','ForgetPassword-Description','Forgot your password ?')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1086,      'en-us','1086','ForgetPassword-Description','Forgot your password ?',getdate(),getdate())</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2877,8 +2889,8 @@
         <v>'Confirm'</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1087,      'en-us','1087','LoginButton-Label','Confirm')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1087,      'en-us','1087','LoginButton-Label','Confirm',getdate(),getdate())</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2901,8 +2913,8 @@
         <v>'Entering...'</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1088,      'en-us','1088','LoginLoading-Label','Entering...')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1088,      'en-us','1088','LoginLoading-Label','Entering...',getdate(),getdate())</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2925,8 +2937,8 @@
         <v>'Sending...'</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1089,      'en-us','1089','SendText-Description','Sending...')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1089,      'en-us','1089','SendText-Description','Sending...',getdate(),getdate())</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2949,8 +2961,8 @@
         <v>'Activate Account'</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1090,      'en-us','1090','ActiveAccountButton-Label','Activate Account')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1090,      'en-us','1090','ActiveAccountButton-Label','Activate Account',getdate(),getdate())</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2973,8 +2985,8 @@
         <v>'Account Activation'</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1091,      'en-us','1091','ActiveAccount-Label','Account Activation')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1091,      'en-us','1091','ActiveAccount-Label','Account Activation',getdate(),getdate())</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2997,8 +3009,8 @@
         <v>'Cannot access ?'</v>
       </c>
       <c r="F92" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1092,      'en-us','1092','ActiveAccount-Description','Cannot access ?')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1092,      'en-us','1092','ActiveAccount-Description','Cannot access ?',getdate(),getdate())</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3021,8 +3033,8 @@
         <v>'Send the activation code to your registration email'</v>
       </c>
       <c r="F93" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1093,      'en-us','1093','ActiveAccount-Step1','Send the activation code to your registration email')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1093,      'en-us','1093','ActiveAccount-Step1','Send the activation code to your registration email',getdate(),getdate())</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3045,8 +3057,8 @@
         <v>'Enter the activation code received'</v>
       </c>
       <c r="F94" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1094,      'en-us','1094','ActiveAccount-Step2','Enter the activation code received')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1094,      'en-us','1094','ActiveAccount-Step2','Enter the activation code received',getdate(),getdate())</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3069,8 +3081,8 @@
         <v>'Send code'</v>
       </c>
       <c r="F95" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1095,      'en-us','1095','SendCodeButton-Label','Send code')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1095,      'en-us','1095','SendCodeButton-Label','Send code',getdate(),getdate())</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3093,8 +3105,8 @@
         <v>'Request Activation'</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1096,      'en-us','1096','ActiveLoading-Label','Request Activation')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1096,      'en-us','1096','ActiveLoading-Label','Request Activation',getdate(),getdate())</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3117,8 +3129,8 @@
         <v>'Input code received on e-mail'</v>
       </c>
       <c r="F97" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1097,      'en-us','1097','InputCode-Description','Input code received on e-mail')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1097,      'en-us','1097','InputCode-Description','Input code received on e-mail',getdate(),getdate())</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3141,8 +3153,8 @@
         <v>'Not Logged'</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1098,      'en-us','1098','Unlogged-Label','Not Logged')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1098,      'en-us','1098','Unlogged-Label','Not Logged',getdate(),getdate())</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3165,8 +3177,8 @@
         <v>'My Profile'</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1099,      'en-us','1099','MyProfile-Label','My Profile')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1099,      'en-us','1099','MyProfile-Label','My Profile',getdate(),getdate())</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3189,8 +3201,8 @@
         <v>'Main Info'</v>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1100,      'en-us','1100','MainProfileData-Label','Main Info')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1100,      'en-us','1100','MainProfileData-Label','Main Info',getdate(),getdate())</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3213,8 +3225,8 @@
         <v>'Change Password'</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1101,      'en-us','1101','AlterPassword-Label','Change Password')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1101,      'en-us','1101','AlterPassword-Label','Change Password',getdate(),getdate())</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3237,8 +3249,8 @@
         <v>'Language'</v>
       </c>
       <c r="F102" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1102,      'en-us','1102','LanguageRole-Label','Language')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1102,      'en-us','1102','LanguageRole-Label','Language',getdate(),getdate())</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3261,8 +3273,8 @@
         <v>'Change Profile Image'</v>
       </c>
       <c r="F103" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1103,      'en-us','1103','AlterProfileImage-Label','Change Profile Image')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1103,      'en-us','1103','AlterProfileImage-Label','Change Profile Image',getdate(),getdate())</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3285,8 +3297,8 @@
         <v>'Click on the link below to receive an email with the security code to change your password'</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1104,      'en-us','1104','AlterPasswordStep1-Label','Click on the link below to receive an email with the security code to change your password')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1104,      'en-us','1104','AlterPasswordStep1-Label','Click on the link below to receive an email with the security code to change your password',getdate(),getdate())</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3309,8 +3321,8 @@
         <v>'After receiving the code, fill in the information below and click Change Password'</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1105,      'en-us','1105','AlterPasswordStep2-Label','After receiving the code, fill in the information below and click Change Password')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1105,      'en-us','1105','AlterPasswordStep2-Label','After receiving the code, fill in the information below and click Change Password',getdate(),getdate())</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3333,8 +3345,8 @@
         <v>'Input the new password'</v>
       </c>
       <c r="F106" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1106,      'en-us','1106','InputNewPassword-Label','Input the new password')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1106,      'en-us','1106','InputNewPassword-Label','Input the new password',getdate(),getdate())</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3357,8 +3369,8 @@
         <v>'Change Password'</v>
       </c>
       <c r="F107" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1107,      'en-us','1107','AlterPasswordButton-Label','Change Password')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1107,      'en-us','1107','AlterPasswordButton-Label','Change Password',getdate(),getdate())</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3381,8 +3393,8 @@
         <v>'Changing password...'</v>
       </c>
       <c r="F108" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1108,      'en-us','1108','AlterPasswordButton-Loading','Changing password...')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1108,      'en-us','1108','AlterPasswordButton-Loading','Changing password...',getdate(),getdate())</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3405,8 +3417,8 @@
         <v>'Invalid Credentiais'</v>
       </c>
       <c r="F109" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1109,      'en-us','1109','InvalidCredentials-Title','Invalid Credentiais')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1109,      'en-us','1109','InvalidCredentials-Title','Invalid Credentiais',getdate(),getdate())</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3429,8 +3441,8 @@
         <v>'E-mail or password invalid.'</v>
       </c>
       <c r="F110" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1110,      'en-us','1110','InvalidCredentials-Message','E-mail or password invalid.')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1110,      'en-us','1110','InvalidCredentials-Message','E-mail or password invalid.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3453,8 +3465,8 @@
         <v>'Temporary Password Sent'</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1111,      'en-us','1111','TemporaryPassword-Title','Temporary Password Sent')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1111,      'en-us','1111','TemporaryPassword-Title','Temporary Password Sent',getdate(),getdate())</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3477,8 +3489,8 @@
         <v>'A temporary password has been sent to your registration e-mail. When logging in, ask to change your password.'</v>
       </c>
       <c r="F112" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1112,      'en-us','1112','TemporaryPassword-Message','A temporary password has been sent to your registration e-mail. When logging in, ask to change your password.')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1112,      'en-us','1112','TemporaryPassword-Message','A temporary password has been sent to your registration e-mail. When logging in, ask to change your password.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3501,8 +3513,8 @@
         <v>'Activation Successfuly'</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1113,      'en-us','1113','SuccessActivated-Title','Activation Successfuly')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1113,      'en-us','1113','SuccessActivated-Title','Activation Successfuly',getdate(),getdate())</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3525,8 +3537,8 @@
         <v>'The account has been successfully activated. You can now log in.'</v>
       </c>
       <c r="F114" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1114,      'en-us','1114','SuccessActivated-Message','The account has been successfully activated. You can now log in.')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1114,      'en-us','1114','SuccessActivated-Message','The account has been successfully activated. You can now log in.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3549,8 +3561,8 @@
         <v>'Code was Sent .'</v>
       </c>
       <c r="F115" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1115,      'en-us','1115','ActivateCode-Title','Code was Sent .')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1115,      'en-us','1115','ActivateCode-Title','Code was Sent .',getdate(),getdate())</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3573,8 +3585,8 @@
         <v>'A security code has been sent by e-mail.'</v>
       </c>
       <c r="F116" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1116,      'en-us','1116','ActivateCode-Message','A security code has been sent by e-mail.')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1116,      'en-us','1116','ActivateCode-Message','A security code has been sent by e-mail.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3597,8 +3609,8 @@
         <v>'Changed Password'</v>
       </c>
       <c r="F117" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1117,      'en-us','1117','PasswordChanged-Title','Changed Password')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1117,      'en-us','1117','PasswordChanged-Title','Changed Password',getdate(),getdate())</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3621,8 +3633,8 @@
         <v>'The password has been successfully changed. Log in again.'</v>
       </c>
       <c r="F118" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1118,      'en-us','1118','PasswordChanged-Message','The password has been successfully changed. Log in again.')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1118,      'en-us','1118','PasswordChanged-Message','The password has been successfully changed. Log in again.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3645,8 +3657,8 @@
         <v>'Altered Image'</v>
       </c>
       <c r="F119" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1119,      'en-us','1119','ImageChanged-Title','Altered Image')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1119,      'en-us','1119','ImageChanged-Title','Altered Image',getdate(),getdate())</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3669,8 +3681,8 @@
         <v>'The profile picture has been changed. At the next login the new image will be displayed.'</v>
       </c>
       <c r="F120" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1120,      'en-us','1120','ImageChanged-Message','The profile picture has been changed. At the next login the new image will be displayed.')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1120,      'en-us','1120','ImageChanged-Message','The profile picture has been changed. At the next login the new image will be displayed.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3681,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1121'</v>
       </c>
       <c r="D121" t="str">
@@ -3693,8 +3705,8 @@
         <v>'By E-mail'</v>
       </c>
       <c r="F121" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1121,      'en-us','1121','SearchByEmail-Label','By E-mail')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1121,      'en-us','1121','SearchByEmail-Label','By E-mail',getdate(),getdate())</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3705,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1122'</v>
       </c>
       <c r="D122" t="str">
@@ -3717,8 +3729,8 @@
         <v>'By User Name'</v>
       </c>
       <c r="F122" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1122,      'en-us','1122','SearchByUserName-Label','By User Name')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1122,      'en-us','1122','SearchByUserName-Label','By User Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3729,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1123'</v>
       </c>
       <c r="D123" t="str">
@@ -3741,8 +3753,8 @@
         <v>'Search By E-mail'</v>
       </c>
       <c r="F123" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1123,      'en-us','1123','SearchByEmail-Description','Search By E-mail')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1123,      'en-us','1123','SearchByEmail-Description','Search By E-mail',getdate(),getdate())</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3753,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1124'</v>
       </c>
       <c r="D124" t="str">
@@ -3765,8 +3777,8 @@
         <v>'Search By User Name'</v>
       </c>
       <c r="F124" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1124,      'en-us','1124','SearchByUserName-Description','Search By User Name')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1124,      'en-us','1124','SearchByUserName-Description','Search By User Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3777,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1125'</v>
       </c>
       <c r="D125" t="str">
@@ -3789,8 +3801,8 @@
         <v>'By Instance'</v>
       </c>
       <c r="F125" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1125,      'en-us','1125','SearchByInstance-Label','By Instance')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1125,      'en-us','1125','SearchByInstance-Label','By Instance',getdate(),getdate())</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3801,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1126'</v>
       </c>
       <c r="D126" t="str">
@@ -3813,8 +3825,8 @@
         <v>'By Role'</v>
       </c>
       <c r="F126" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1126,      'en-us','1126','SearchByRole-Label','By Role')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1126,      'en-us','1126','SearchByRole-Label','By Role',getdate(),getdate())</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3825,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1127'</v>
       </c>
       <c r="D127" t="str">
@@ -3837,8 +3849,8 @@
         <v>'New User'</v>
       </c>
       <c r="F127" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1127,      'en-us','1127','NewUser-Label','New User')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1127,      'en-us','1127','NewUser-Label','New User',getdate(),getdate())</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3849,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1128'</v>
       </c>
       <c r="D128" t="str">
@@ -3861,8 +3873,8 @@
         <v>'Click here to create new User'</v>
       </c>
       <c r="F128" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1128,      'en-us','1128','NewUser-Description','Click here to create new User')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1128,      'en-us','1128','NewUser-Description','Click here to create new User',getdate(),getdate())</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3873,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1129'</v>
       </c>
       <c r="D129" t="str">
@@ -3885,8 +3897,8 @@
         <v>'Active'</v>
       </c>
       <c r="F129" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1129,      'en-us','1129','Active-Label','Active')</v>
+        <f t="shared" si="3"/>
+        <v>insert into sysLocalizationText Values(1129,      'en-us','1129','Active-Label','Active',getdate(),getdate())</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3897,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1130'</v>
       </c>
       <c r="D130" t="str">
@@ -3909,8 +3921,8 @@
         <v>'Locked'</v>
       </c>
       <c r="F130" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1130,      'en-us','1130','Locked-Label','Locked')</v>
+        <f t="shared" ref="F130:F193" si="8">"insert into sysLocalizationText Values(" &amp;A130 &amp; "," &amp; B130 &amp; "," &amp;C130 &amp; "," &amp; D130 &amp; "," &amp; E130 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(1130,      'en-us','1130','Locked-Label','Locked',getdate(),getdate())</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3921,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1131'</v>
       </c>
       <c r="D131" t="str">
@@ -3933,8 +3945,8 @@
         <v>'Main Data'</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1131,      'en-us','1131','MainData-Label','Main Data')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1131,      'en-us','1131','MainData-Label','Main Data',getdate(),getdate())</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3945,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1132'</v>
       </c>
       <c r="D132" t="str">
@@ -3957,8 +3969,8 @@
         <v>'Instances &amp; Roles'</v>
       </c>
       <c r="F132" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1132,      'en-us','1132','User-SecondTabLabel','Instances &amp; Roles')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1132,      'en-us','1132','User-SecondTabLabel','Instances &amp; Roles',getdate(),getdate())</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3969,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1133'</v>
       </c>
       <c r="D133" t="str">
@@ -3981,8 +3993,8 @@
         <v>'Create Date'</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1133,      'en-us','1133','CreateDate-Label','Create Date')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1133,      'en-us','1133','CreateDate-Label','Create Date',getdate(),getdate())</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3993,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1134'</v>
       </c>
       <c r="D134" t="str">
@@ -4005,8 +4017,8 @@
         <v>'Last Login Date'</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1134,      'en-us','1134','LastLoginDate-Label','Last Login Date')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1134,      'en-us','1134','LastLoginDate-Label','Last Login Date',getdate(),getdate())</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4017,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1135'</v>
       </c>
       <c r="D135" t="str">
@@ -4029,8 +4041,8 @@
         <v>'Default Language'</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1135,      'en-us','1135','DefaultLanguage-Label','Default Language')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1135,      'en-us','1135','DefaultLanguage-Label','Default Language',getdate(),getdate())</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4041,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1136'</v>
       </c>
       <c r="D136" t="str">
@@ -4053,8 +4065,8 @@
         <v>'Last Login IP'</v>
       </c>
       <c r="F136" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1136,      'en-us','1136','LastLoginIP-Label','Last Login IP')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1136,      'en-us','1136','LastLoginIP-Label','Last Login IP',getdate(),getdate())</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4065,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1137'</v>
       </c>
       <c r="D137" t="str">
@@ -4077,8 +4089,8 @@
         <v>'Login Counter'</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1137,      'en-us','1137','LoginCounter-Label','Login Counter')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1137,      'en-us','1137','LoginCounter-Label','Login Counter',getdate(),getdate())</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4089,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1138'</v>
       </c>
       <c r="D138" t="str">
@@ -4101,8 +4113,8 @@
         <v>'Password Recovery Code'</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1138,      'en-us','1138','PasswordRecovery-Label','Password Recovery Code')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1138,      'en-us','1138','PasswordRecovery-Label','Password Recovery Code',getdate(),getdate())</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4113,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1139'</v>
       </c>
       <c r="D139" t="str">
@@ -4125,8 +4137,8 @@
         <v>'Alter Instance'</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1139,      'en-us','1139','AlterInstance-Label','Alter Instance')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1139,      'en-us','1139','AlterInstance-Label','Alter Instance',getdate(),getdate())</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4137,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1140'</v>
       </c>
       <c r="D140" t="str">
@@ -4149,8 +4161,8 @@
         <v>'Select a Instance to change'</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1140,      'en-us','1140','AlterInstance-Description','Select a Instance to change')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1140,      'en-us','1140','AlterInstance-Description','Select a Instance to change',getdate(),getdate())</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4161,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1141'</v>
       </c>
       <c r="D141" t="str">
@@ -4173,8 +4185,8 @@
         <v>'Altering...'</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1141,      'en-us','1141','Altering-Label','Altering...')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1141,      'en-us','1141','Altering-Label','Altering...',getdate(),getdate())</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4185,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="C142" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1142'</v>
       </c>
       <c r="D142" t="str">
@@ -4197,8 +4209,8 @@
         <v>'Alter Role'</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1142,      'en-us','1142','AlterRole-Label','Alter Role')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1142,      'en-us','1142','AlterRole-Label','Alter Role',getdate(),getdate())</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4209,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1143'</v>
       </c>
       <c r="D143" t="str">
@@ -4221,8 +4233,8 @@
         <v>'Select a Role to change'</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1143,      'en-us','1143','AlterRole-Description','Select a Role to change')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1143,      'en-us','1143','AlterRole-Description','Select a Role to change',getdate(),getdate())</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4233,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1144'</v>
       </c>
       <c r="D144" t="str">
@@ -4245,8 +4257,8 @@
         <v>'User Status'</v>
       </c>
       <c r="F144" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1144,      'en-us','1144','UserStatus-Label','User Status')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1144,      'en-us','1144','UserStatus-Label','User Status',getdate(),getdate())</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4257,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1145'</v>
       </c>
       <c r="D145" t="str">
@@ -4269,8 +4281,8 @@
         <v>'Click here to change status'</v>
       </c>
       <c r="F145" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1145,      'en-us','1145','ChangeUserState-Description','Click here to change status')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1145,      'en-us','1145','ChangeUserState-Description','Click here to change status',getdate(),getdate())</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4281,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1146'</v>
       </c>
       <c r="D146" t="str">
@@ -4293,8 +4305,8 @@
         <v>'Update Status'</v>
       </c>
       <c r="F146" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1146,      'en-us','1146','ChangeUserState-Label','Update Status')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1146,      'en-us','1146','ChangeUserState-Label','Update Status',getdate(),getdate())</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4305,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1147'</v>
       </c>
       <c r="D147" t="str">
@@ -4317,8 +4329,8 @@
         <v>'Creating New User'</v>
       </c>
       <c r="F147" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1147,      'en-us','1147','CreateUser-Label','Creating New User')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1147,      'en-us','1147','CreateUser-Label','Creating New User',getdate(),getdate())</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4329,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1148'</v>
       </c>
       <c r="D148" t="str">
@@ -4341,8 +4353,8 @@
         <v>'Click here to create new user record.'</v>
       </c>
       <c r="F148" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1148,      'en-us','1148','CreateUser-Description','Click here to create new user record.')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1148,      'en-us','1148','CreateUser-Description','Click here to create new user record.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4353,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1149'</v>
       </c>
       <c r="D149" t="str">
@@ -4365,8 +4377,8 @@
         <v>'Save'</v>
       </c>
       <c r="F149" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1149,      'en-us','1149','CreateUserButton-Label','Save')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1149,      'en-us','1149','CreateUserButton-Label','Save',getdate(),getdate())</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4377,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1150'</v>
       </c>
       <c r="D150" t="str">
@@ -4389,8 +4401,8 @@
         <v>'Error on alter user status'</v>
       </c>
       <c r="F150" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1150,      'en-us','1150','AlterStatus-Error','Error on alter user status')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1150,      'en-us','1150','AlterStatus-Error','Error on alter user status',getdate(),getdate())</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4401,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1151'</v>
       </c>
       <c r="D151" t="str">
@@ -4413,8 +4425,8 @@
         <v>'User status altered successfuly'</v>
       </c>
       <c r="F151" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1151,      'en-us','1151','AlterStatus-Success','User status altered successfuly')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1151,      'en-us','1151','AlterStatus-Success','User status altered successfuly',getdate(),getdate())</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4425,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1152'</v>
       </c>
       <c r="D152" t="str">
@@ -4437,8 +4449,8 @@
         <v>'Error on alter instance'</v>
       </c>
       <c r="F152" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1152,      'en-us','1152','AlterInstance-Error','Error on alter instance')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1152,      'en-us','1152','AlterInstance-Error','Error on alter instance',getdate(),getdate())</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4449,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1153'</v>
       </c>
       <c r="D153" t="str">
@@ -4461,8 +4473,8 @@
         <v>'Instance altered successfuly'</v>
       </c>
       <c r="F153" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1153,      'en-us','1153','AlterInstance-Success','Instance altered successfuly')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1153,      'en-us','1153','AlterInstance-Success','Instance altered successfuly',getdate(),getdate())</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4473,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1154'</v>
       </c>
       <c r="D154" t="str">
@@ -4485,8 +4497,8 @@
         <v>'Error on alter user role'</v>
       </c>
       <c r="F154" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1154,      'en-us','1154','AlterRole-Error','Error on alter user role')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1154,      'en-us','1154','AlterRole-Error','Error on alter user role',getdate(),getdate())</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4497,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1155'</v>
       </c>
       <c r="D155" t="str">
@@ -4509,8 +4521,8 @@
         <v>'Role altered successfuly'</v>
       </c>
       <c r="F155" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1155,      'en-us','1155','AlterRole-Success','Role altered successfuly')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1155,      'en-us','1155','AlterRole-Success','Role altered successfuly',getdate(),getdate())</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4521,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1156'</v>
       </c>
       <c r="D156" t="str">
@@ -4533,8 +4545,8 @@
         <v>'Instance'</v>
       </c>
       <c r="F156" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1156,      'en-us','1156','Instance-PageTitle','Instance')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1156,      'en-us','1156','Instance-PageTitle','Instance',getdate(),getdate())</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4545,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1157'</v>
       </c>
       <c r="D157" t="str">
@@ -4557,8 +4569,8 @@
         <v>'By Instance Name'</v>
       </c>
       <c r="F157" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1157,      'en-us','1157','SearchByInstanceName-Label','By Instance Name')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1157,      'en-us','1157','SearchByInstanceName-Label','By Instance Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4569,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1158'</v>
       </c>
       <c r="D158" t="str">
@@ -4581,8 +4593,8 @@
         <v>'Search by Instance Name'</v>
       </c>
       <c r="F158" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1158,      'en-us','1158','SearchByInstanceName-Description','Search by Instance Name')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1158,      'en-us','1158','SearchByInstanceName-Description','Search by Instance Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4593,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1159'</v>
       </c>
       <c r="D159" t="str">
@@ -4605,8 +4617,8 @@
         <v>'By Type Name'</v>
       </c>
       <c r="F159" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1159,      'en-us','1159','SearchByInstanceTypeName-Label','By Type Name')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1159,      'en-us','1159','SearchByInstanceTypeName-Label','By Type Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4617,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1160'</v>
       </c>
       <c r="D160" t="str">
@@ -4629,8 +4641,8 @@
         <v>'Search by Type Name'</v>
       </c>
       <c r="F160" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1160,      'en-us','1160','SearchByInstanceTypeName-Description','Search by Type Name')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1160,      'en-us','1160','SearchByInstanceTypeName-Description','Search by Type Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4641,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1161'</v>
       </c>
       <c r="D161" t="str">
@@ -4653,8 +4665,8 @@
         <v>'New Instance'</v>
       </c>
       <c r="F161" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1161,      'en-us','1161','NewInstance-Label','New Instance')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1161,      'en-us','1161','NewInstance-Label','New Instance',getdate(),getdate())</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4665,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1162'</v>
       </c>
       <c r="D162" t="str">
@@ -4677,8 +4689,8 @@
         <v>'Click here to create new Instance'</v>
       </c>
       <c r="F162" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1162,      'en-us','1162','NewInstance-Description','Click here to create new Instance')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1162,      'en-us','1162','NewInstance-Description','Click here to create new Instance',getdate(),getdate())</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4689,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1163'</v>
       </c>
       <c r="D163" t="str">
@@ -4701,8 +4713,8 @@
         <v>'Instance Type Name'</v>
       </c>
       <c r="F163" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1163,      'en-us','1163','InstanceTypeName-Label','Instance Type Name')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1163,      'en-us','1163','InstanceTypeName-Label','Instance Type Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4713,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1164'</v>
       </c>
       <c r="D164" t="str">
@@ -4725,8 +4737,8 @@
         <v>'Instance Name'</v>
       </c>
       <c r="F164" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1164,      'en-us','1164','InstanceName-Label','Instance Name')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1164,      'en-us','1164','InstanceName-Label','Instance Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4737,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1165'</v>
       </c>
       <c r="D165" t="str">
@@ -4749,8 +4761,8 @@
         <v>'Instance Record'</v>
       </c>
       <c r="F165" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1165,      'en-us','1165','InstanceRecord-Label','Instance Record')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1165,      'en-us','1165','InstanceRecord-Label','Instance Record',getdate(),getdate())</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4761,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1166'</v>
       </c>
       <c r="D166" t="str">
@@ -4773,8 +4785,8 @@
         <v>'Save Instance'</v>
       </c>
       <c r="F166" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1166,      'en-us','1166','SaveInstanceButton-Label','Save Instance')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1166,      'en-us','1166','SaveInstanceButton-Label','Save Instance',getdate(),getdate())</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4785,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1167'</v>
       </c>
       <c r="D167" t="str">
@@ -4797,8 +4809,8 @@
         <v>'Click here to save Instance'</v>
       </c>
       <c r="F167" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1167,      'en-us','1167','SaveInstanceButton-Description','Click here to save Instance')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1167,      'en-us','1167','SaveInstanceButton-Description','Click here to save Instance',getdate(),getdate())</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4809,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1168'</v>
       </c>
       <c r="D168" t="str">
@@ -4821,8 +4833,8 @@
         <v>'Data Log'</v>
       </c>
       <c r="F168" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into sysLocalizationText Values(1168,      'en-us','1168','DataLog-PageTitle','Data Log')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1168,      'en-us','1168','DataLog-PageTitle','Data Log',getdate(),getdate())</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4833,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>'1169'</v>
       </c>
       <c r="D169" t="str">
@@ -4845,8 +4857,8 @@
         <v>'By Operation Type'</v>
       </c>
       <c r="F169" t="str">
-        <f t="shared" ref="F169:F232" si="8">"insert into sysLocalizationText Values(" &amp;A169 &amp; "," &amp; B169 &amp; "," &amp;C169 &amp; "," &amp; D169 &amp; "," &amp; E169 &amp; ")"</f>
-        <v>insert into sysLocalizationText Values(1169,      'en-us','1169','SearchByOperationType-Label','By Operation Type')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(1169,      'en-us','1169','SearchByOperationType-Label','By Operation Type',getdate(),getdate())</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4870,7 +4882,7 @@
       </c>
       <c r="F170" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1170,      'en-us','1170','SearchByObject-Label','By Object')</v>
+        <v>insert into sysLocalizationText Values(1170,      'en-us','1170','SearchByObject-Label','By Object',getdate(),getdate())</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4894,7 +4906,7 @@
       </c>
       <c r="F171" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1171,      'en-us','1171','SearchByIntervalDate-Label','By Date Range')</v>
+        <v>insert into sysLocalizationText Values(1171,      'en-us','1171','SearchByIntervalDate-Label','By Date Range',getdate(),getdate())</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4918,7 +4930,7 @@
       </c>
       <c r="F172" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1172,      'en-us','1172','SearchByInicialDate-Label','Start Date')</v>
+        <v>insert into sysLocalizationText Values(1172,      'en-us','1172','SearchByInicialDate-Label','Start Date',getdate(),getdate())</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4942,7 +4954,7 @@
       </c>
       <c r="F173" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1173,      'en-us','1173','SearchByFinalDate-Label','End Date')</v>
+        <v>insert into sysLocalizationText Values(1173,      'en-us','1173','SearchByFinalDate-Label','End Date',getdate(),getdate())</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4966,7 +4978,7 @@
       </c>
       <c r="F174" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1174,      'en-us','1174','SearchByRecordID-Label','Search Record ID')</v>
+        <v>insert into sysLocalizationText Values(1174,      'en-us','1174','SearchByRecordID-Label','Search Record ID',getdate(),getdate())</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4990,7 +5002,7 @@
       </c>
       <c r="F175" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1175,      'en-us','1175','TableName-Label','Table Name')</v>
+        <v>insert into sysLocalizationText Values(1175,      'en-us','1175','TableName-Label','Table Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5014,7 +5026,7 @@
       </c>
       <c r="F176" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1176,      'en-us','1176','OperationText-Label','Operation Text')</v>
+        <v>insert into sysLocalizationText Values(1176,      'en-us','1176','OperationText-Label','Operation Text',getdate(),getdate())</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -5038,7 +5050,7 @@
       </c>
       <c r="F177" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1177,      'en-us','1177','LogID-Label','Log ID')</v>
+        <v>insert into sysLocalizationText Values(1177,      'en-us','1177','LogID-Label','Log ID',getdate(),getdate())</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5062,7 +5074,7 @@
       </c>
       <c r="F178" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1178,      'en-us','1178','LogInformation-Label','Log Information')</v>
+        <v>insert into sysLocalizationText Values(1178,      'en-us','1178','LogInformation-Label','Log Information',getdate(),getdate())</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5086,7 +5098,7 @@
       </c>
       <c r="F179" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1179,      'en-us','1179','ShowTimeLine-Label','Show Time Line')</v>
+        <v>insert into sysLocalizationText Values(1179,      'en-us','1179','ShowTimeLine-Label','Show Time Line',getdate(),getdate())</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5110,7 +5122,7 @@
       </c>
       <c r="F180" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1180,      'en-us','1180','OldVersionData-Label','Old Version')</v>
+        <v>insert into sysLocalizationText Values(1180,      'en-us','1180','OldVersionData-Label','Old Version',getdate(),getdate())</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -5134,7 +5146,7 @@
       </c>
       <c r="F181" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1181,      'en-us','1181','HasNoOldVersion-Label','No data was found')</v>
+        <v>insert into sysLocalizationText Values(1181,      'en-us','1181','HasNoOldVersion-Label','No data was found',getdate(),getdate())</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -5158,7 +5170,7 @@
       </c>
       <c r="F182" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1182,      'en-us','1182','CurrentVersionData-Label','Current Version')</v>
+        <v>insert into sysLocalizationText Values(1182,      'en-us','1182','CurrentVersionData-Label','Current Version',getdate(),getdate())</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -5182,7 +5194,7 @@
       </c>
       <c r="F183" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1183,      'en-us','1183','HasNoCurrentVersion-Label','No data was found')</v>
+        <v>insert into sysLocalizationText Values(1183,      'en-us','1183','HasNoCurrentVersion-Label','No data was found',getdate(),getdate())</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -5206,7 +5218,7 @@
       </c>
       <c r="F184" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1184,      'en-us','1184','RecordTimeLine-Label','Record Time Line')</v>
+        <v>insert into sysLocalizationText Values(1184,      'en-us','1184','RecordTimeLine-Label','Record Time Line',getdate(),getdate())</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -5230,7 +5242,7 @@
       </c>
       <c r="F185" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1185,      'en-us','1185','HasNoTimeLine-Label','No data on time line')</v>
+        <v>insert into sysLocalizationText Values(1185,      'en-us','1185','HasNoTimeLine-Label','No data on time line',getdate(),getdate())</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -5254,7 +5266,7 @@
       </c>
       <c r="F186" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1186,      'en-us','1186','Localization-PageTitle','Localization Text')</v>
+        <v>insert into sysLocalizationText Values(1186,      'en-us','1186','Localization-PageTitle','Localization Text',getdate(),getdate())</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -5278,7 +5290,7 @@
       </c>
       <c r="F187" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1187,      'en-us','1187','SearchByLanguage-Label','By Language')</v>
+        <v>insert into sysLocalizationText Values(1187,      'en-us','1187','SearchByLanguage-Label','By Language',getdate(),getdate())</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -5302,7 +5314,7 @@
       </c>
       <c r="F188" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1188,      'en-us','1188','SearchByLanguage-Description','Search by Language')</v>
+        <v>insert into sysLocalizationText Values(1188,      'en-us','1188','SearchByLanguage-Description','Search by Language',getdate(),getdate())</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -5326,7 +5338,7 @@
       </c>
       <c r="F189" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1189,      'en-us','1189','SearchByLocalizationCode-Label','By Localization Code')</v>
+        <v>insert into sysLocalizationText Values(1189,      'en-us','1189','SearchByLocalizationCode-Label','By Localization Code',getdate(),getdate())</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5350,7 +5362,7 @@
       </c>
       <c r="F190" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1190,      'en-us','1190','SearchByLocalizationCode-Description','Search by Localization Code')</v>
+        <v>insert into sysLocalizationText Values(1190,      'en-us','1190','SearchByLocalizationCode-Description','Search by Localization Code',getdate(),getdate())</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5374,7 +5386,7 @@
       </c>
       <c r="F191" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1191,      'en-us','1191','SearchByLocalizationName-Label','By Localization Name')</v>
+        <v>insert into sysLocalizationText Values(1191,      'en-us','1191','SearchByLocalizationName-Label','By Localization Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5398,7 +5410,7 @@
       </c>
       <c r="F192" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1192,      'en-us','1192','SearchByLocalizationName-Description','Search by Localization Name')</v>
+        <v>insert into sysLocalizationText Values(1192,      'en-us','1192','SearchByLocalizationName-Description','Search by Localization Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5422,7 +5434,7 @@
       </c>
       <c r="F193" t="str">
         <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1193,      'en-us','1193','SearchByLocalizationText-Label','By Localization Text')</v>
+        <v>insert into sysLocalizationText Values(1193,      'en-us','1193','SearchByLocalizationText-Label','By Localization Text',getdate(),getdate())</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5445,8 +5457,8 @@
         <v>'Search by Localization Text'</v>
       </c>
       <c r="F194" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1194,      'en-us','1194','SearchByLocalizationText-Description','Search by Localization Text')</v>
+        <f t="shared" ref="F194:F257" si="10">"insert into sysLocalizationText Values(" &amp;A194 &amp; "," &amp; B194 &amp; "," &amp;C194 &amp; "," &amp; D194 &amp; "," &amp; E194 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(1194,      'en-us','1194','SearchByLocalizationText-Description','Search by Localization Text',getdate(),getdate())</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5469,8 +5481,8 @@
         <v>'Language'</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1195,      'en-us','1195','Language-Label','Language')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1195,      'en-us','1195','Language-Label','Language',getdate(),getdate())</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5493,8 +5505,8 @@
         <v>'Localization Code'</v>
       </c>
       <c r="F196" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1196,      'en-us','1196','LocalizationCode-Label','Localization Code')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1196,      'en-us','1196','LocalizationCode-Label','Localization Code',getdate(),getdate())</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5517,8 +5529,8 @@
         <v>'Localization Name'</v>
       </c>
       <c r="F197" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1197,      'en-us','1197','LocalizationName-Label','Localization Name')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1197,      'en-us','1197','LocalizationName-Label','Localization Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5541,8 +5553,8 @@
         <v>'Localization Text Record'</v>
       </c>
       <c r="F198" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1198,      'en-us','1198','LocalizationRecord-Label','Localization Text Record')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1198,      'en-us','1198','LocalizationRecord-Label','Localization Text Record',getdate(),getdate())</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5565,8 +5577,8 @@
         <v>'Localization Text'</v>
       </c>
       <c r="F199" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1199,      'en-us','1199','LocalizationText-Label','Localization Text')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1199,      'en-us','1199','LocalizationText-Label','Localization Text',getdate(),getdate())</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5589,8 +5601,8 @@
         <v>'Save Localization'</v>
       </c>
       <c r="F200" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1200,      'en-us','1200','SaveLocalizationButton-Label','Save Localization')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1200,      'en-us','1200','SaveLocalizationButton-Label','Save Localization',getdate(),getdate())</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5613,8 +5625,8 @@
         <v>'Click here to save localization'</v>
       </c>
       <c r="F201" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1201,      'en-us','1201','SaveLocalizationButton-Description','Click here to save localization')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1201,      'en-us','1201','SaveLocalizationButton-Description','Click here to save localization',getdate(),getdate())</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -5637,8 +5649,8 @@
         <v>'New Localization'</v>
       </c>
       <c r="F202" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1202,      'en-us','1202','NewLocalization-Label','New Localization')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1202,      'en-us','1202','NewLocalization-Label','New Localization',getdate(),getdate())</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5661,8 +5673,8 @@
         <v>'Object Permission'</v>
       </c>
       <c r="F203" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1203,      'en-us','1203','ObjectPermission-PageTitle','Object Permission')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1203,      'en-us','1203','ObjectPermission-PageTitle','Object Permission',getdate(),getdate())</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5685,8 +5697,8 @@
         <v>'By Object Name'</v>
       </c>
       <c r="F204" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1204,      'en-us','1204','SearchByObjectName-Label','By Object Name')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1204,      'en-us','1204','SearchByObjectName-Label','By Object Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5709,8 +5721,8 @@
         <v>'Search by Object Name'</v>
       </c>
       <c r="F205" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1205,      'en-us','1205','SearchByObjectName-Description','Search by Object Name')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1205,      'en-us','1205','SearchByObjectName-Description','Search by Object Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5733,8 +5745,8 @@
         <v>'By Object Code'</v>
       </c>
       <c r="F206" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1206,      'en-us','1206','SearchByObjectCode-Label','By Object Code')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1206,      'en-us','1206','SearchByObjectCode-Label','By Object Code',getdate(),getdate())</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5757,8 +5769,8 @@
         <v>'Search by Object Code'</v>
       </c>
       <c r="F207" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1207,      'en-us','1207','SearchByObjectCode-Description','Search by Object Code')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1207,      'en-us','1207','SearchByObjectCode-Description','Search by Object Code',getdate(),getdate())</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5781,8 +5793,8 @@
         <v>'New Object'</v>
       </c>
       <c r="F208" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1208,      'en-us','1208','NewObject-Label','New Object')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1208,      'en-us','1208','NewObject-Label','New Object',getdate(),getdate())</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5805,8 +5817,8 @@
         <v>'Object Name'</v>
       </c>
       <c r="F209" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1209,      'en-us','1209','ObjectName-Label','Object Name')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1209,      'en-us','1209','ObjectName-Label','Object Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -5829,8 +5841,8 @@
         <v>'Object Code'</v>
       </c>
       <c r="F210" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1210,      'en-us','1210','ObjectCode-Label','Object Code')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1210,      'en-us','1210','ObjectCode-Label','Object Code',getdate(),getdate())</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5853,8 +5865,8 @@
         <v>'Object Permission Record'</v>
       </c>
       <c r="F211" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1211,      'en-us','1211','ObjectPermissionRecord-Label','Object Permission Record')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1211,      'en-us','1211','ObjectPermissionRecord-Label','Object Permission Record',getdate(),getdate())</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -5877,8 +5889,8 @@
         <v>'Save Object Permission'</v>
       </c>
       <c r="F212" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1212,      'en-us','1212','SaveObjectPermissionButton-Label','Save Object Permission')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1212,      'en-us','1212','SaveObjectPermissionButton-Label','Save Object Permission',getdate(),getdate())</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5901,8 +5913,8 @@
         <v>'Click here to save Object Permission'</v>
       </c>
       <c r="F213" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1213,      'en-us','1213','SaveObjectPermissionButton-Description','Click here to save Object Permission')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1213,      'en-us','1213','SaveObjectPermissionButton-Description','Click here to save Object Permission',getdate(),getdate())</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -5925,8 +5937,8 @@
         <v>'Permission'</v>
       </c>
       <c r="F214" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1214,      'en-us','1214','Permission-PageTitle','Permission')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1214,      'en-us','1214','Permission-PageTitle','Permission',getdate(),getdate())</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5949,8 +5961,8 @@
         <v>'By Object Permission'</v>
       </c>
       <c r="F215" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1215,      'en-us','1215','SearchByObjectPermission-Label','By Object Permission')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1215,      'en-us','1215','SearchByObjectPermission-Label','By Object Permission',getdate(),getdate())</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5973,8 +5985,8 @@
         <v>'By Role'</v>
       </c>
       <c r="F216" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1216,      'en-us','1216','SearchByRole-Label','By Role')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1216,      'en-us','1216','SearchByRole-Label','By Role',getdate(),getdate())</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -5997,8 +6009,8 @@
         <v>'By User'</v>
       </c>
       <c r="F217" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1217,      'en-us','1217','SearchByUser-Label','By User')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1217,      'en-us','1217','SearchByUser-Label','By User',getdate(),getdate())</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -6021,8 +6033,8 @@
         <v>'New Permission'</v>
       </c>
       <c r="F218" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1218,      'en-us','1218','NewPermission-Label','New Permission')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1218,      'en-us','1218','NewPermission-Label','New Permission',getdate(),getdate())</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -6045,8 +6057,8 @@
         <v>'Click here to create new permission'</v>
       </c>
       <c r="F219" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1219,      'en-us','1219','NewPermission-Description','Click here to create new permission')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1219,      'en-us','1219','NewPermission-Description','Click here to create new permission',getdate(),getdate())</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -6069,8 +6081,8 @@
         <v>'Object Name'</v>
       </c>
       <c r="F220" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1220,      'en-us','1220','ObjectName-Label','Object Name')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1220,      'en-us','1220','ObjectName-Label','Object Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -6093,8 +6105,8 @@
         <v>'Role Name'</v>
       </c>
       <c r="F221" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1221,      'en-us','1221','RoleName-Label','Role Name')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1221,      'en-us','1221','RoleName-Label','Role Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -6117,8 +6129,8 @@
         <v>'Permission Record'</v>
       </c>
       <c r="F222" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1222,      'en-us','1222','PermissionRecord-Label','Permission Record')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1222,      'en-us','1222','PermissionRecord-Label','Permission Record',getdate(),getdate())</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -6141,8 +6153,8 @@
         <v>'Permission Type'</v>
       </c>
       <c r="F223" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1223,      'en-us','1223','PermissionType-Label','Permission Type')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1223,      'en-us','1223','PermissionType-Label','Permission Type',getdate(),getdate())</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -6165,8 +6177,8 @@
         <v>'Read Status'</v>
       </c>
       <c r="F224" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1224,      'en-us','1224','ReadStatus-Label','Read Status')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1224,      'en-us','1224','ReadStatus-Label','Read Status',getdate(),getdate())</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -6189,8 +6201,8 @@
         <v>'Save Status'</v>
       </c>
       <c r="F225" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1225,      'en-us','1225','SaveStatus-Label','Save Status')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1225,      'en-us','1225','SaveStatus-Label','Save Status',getdate(),getdate())</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -6213,8 +6225,8 @@
         <v>'Delete Status'</v>
       </c>
       <c r="F226" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1226,      'en-us','1226','DeleteStatus-Label','Delete Status')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1226,      'en-us','1226','DeleteStatus-Label','Delete Status',getdate(),getdate())</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -6237,8 +6249,8 @@
         <v>'Save Permission'</v>
       </c>
       <c r="F227" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1227,      'en-us','1227','SavePermissionButton-Label','Save Permission')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1227,      'en-us','1227','SavePermissionButton-Label','Save Permission',getdate(),getdate())</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -6261,8 +6273,8 @@
         <v>'Click here to save Permission'</v>
       </c>
       <c r="F228" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1228,      'en-us','1228','SavePermissionButton-Description','Click here to save Permission')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1228,      'en-us','1228','SavePermissionButton-Description','Click here to save Permission',getdate(),getdate())</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -6285,8 +6297,8 @@
         <v>'Role'</v>
       </c>
       <c r="F229" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1229,      'en-us','1229','Role-PageTitle','Role')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1229,      'en-us','1229','Role-PageTitle','Role',getdate(),getdate())</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -6309,8 +6321,8 @@
         <v>'By Role Name'</v>
       </c>
       <c r="F230" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1230,      'en-us','1230','SearchByRoleName-Label','By Role Name')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1230,      'en-us','1230','SearchByRoleName-Label','By Role Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -6333,8 +6345,8 @@
         <v>'Search by Role Name'</v>
       </c>
       <c r="F231" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1231,      'en-us','1231','SearchByRoleName-Description','Search by Role Name')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1231,      'en-us','1231','SearchByRoleName-Description','Search by Role Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -6357,8 +6369,8 @@
         <v>'New Role'</v>
       </c>
       <c r="F232" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into sysLocalizationText Values(1232,      'en-us','1232','NewRole-Label','New Role')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1232,      'en-us','1232','NewRole-Label','New Role',getdate(),getdate())</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -6381,8 +6393,8 @@
         <v>'Click here to create new Role'</v>
       </c>
       <c r="F233" t="str">
-        <f t="shared" ref="F233:F277" si="10">"insert into sysLocalizationText Values(" &amp;A233 &amp; "," &amp; B233 &amp; "," &amp;C233 &amp; "," &amp; D233 &amp; "," &amp; E233 &amp; ")"</f>
-        <v>insert into sysLocalizationText Values(1233,      'en-us','1233','NewRole-Description','Click here to create new Role')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(1233,      'en-us','1233','NewRole-Description','Click here to create new Role',getdate(),getdate())</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -6406,7 +6418,7 @@
       </c>
       <c r="F234" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1234,      'en-us','1234','RoleName-Label','Role Name')</v>
+        <v>insert into sysLocalizationText Values(1234,      'en-us','1234','RoleName-Label','Role Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -6430,7 +6442,7 @@
       </c>
       <c r="F235" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1235,      'en-us','1235','RoleRecord-Label','Role Record')</v>
+        <v>insert into sysLocalizationText Values(1235,      'en-us','1235','RoleRecord-Label','Role Record',getdate(),getdate())</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -6454,7 +6466,7 @@
       </c>
       <c r="F236" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1236,      'en-us','1236','SaveRoleButton-Label','Save Role')</v>
+        <v>insert into sysLocalizationText Values(1236,      'en-us','1236','SaveRoleButton-Label','Save Role',getdate(),getdate())</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -6478,7 +6490,7 @@
       </c>
       <c r="F237" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1237,      'en-us','1237','SaveRoleButton-Description','Click here to save Role')</v>
+        <v>insert into sysLocalizationText Values(1237,      'en-us','1237','SaveRoleButton-Description','Click here to save Role',getdate(),getdate())</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -6502,7 +6514,7 @@
       </c>
       <c r="F238" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1238,      'en-us','1238','SessionLog-PageTitle','Session Log')</v>
+        <v>insert into sysLocalizationText Values(1238,      'en-us','1238','SessionLog-PageTitle','Session Log',getdate(),getdate())</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -6526,7 +6538,7 @@
       </c>
       <c r="F239" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1239,      'en-us','1239','SearchByEmail-Description','Search by E-mail')</v>
+        <v>insert into sysLocalizationText Values(1239,      'en-us','1239','SearchByEmail-Description','Search by E-mail',getdate(),getdate())</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -6550,7 +6562,7 @@
       </c>
       <c r="F240" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1240,      'en-us','1240','SearchByDateInterval-Label','By Date Range')</v>
+        <v>insert into sysLocalizationText Values(1240,      'en-us','1240','SearchByDateInterval-Label','By Date Range',getdate(),getdate())</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -6574,7 +6586,7 @@
       </c>
       <c r="F241" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1241,      'en-us','1241','SearchByInicialDate-Label','Start Date')</v>
+        <v>insert into sysLocalizationText Values(1241,      'en-us','1241','SearchByInicialDate-Label','Start Date',getdate(),getdate())</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -6598,7 +6610,7 @@
       </c>
       <c r="F242" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1242,      'en-us','1242','SearchByFinalDate-Label','End Date')</v>
+        <v>insert into sysLocalizationText Values(1242,      'en-us','1242','SearchByFinalDate-Label','End Date',getdate(),getdate())</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6622,7 +6634,7 @@
       </c>
       <c r="F243" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1243,      'en-us','1243','AccessDate-Label','Access Date')</v>
+        <v>insert into sysLocalizationText Values(1243,      'en-us','1243','AccessDate-Label','Access Date',getdate(),getdate())</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -6646,7 +6658,7 @@
       </c>
       <c r="F244" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1244,      'en-us','1244','IP-Label','IP')</v>
+        <v>insert into sysLocalizationText Values(1244,      'en-us','1244','IP-Label','IP',getdate(),getdate())</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -6670,7 +6682,7 @@
       </c>
       <c r="F245" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1245,      'en-us','1245','SuperAdmin-MenuText','Super Admin')</v>
+        <v>insert into sysLocalizationText Values(1245,      'en-us','1245','SuperAdmin-MenuText','Super Admin',getdate(),getdate())</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -6694,7 +6706,7 @@
       </c>
       <c r="F246" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1246,      'en-us','1246','BasicsData-MenuText','Management')</v>
+        <v>insert into sysLocalizationText Values(1246,      'en-us','1246','BasicsData-MenuText','Management',getdate(),getdate())</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -6718,7 +6730,7 @@
       </c>
       <c r="F247" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1247,      'en-us','1247','Monitoring-MenuText','Monitoring')</v>
+        <v>insert into sysLocalizationText Values(1247,      'en-us','1247','Monitoring-MenuText','Monitoring',getdate(),getdate())</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -6742,7 +6754,7 @@
       </c>
       <c r="F248" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1248,      'en-us','1248','Instance-MenuText','Instances')</v>
+        <v>insert into sysLocalizationText Values(1248,      'en-us','1248','Instance-MenuText','Instances',getdate(),getdate())</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -6766,7 +6778,7 @@
       </c>
       <c r="F249" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1249,      'en-us','1249','Role-MenuText','Roles')</v>
+        <v>insert into sysLocalizationText Values(1249,      'en-us','1249','Role-MenuText','Roles',getdate(),getdate())</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -6790,7 +6802,7 @@
       </c>
       <c r="F250" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1250,      'en-us','1250','Users-MenuText','Users')</v>
+        <v>insert into sysLocalizationText Values(1250,      'en-us','1250','Users-MenuText','Users',getdate(),getdate())</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -6814,7 +6826,7 @@
       </c>
       <c r="F251" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1251,      'en-us','1251','ObjectPermission-MenuText','Objects Permission')</v>
+        <v>insert into sysLocalizationText Values(1251,      'en-us','1251','ObjectPermission-MenuText','Objects Permission',getdate(),getdate())</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -6838,7 +6850,7 @@
       </c>
       <c r="F252" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1252,      'en-us','1252','Permissions-MenuText','Permissions')</v>
+        <v>insert into sysLocalizationText Values(1252,      'en-us','1252','Permissions-MenuText','Permissions',getdate(),getdate())</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -6862,7 +6874,7 @@
       </c>
       <c r="F253" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1253,      'en-us','1253','Localization-MenuText','Localization Texts')</v>
+        <v>insert into sysLocalizationText Values(1253,      'en-us','1253','Localization-MenuText','Localization Texts',getdate(),getdate())</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -6886,7 +6898,7 @@
       </c>
       <c r="F254" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1256,      'en-us','1256','DataLog-MenuText','Data Log')</v>
+        <v>insert into sysLocalizationText Values(1256,      'en-us','1256','DataLog-MenuText','Data Log',getdate(),getdate())</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -6910,7 +6922,7 @@
       </c>
       <c r="F255" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1257,      'en-us','1257','SessionLog-MenuText','Session Log')</v>
+        <v>insert into sysLocalizationText Values(1257,      'en-us','1257','SessionLog-MenuText','Session Log',getdate(),getdate())</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -6934,7 +6946,7 @@
       </c>
       <c r="F256" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1258,      'en-us','1258','SearchByGroupParameterName-Label','Group Parameter Name')</v>
+        <v>insert into sysLocalizationText Values(1258,      'en-us','1258','SearchByGroupParameterName-Label','Group Parameter Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -6958,7 +6970,7 @@
       </c>
       <c r="F257" t="str">
         <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1259,      'en-us','1259','SearchByGroupParameterName-Description','Search by Group Parameter Name')</v>
+        <v>insert into sysLocalizationText Values(1259,      'en-us','1259','SearchByGroupParameterName-Description','Search by Group Parameter Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -6981,8 +6993,8 @@
         <v>'New Group Parameter'</v>
       </c>
       <c r="F258" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1260,      'en-us','1260','NewGroupParameter-Label','New Group Parameter')</v>
+        <f t="shared" ref="F258:F293" si="14">"insert into sysLocalizationText Values(" &amp;A258 &amp; "," &amp; B258 &amp; "," &amp;C258 &amp; "," &amp; D258 &amp; "," &amp; E258 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(1260,      'en-us','1260','NewGroupParameter-Label','New Group Parameter',getdate(),getdate())</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -7005,8 +7017,8 @@
         <v>'Click here to create new Group Parameter '</v>
       </c>
       <c r="F259" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1261,      'en-us','1261','NewGroupParameter-Description','Click here to create new Group Parameter ')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1261,      'en-us','1261','NewGroupParameter-Description','Click here to create new Group Parameter ',getdate(),getdate())</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -7029,8 +7041,8 @@
         <v>'Group Parameter Record'</v>
       </c>
       <c r="F260" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1262,      'en-us','1262','GroupParameterRecord-Label','Group Parameter Record')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1262,      'en-us','1262','GroupParameterRecord-Label','Group Parameter Record',getdate(),getdate())</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -7053,8 +7065,8 @@
         <v>'Group Parameter Name '</v>
       </c>
       <c r="F261" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1263,      'en-us','1263','GroupParameterName-Label','Group Parameter Name ')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1263,      'en-us','1263','GroupParameterName-Label','Group Parameter Name ',getdate(),getdate())</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -7077,8 +7089,8 @@
         <v>'Save Group Parameter'</v>
       </c>
       <c r="F262" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1264,      'en-us','1264','SaveGroupParameterButton-Label','Save Group Parameter')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1264,      'en-us','1264','SaveGroupParameterButton-Label','Save Group Parameter',getdate(),getdate())</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -7101,8 +7113,8 @@
         <v>'Click here to save Group Parameter'</v>
       </c>
       <c r="F263" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1265,      'en-us','1265','SaveGroupParameterButton-Description','Click here to save Group Parameter')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1265,      'en-us','1265','SaveGroupParameterButton-Description','Click here to save Group Parameter',getdate(),getdate())</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -7113,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="str">
-        <f t="shared" ref="C264:C268" si="14">"'" &amp; A264 &amp; "'"</f>
+        <f t="shared" ref="C264:C268" si="15">"'" &amp; A264 &amp; "'"</f>
         <v>'1266'</v>
       </c>
       <c r="D264" t="str">
@@ -7125,8 +7137,8 @@
         <v>'Group Parameters'</v>
       </c>
       <c r="F264" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1266,      'en-us','1266','GroupParameter-PageTitle','Group Parameters')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1266,      'en-us','1266','GroupParameter-PageTitle','Group Parameters',getdate(),getdate())</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -7137,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'1267'</v>
       </c>
       <c r="D265" t="str">
@@ -7149,8 +7161,8 @@
         <v>'Parameter Name'</v>
       </c>
       <c r="F265" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1267,      'en-us','1267','SearchByParameterName-Label','Parameter Name')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1267,      'en-us','1267','SearchByParameterName-Label','Parameter Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -7161,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'1268'</v>
       </c>
       <c r="D266" t="str">
@@ -7173,8 +7185,8 @@
         <v>'Search by Parameter Name'</v>
       </c>
       <c r="F266" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1268,      'en-us','1268','SearchByParameterName-Description','Search by Parameter Name')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1268,      'en-us','1268','SearchByParameterName-Description','Search by Parameter Name',getdate(),getdate())</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -7185,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="C267" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'1269'</v>
       </c>
       <c r="D267" t="str">
@@ -7197,8 +7209,8 @@
         <v>'New Parameter'</v>
       </c>
       <c r="F267" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1269,      'en-us','1269','NewParameter-Label','New Parameter')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1269,      'en-us','1269','NewParameter-Label','New Parameter',getdate(),getdate())</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -7209,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="C268" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'1270'</v>
       </c>
       <c r="D268" t="str">
@@ -7221,8 +7233,8 @@
         <v>'Click here to create new Parameter '</v>
       </c>
       <c r="F268" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1270,      'en-us','1270','NewParameter-Description','Click here to create new Parameter ')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1270,      'en-us','1270','NewParameter-Description','Click here to create new Parameter ',getdate(),getdate())</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -7233,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="C269" t="str">
-        <f t="shared" ref="C269:C277" si="15">"'" &amp; A269 &amp; "'"</f>
+        <f t="shared" ref="C269:C277" si="16">"'" &amp; A269 &amp; "'"</f>
         <v>'1271'</v>
       </c>
       <c r="D269" t="str">
@@ -7245,8 +7257,8 @@
         <v>'Parameter Record'</v>
       </c>
       <c r="F269" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1271,      'en-us','1271','ParameterRecord-Label','Parameter Record')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1271,      'en-us','1271','ParameterRecord-Label','Parameter Record',getdate(),getdate())</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -7257,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="C270" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'1272'</v>
       </c>
       <c r="D270" t="str">
@@ -7269,8 +7281,8 @@
         <v>'Parameter Name '</v>
       </c>
       <c r="F270" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1272,      'en-us','1272','ParameterName-Label','Parameter Name ')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1272,      'en-us','1272','ParameterName-Label','Parameter Name ',getdate(),getdate())</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -7281,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'1273'</v>
       </c>
       <c r="D271" t="str">
@@ -7293,8 +7305,8 @@
         <v>'Save Parameter'</v>
       </c>
       <c r="F271" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1273,      'en-us','1273','SaveParameterButton-Label','Save Parameter')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1273,      'en-us','1273','SaveParameterButton-Label','Save Parameter',getdate(),getdate())</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -7305,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'1274'</v>
       </c>
       <c r="D272" t="str">
@@ -7317,8 +7329,8 @@
         <v>'Click here to save Parameter'</v>
       </c>
       <c r="F272" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1274,      'en-us','1274','SaveParameterButton-Description','Click here to save Parameter')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1274,      'en-us','1274','SaveParameterButton-Description','Click here to save Parameter',getdate(),getdate())</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -7329,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'1275'</v>
       </c>
       <c r="D273" t="str">
@@ -7341,19 +7353,57 @@
         <v>'Parameters'</v>
       </c>
       <c r="F273" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into sysLocalizationText Values(1275,      'en-us','1275','Parameter-PageTitle','Parameters')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1275,      'en-us','1275','Parameter-PageTitle','Parameters',getdate(),getdate())</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1276</v>
       </c>
+      <c r="B274" t="s">
+        <v>0</v>
+      </c>
+      <c r="C274" t="str">
+        <f t="shared" si="16"/>
+        <v>'1276'</v>
+      </c>
+      <c r="D274" s="1" t="str">
+        <f>$N$1 &amp; "ChangeUserLanguage-Title" &amp; $N$1</f>
+        <v>'ChangeUserLanguage-Title'</v>
+      </c>
+      <c r="E274" s="1" t="str">
+        <f>$N$1 &amp; "ChangeUserLanguage-Title" &amp; $N$1</f>
+        <v>'ChangeUserLanguage-Title'</v>
+      </c>
+      <c r="F274" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1276,      'en-us','1276','ChangeUserLanguage-Title','ChangeUserLanguage-Title',getdate(),getdate())</v>
+      </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1277</v>
       </c>
+      <c r="B275" t="s">
+        <v>0</v>
+      </c>
+      <c r="C275" t="str">
+        <f t="shared" si="16"/>
+        <v>'1277'</v>
+      </c>
+      <c r="D275" s="1" t="str">
+        <f>$N$1 &amp; "ChangeUserLanguage-Message" &amp; $N$1</f>
+        <v>'ChangeUserLanguage-Message'</v>
+      </c>
+      <c r="E275" s="1" t="str">
+        <f>$N$1 &amp; "The User Language has been successfully changed. Log in again." &amp; $N$1</f>
+        <v>'The User Language has been successfully changed. Log in again.'</v>
+      </c>
+      <c r="F275" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1277,      'en-us','1277','ChangeUserLanguage-Message','The User Language has been successfully changed. Log in again.',getdate(),getdate())</v>
+      </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
@@ -7363,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="str">
-        <f t="shared" ref="C276" si="16">"'" &amp; A276 &amp; "'"</f>
+        <f t="shared" ref="C276" si="17">"'" &amp; A276 &amp; "'"</f>
         <v>'1278'</v>
       </c>
       <c r="D276" t="str">
@@ -7375,8 +7425,8 @@
         <v>'Exception Log'</v>
       </c>
       <c r="F276" t="str">
-        <f t="shared" ref="F276:F282" si="17">"insert into sysLocalizationText Values(" &amp;A276 &amp; "," &amp; B276 &amp; "," &amp;C276 &amp; "," &amp; D276 &amp; "," &amp; E276 &amp; ")"</f>
-        <v>insert into sysLocalizationText Values(1278,      'en-us','1278','ExceptionLog-PageTitle','Exception Log')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1278,      'en-us','1278','ExceptionLog-PageTitle','Exception Log',getdate(),getdate())</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -7387,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="C277" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'1279'</v>
       </c>
       <c r="D277" t="str">
@@ -7399,8 +7449,8 @@
         <v>'Search by Origin'</v>
       </c>
       <c r="F277" t="str">
-        <f t="shared" si="17"/>
-        <v>insert into sysLocalizationText Values(1279,      'en-us','1279','SearchByOrgin-Label','Search by Origin')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1279,      'en-us','1279','SearchByOrgin-Label','Search by Origin',getdate(),getdate())</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -7423,8 +7473,8 @@
         <v>'Origin'</v>
       </c>
       <c r="F278" t="str">
-        <f t="shared" si="17"/>
-        <v>insert into sysLocalizationText Values(1280,      'en-us','1280','Origin-Label','Origin')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1280,      'en-us','1280','Origin-Label','Origin',getdate(),getdate())</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -7447,8 +7497,8 @@
         <v>'Target Site'</v>
       </c>
       <c r="F279" t="str">
-        <f t="shared" si="17"/>
-        <v>insert into sysLocalizationText Values(1281,      'en-us','1281','TargetSite-Label','Target Site')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1281,      'en-us','1281','TargetSite-Label','Target Site',getdate(),getdate())</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -7471,8 +7521,8 @@
         <v>'Err Message'</v>
       </c>
       <c r="F280" t="str">
-        <f t="shared" si="17"/>
-        <v>insert into sysLocalizationText Values(1282,      'en-us','1282','ErrMessage-Label','Err Message')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1282,      'en-us','1282','ErrMessage-Label','Err Message',getdate(),getdate())</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -7495,8 +7545,8 @@
         <v>'Stack Trace'</v>
       </c>
       <c r="F281" t="str">
-        <f t="shared" si="17"/>
-        <v>insert into sysLocalizationText Values(1283,      'en-us','1283','StackTrace-Label','Stack Trace')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1283,      'en-us','1283','StackTrace-Label','Stack Trace',getdate(),getdate())</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -7519,8 +7569,296 @@
         <v>'Client IP'</v>
       </c>
       <c r="F282" t="str">
-        <f t="shared" si="17"/>
-        <v>insert into sysLocalizationText Values(1284,      'en-us','1284','ClientIP-Label','Client IP')</v>
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1284,      'en-us','1284','ClientIP-Label','Client IP',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>1285</v>
+      </c>
+      <c r="B283" t="s">
+        <v>0</v>
+      </c>
+      <c r="C283" t="str">
+        <f t="shared" ref="C283" si="23">"'" &amp; A283 &amp; "'"</f>
+        <v>'1285'</v>
+      </c>
+      <c r="D283" t="str">
+        <f>$N$1 &amp; "SearchByConfigName-Label" &amp; $N$1</f>
+        <v>'SearchByConfigName-Label'</v>
+      </c>
+      <c r="E283" t="str">
+        <f>$N$1 &amp; "By Config Name" &amp; $N$1</f>
+        <v>'By Config Name'</v>
+      </c>
+      <c r="F283" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1285,      'en-us','1285','SearchByConfigName-Label','By Config Name',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1286</v>
+      </c>
+      <c r="B284" t="s">
+        <v>0</v>
+      </c>
+      <c r="C284" t="str">
+        <f t="shared" ref="C284:C288" si="24">"'" &amp; A284 &amp; "'"</f>
+        <v>'1286'</v>
+      </c>
+      <c r="D284" t="str">
+        <f>$N$1 &amp; "SearchByConfigName-Description" &amp; $N$1</f>
+        <v>'SearchByConfigName-Description'</v>
+      </c>
+      <c r="E284" t="str">
+        <f>$N$1 &amp; "Search by Config Name" &amp; $N$1</f>
+        <v>'Search by Config Name'</v>
+      </c>
+      <c r="F284" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1286,      'en-us','1286','SearchByConfigName-Description','Search by Config Name',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>1287</v>
+      </c>
+      <c r="B285" t="s">
+        <v>0</v>
+      </c>
+      <c r="C285" t="str">
+        <f t="shared" si="24"/>
+        <v>'1287'</v>
+      </c>
+      <c r="D285" t="str">
+        <f>$N$1 &amp; "NewConfig-Label" &amp; $N$1</f>
+        <v>'NewConfig-Label'</v>
+      </c>
+      <c r="E285" t="str">
+        <f>$N$1 &amp; "New Config" &amp; $N$1</f>
+        <v>'New Config'</v>
+      </c>
+      <c r="F285" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1287,      'en-us','1287','NewConfig-Label','New Config',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>1288</v>
+      </c>
+      <c r="B286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C286" t="str">
+        <f t="shared" si="24"/>
+        <v>'1288'</v>
+      </c>
+      <c r="D286" t="str">
+        <f>$N$1 &amp; "NewConfig-Description" &amp; $N$1</f>
+        <v>'NewConfig-Description'</v>
+      </c>
+      <c r="E286" t="str">
+        <f>$N$1 &amp; "Click here to create new Config" &amp; $N$1</f>
+        <v>'Click here to create new Config'</v>
+      </c>
+      <c r="F286" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1288,      'en-us','1288','NewConfig-Description','Click here to create new Config',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>1289</v>
+      </c>
+      <c r="B287" t="s">
+        <v>0</v>
+      </c>
+      <c r="C287" t="str">
+        <f t="shared" si="24"/>
+        <v>'1289'</v>
+      </c>
+      <c r="D287" t="str">
+        <f>$N$1 &amp; "ConfigName" &amp; $N$1</f>
+        <v>'ConfigName'</v>
+      </c>
+      <c r="E287" t="str">
+        <f>$N$1 &amp; "Config Name" &amp; $N$1</f>
+        <v>'Config Name'</v>
+      </c>
+      <c r="F287" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1289,      'en-us','1289','ConfigName','Config Name',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>1290</v>
+      </c>
+      <c r="B288" t="s">
+        <v>0</v>
+      </c>
+      <c r="C288" t="str">
+        <f t="shared" si="24"/>
+        <v>'1290'</v>
+      </c>
+      <c r="D288" t="str">
+        <f>$N$1 &amp; "ConfigRecord-Label" &amp; $N$1</f>
+        <v>'ConfigRecord-Label'</v>
+      </c>
+      <c r="E288" t="str">
+        <f>$N$1 &amp; "Config Record" &amp; $N$1</f>
+        <v>'Config Record'</v>
+      </c>
+      <c r="F288" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1290,      'en-us','1290','ConfigRecord-Label','Config Record',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>1291</v>
+      </c>
+      <c r="B289" t="s">
+        <v>0</v>
+      </c>
+      <c r="C289" t="str">
+        <f t="shared" ref="C289:C292" si="25">"'" &amp; A289 &amp; "'"</f>
+        <v>'1291'</v>
+      </c>
+      <c r="D289" t="str">
+        <f>$N$1 &amp; "ConfigName-Label" &amp; $N$1</f>
+        <v>'ConfigName-Label'</v>
+      </c>
+      <c r="E289" t="str">
+        <f>$N$1 &amp; "Config Name" &amp; $N$1</f>
+        <v>'Config Name'</v>
+      </c>
+      <c r="F289" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1291,      'en-us','1291','ConfigName-Label','Config Name',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>1292</v>
+      </c>
+      <c r="B290" t="s">
+        <v>0</v>
+      </c>
+      <c r="C290" t="str">
+        <f t="shared" si="25"/>
+        <v>'1292'</v>
+      </c>
+      <c r="D290" t="str">
+        <f>$N$1 &amp; "ConfigValue-Label" &amp; $N$1</f>
+        <v>'ConfigValue-Label'</v>
+      </c>
+      <c r="E290" t="str">
+        <f>$N$1 &amp; "Config Value" &amp; $N$1</f>
+        <v>'Config Value'</v>
+      </c>
+      <c r="F290" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1292,      'en-us','1292','ConfigValue-Label','Config Value',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>1293</v>
+      </c>
+      <c r="B291" t="s">
+        <v>0</v>
+      </c>
+      <c r="C291" t="str">
+        <f t="shared" si="25"/>
+        <v>'1293'</v>
+      </c>
+      <c r="D291" t="str">
+        <f>$N$1 &amp; "ConfigValue" &amp; $N$1</f>
+        <v>'ConfigValue'</v>
+      </c>
+      <c r="E291" t="str">
+        <f>$N$1 &amp; "Config Value" &amp; $N$1</f>
+        <v>'Config Value'</v>
+      </c>
+      <c r="F291" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1293,      'en-us','1293','ConfigValue','Config Value',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>1294</v>
+      </c>
+      <c r="B292" t="s">
+        <v>0</v>
+      </c>
+      <c r="C292" t="str">
+        <f t="shared" si="25"/>
+        <v>'1294'</v>
+      </c>
+      <c r="D292" t="str">
+        <f>$N$1 &amp; "SaveConfigButton-Label" &amp; $N$1</f>
+        <v>'SaveConfigButton-Label'</v>
+      </c>
+      <c r="E292" t="str">
+        <f>$N$1 &amp; "Save Config" &amp; $N$1</f>
+        <v>'Save Config'</v>
+      </c>
+      <c r="F292" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1294,      'en-us','1294','SaveConfigButton-Label','Save Config',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>1295</v>
+      </c>
+      <c r="B293" t="s">
+        <v>0</v>
+      </c>
+      <c r="C293" t="str">
+        <f t="shared" ref="C293" si="26">"'" &amp; A293 &amp; "'"</f>
+        <v>'1295'</v>
+      </c>
+      <c r="D293" t="str">
+        <f>$N$1 &amp; "SaveConfigButton-Description" &amp; $N$1</f>
+        <v>'SaveConfigButton-Description'</v>
+      </c>
+      <c r="E293" t="str">
+        <f>$N$1 &amp; "Click here to save Config" &amp; $N$1</f>
+        <v>'Click here to save Config'</v>
+      </c>
+      <c r="F293" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into sysLocalizationText Values(1295,      'en-us','1295','SaveConfigButton-Description','Click here to save Config',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>1296</v>
+      </c>
+      <c r="B294" t="s">
+        <v>0</v>
+      </c>
+      <c r="C294" t="str">
+        <f t="shared" ref="C294" si="27">"'" &amp; A294 &amp; "'"</f>
+        <v>'1296'</v>
+      </c>
+      <c r="D294" t="str">
+        <f>$N$1 &amp; "Configs-PageTitle" &amp; $N$1</f>
+        <v>'Configs-PageTitle'</v>
+      </c>
+      <c r="E294" t="str">
+        <f>$N$1 &amp; "Configurations" &amp; $N$1</f>
+        <v>'Configurations'</v>
+      </c>
+      <c r="F294" t="str">
+        <f t="shared" ref="F294" si="28">"insert into sysLocalizationText Values(" &amp;A294 &amp; "," &amp; B294 &amp; "," &amp;C294 &amp; "," &amp; D294 &amp; "," &amp; E294 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(1296,      'en-us','1296','Configs-PageTitle','Configurations',getdate(),getdate())</v>
       </c>
     </row>
   </sheetData>
@@ -7532,10 +7870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N282"/>
+  <dimension ref="A1:N294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="E249" sqref="E249"/>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="D284" sqref="D284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7564,8 +7902,8 @@
         <v>98</v>
       </c>
       <c r="F1" t="str">
-        <f>"insert into sysLocalizationText Values(" &amp;A1 &amp; "," &amp; B1 &amp; "," &amp;C1 &amp; "," &amp; D1 &amp; "," &amp; E1 &amp; ")"</f>
-        <v>insert into sysLocalizationText Values(2001,      'pt-br','2001',     'Execution-Error',    'Erro de execução ')</v>
+        <f>"insert into sysLocalizationText Values(" &amp;A1 &amp; "," &amp; B1 &amp; "," &amp;C1 &amp; "," &amp; D1 &amp; "," &amp; E1 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(2001,      'pt-br','2001',     'Execution-Error',    'Erro de execução ',getdate(),getdate())</v>
       </c>
       <c r="N1" t="str">
         <f>"'"</f>
@@ -7590,8 +7928,8 @@
         <v>99</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F65" si="1">"insert into sysLocalizationText Values(" &amp;A2 &amp; "," &amp; B2 &amp; "," &amp;C2 &amp; "," &amp; D2 &amp; "," &amp; E2 &amp; ")"</f>
-        <v>insert into sysLocalizationText Values(2002,      'pt-br','2002',     'Validation-Error',    'Erro na validação de dados.')</v>
+        <f t="shared" ref="F2:F65" si="1">"insert into sysLocalizationText Values(" &amp;A2 &amp; "," &amp; B2 &amp; "," &amp;C2 &amp; "," &amp; D2 &amp; "," &amp; E2 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(2002,      'pt-br','2002',     'Validation-Error',    'Erro na validação de dados.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7613,7 +7951,7 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2003,      'pt-br','2003',     'Record-NotFound',    'O registro solicitado não foi encontrado.')</v>
+        <v>insert into sysLocalizationText Values(2003,      'pt-br','2003',     'Record-NotFound',    'O registro solicitado não foi encontrado.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7635,7 +7973,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2004,      'pt-br','2004',     'Login-Invalid-Password',    'Senha inválida. Você ainda tem {0} tentativas antes da conta ser desativada.')</v>
+        <v>insert into sysLocalizationText Values(2004,      'pt-br','2004',     'Login-Invalid-Password',    'Senha inválida. Você ainda tem {0} tentativas antes da conta ser desativada.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -7657,7 +7995,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2005,      'pt-br','2005',     'Login-Attempts',    'Você já utilizou as tentativas de acesso e a conta foi desativada. Solicite a ativação.')</v>
+        <v>insert into sysLocalizationText Values(2005,      'pt-br','2005',     'Login-Attempts',    'Você já utilizou as tentativas de acesso e a conta foi desativada. Solicite a ativação.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -7679,7 +8017,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2006,      'pt-br','2006',     'Login-Inactive-Account',    'A conta associada ao Usuário não está ativa. Solicite a ativação da conta.')</v>
+        <v>insert into sysLocalizationText Values(2006,      'pt-br','2006',     'Login-Inactive-Account',    'A conta associada ao Usuário não está ativa. Solicite a ativação da conta.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -7701,7 +8039,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2007,      'pt-br','2007',     'Login-Locked-Account',    'A conta associada ao Usuário está bloqueada. Contate o administrador do sistema.')</v>
+        <v>insert into sysLocalizationText Values(2007,      'pt-br','2007',     'Login-Locked-Account',    'A conta associada ao Usuário está bloqueada. Contate o administrador do sistema.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -7723,7 +8061,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2008,      'pt-br','2008',     'Login-User-NotFound',    'Usuário não encontrado.')</v>
+        <v>insert into sysLocalizationText Values(2008,      'pt-br','2008',     'Login-User-NotFound',    'Usuário não encontrado.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -7745,7 +8083,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2009,      'pt-br','2009',     'User-Exists',    'Já existe um usuário com o e-mail ')</v>
+        <v>insert into sysLocalizationText Values(2009,      'pt-br','2009',     'User-Exists',    'Já existe um usuário com o e-mail ',getdate(),getdate())</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -7767,7 +8105,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2010,      'pt-br','2010',     'Email-Exists',    'O e-mail informado já existe.')</v>
+        <v>insert into sysLocalizationText Values(2010,      'pt-br','2010',     'Email-Exists',    'O e-mail informado já existe.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -7789,7 +8127,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2011,      'pt-br','2011',     'Profile-NotBe-Null',    'O Perfil não pode ser nulo.')</v>
+        <v>insert into sysLocalizationText Values(2011,      'pt-br','2011',     'Profile-NotBe-Null',    'O Perfil não pode ser nulo.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -7811,7 +8149,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2012,      'pt-br','2012',     'User-Error-Exclude-Childs',    'Houve um erro ao excluir os itens filhos (Roles).')</v>
+        <v>insert into sysLocalizationText Values(2012,      'pt-br','2012',     'User-Error-Exclude-Childs',    'Houve um erro ao excluir os itens filhos (Roles).',getdate(),getdate())</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -7833,7 +8171,7 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2013,      'pt-br','2013',     'User-Invalid-Password-Code',    'O código de autorização de troca de senha é inválido.')</v>
+        <v>insert into sysLocalizationText Values(2013,      'pt-br','2013',     'User-Invalid-Password-Code',    'O código de autorização de troca de senha é inválido.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -7855,7 +8193,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2014,      'pt-br','2014',     'Account-Active',    'A conta associada ao Usuário já está ativa.')</v>
+        <v>insert into sysLocalizationText Values(2014,      'pt-br','2014',     'Account-Active',    'A conta associada ao Usuário já está ativa.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7877,7 +8215,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2015,      'pt-br','2015',     'User-Invalid-Activation-Code',    'O código de autorização de ativação é inválido.')</v>
+        <v>insert into sysLocalizationText Values(2015,      'pt-br','2015',     'User-Invalid-Activation-Code',    'O código de autorização de ativação é inválido.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -7899,7 +8237,7 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2016,      'pt-br','2016',     'User-No-Image',    'Envie o arquivo da imagem.')</v>
+        <v>insert into sysLocalizationText Values(2016,      'pt-br','2016',     'User-No-Image',    'Envie o arquivo da imagem.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -7921,7 +8259,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2017,      'pt-br','2017',     'User-Role-Exists',    'Esta Role já está associada ao usuário.')</v>
+        <v>insert into sysLocalizationText Values(2017,      'pt-br','2017',     'User-Role-Exists',    'Esta Role já está associada ao usuário.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -7943,7 +8281,7 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2018,      'pt-br','2018',     'User-Role-No-Exists',    'Esta Role não pertence ao usuário.')</v>
+        <v>insert into sysLocalizationText Values(2018,      'pt-br','2018',     'User-Role-No-Exists',    'Esta Role não pertence ao usuário.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -7965,7 +8303,7 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2019,      'pt-br','2019',     'Http-Unauthorized',    'Acesso não autorizado')</v>
+        <v>insert into sysLocalizationText Values(2019,      'pt-br','2019',     'Http-Unauthorized',    'Acesso não autorizado',getdate(),getdate())</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7987,7 +8325,7 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2020,      'pt-br','2020',     'Http-NotFound',    'O recurso não foi encontrado')</v>
+        <v>insert into sysLocalizationText Values(2020,      'pt-br','2020',     'Http-NotFound',    'O recurso não foi encontrado',getdate(),getdate())</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -8009,7 +8347,7 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2021,      'pt-br','2021',     'Http-Forbidden',    'Perfil do usuário sem permissão de acesso')</v>
+        <v>insert into sysLocalizationText Values(2021,      'pt-br','2021',     'Http-Forbidden',    'Perfil do usuário sem permissão de acesso',getdate(),getdate())</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -8031,7 +8369,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2022,      'pt-br','2022',     'Http-500Error',    'Ocorreu um erro no processamento da requisição.')</v>
+        <v>insert into sysLocalizationText Values(2022,      'pt-br','2022',     'Http-500Error',    'Ocorreu um erro no processamento da requisição.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -8053,7 +8391,7 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2023,      'pt-br','2023',     'Http-ServiceUnavailable',    'O serviço solicitado está indisponível.')</v>
+        <v>insert into sysLocalizationText Values(2023,      'pt-br','2023',     'Http-ServiceUnavailable',    'O serviço solicitado está indisponível.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -8075,7 +8413,7 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2024,      'pt-br','2024',     'API-Unexpected-Exception',    'Erro inesperado não identificado GetInnerExceptions@f2]')</v>
+        <v>insert into sysLocalizationText Values(2024,      'pt-br','2024',     'API-Unexpected-Exception',    'Erro inesperado não identificado GetInnerExceptions@f2]',getdate(),getdate())</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -8097,7 +8435,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2025,      'pt-br','2025',     'ShortDayName-1',    'Dom')</v>
+        <v>insert into sysLocalizationText Values(2025,      'pt-br','2025',     'ShortDayName-1',    'Dom',getdate(),getdate())</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -8119,7 +8457,7 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2026,      'pt-br','2026',     'ShortDayName-2',    'Seg')</v>
+        <v>insert into sysLocalizationText Values(2026,      'pt-br','2026',     'ShortDayName-2',    'Seg',getdate(),getdate())</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8141,7 +8479,7 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2027,      'pt-br','2027',     'ShortDayName-3',    'Ter')</v>
+        <v>insert into sysLocalizationText Values(2027,      'pt-br','2027',     'ShortDayName-3',    'Ter',getdate(),getdate())</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -8163,7 +8501,7 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2028,      'pt-br','2028',     'ShortDayName-4',    'Qua')</v>
+        <v>insert into sysLocalizationText Values(2028,      'pt-br','2028',     'ShortDayName-4',    'Qua',getdate(),getdate())</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -8185,7 +8523,7 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2029,      'pt-br','2029',     'ShortDayName-5',    'Qui')</v>
+        <v>insert into sysLocalizationText Values(2029,      'pt-br','2029',     'ShortDayName-5',    'Qui',getdate(),getdate())</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -8207,7 +8545,7 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2030,      'pt-br','2030',     'ShortDayName-6',    'Sex')</v>
+        <v>insert into sysLocalizationText Values(2030,      'pt-br','2030',     'ShortDayName-6',    'Sex',getdate(),getdate())</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8229,7 +8567,7 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2031,      'pt-br','2031',     'ShortDayName-7',    'Sáb')</v>
+        <v>insert into sysLocalizationText Values(2031,      'pt-br','2031',     'ShortDayName-7',    'Sáb',getdate(),getdate())</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -8251,7 +8589,7 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2032,      'pt-br','2032',     'MonthName-1',    'JANEIRO')</v>
+        <v>insert into sysLocalizationText Values(2032,      'pt-br','2032',     'MonthName-1',    'JANEIRO',getdate(),getdate())</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8273,7 +8611,7 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2033,      'pt-br','2033',     'MonthName-2',    'FEVEREIRO')</v>
+        <v>insert into sysLocalizationText Values(2033,      'pt-br','2033',     'MonthName-2',    'FEVEREIRO',getdate(),getdate())</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8295,7 +8633,7 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2034,      'pt-br','2034',     'MonthName-3',    'MARÇO')</v>
+        <v>insert into sysLocalizationText Values(2034,      'pt-br','2034',     'MonthName-3',    'MARÇO',getdate(),getdate())</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8317,7 +8655,7 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2035,      'pt-br','2035',     'MonthName-4',    'ABRIL')</v>
+        <v>insert into sysLocalizationText Values(2035,      'pt-br','2035',     'MonthName-4',    'ABRIL',getdate(),getdate())</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8339,7 +8677,7 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2036,      'pt-br','2036',     'MonthName-5',    'MAIO')</v>
+        <v>insert into sysLocalizationText Values(2036,      'pt-br','2036',     'MonthName-5',    'MAIO',getdate(),getdate())</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -8361,7 +8699,7 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2037,      'pt-br','2037',     'MonthName-6',    'JUNHO')</v>
+        <v>insert into sysLocalizationText Values(2037,      'pt-br','2037',     'MonthName-6',    'JUNHO',getdate(),getdate())</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -8383,7 +8721,7 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2038,      'pt-br','2038',     'MonthName-7',    'JULHO')</v>
+        <v>insert into sysLocalizationText Values(2038,      'pt-br','2038',     'MonthName-7',    'JULHO',getdate(),getdate())</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -8405,7 +8743,7 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2039,      'pt-br','2039',     'MonthName-8',    'AGOSTO')</v>
+        <v>insert into sysLocalizationText Values(2039,      'pt-br','2039',     'MonthName-8',    'AGOSTO',getdate(),getdate())</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -8427,7 +8765,7 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2040,      'pt-br','2040',     'MonthName-9',    'SETEMBRO')</v>
+        <v>insert into sysLocalizationText Values(2040,      'pt-br','2040',     'MonthName-9',    'SETEMBRO',getdate(),getdate())</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -8449,7 +8787,7 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2041,      'pt-br','2041',     'MonthName-10',    'OUTUBRO')</v>
+        <v>insert into sysLocalizationText Values(2041,      'pt-br','2041',     'MonthName-10',    'OUTUBRO',getdate(),getdate())</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -8471,7 +8809,7 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2042,      'pt-br','2042',     'MonthName-11',    'NOVEMBRO')</v>
+        <v>insert into sysLocalizationText Values(2042,      'pt-br','2042',     'MonthName-11',    'NOVEMBRO',getdate(),getdate())</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -8493,7 +8831,7 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2043,      'pt-br','2043',     'MonthName-12',    'DEZEMBRO')</v>
+        <v>insert into sysLocalizationText Values(2043,      'pt-br','2043',     'MonthName-12',    'DEZEMBRO',getdate(),getdate())</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -8515,7 +8853,7 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2044,      'pt-br','2044',     'Validation-NotNull',    'não pode ser nulo.')</v>
+        <v>insert into sysLocalizationText Values(2044,      'pt-br','2044',     'Validation-NotNull',    'não pode ser nulo.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -8537,7 +8875,7 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2045,      'pt-br','2045',     'Validation-Max-Characters',    'O campo {0} não pode ter mais de maxlength caracteres.')</v>
+        <v>insert into sysLocalizationText Values(2045,      'pt-br','2045',     'Validation-Max-Characters',    'O campo {0} não pode ter mais de maxlength caracteres.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -8559,7 +8897,7 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2046,      'pt-br','2046',     'Validation-Invalid-Field',    'O campo {0} é inválido.')</v>
+        <v>insert into sysLocalizationText Values(2046,      'pt-br','2046',     'Validation-Invalid-Field',    'O campo {0} é inválido.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -8581,7 +8919,7 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2047,      'pt-br','2047',     'Validation-Invalid-UserName',    'O campo {0} é inválido. Não use caracteres especiais ou espaços.')</v>
+        <v>insert into sysLocalizationText Values(2047,      'pt-br','2047',     'Validation-Invalid-UserName',    'O campo {0} é inválido. Não use caracteres especiais ou espaços.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -8603,7 +8941,7 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2048,      'pt-br','2048',     'Validation-Unique-Value',    'O campo {0} é inválido. O valor informado deve ser único.')</v>
+        <v>insert into sysLocalizationText Values(2048,      'pt-br','2048',     'Validation-Unique-Value',    'O campo {0} é inválido. O valor informado deve ser único.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -8625,7 +8963,7 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2049,      'pt-br','2049',     'User-Instance-Exists',    'Esta Instância já está associada ao Usuário.')</v>
+        <v>insert into sysLocalizationText Values(2049,      'pt-br','2049',     'User-Instance-Exists',    'Esta Instância já está associada ao Usuário.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -8647,7 +8985,7 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2050,      'pt-br','2050',     'User-Instance-No-Exists',    'Esta Instância não pertence ao Usuário.')</v>
+        <v>insert into sysLocalizationText Values(2050,      'pt-br','2050',     'User-Instance-No-Exists',    'Esta Instância não pertence ao Usuário.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -8671,7 +9009,7 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2051,      'pt-br','2051','User-PageTitle','Gerenciamento de Usuários')</v>
+        <v>insert into sysLocalizationText Values(2051,      'pt-br','2051','User-PageTitle','Gerenciamento de Usuários',getdate(),getdate())</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -8695,7 +9033,7 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2052,      'pt-br','2052','SearchButtonLabel','Pesquisar')</v>
+        <v>insert into sysLocalizationText Values(2052,      'pt-br','2052','SearchButtonLabel','Pesquisar',getdate(),getdate())</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -8719,7 +9057,7 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2053,      'pt-br','2053','SearchingLabel','Pesquisando...')</v>
+        <v>insert into sysLocalizationText Values(2053,      'pt-br','2053','SearchingLabel','Pesquisando...',getdate(),getdate())</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -8743,7 +9081,7 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2054,      'pt-br','2054','InsertingLoadingLabel','Inserindo...')</v>
+        <v>insert into sysLocalizationText Values(2054,      'pt-br','2054','InsertingLoadingLabel','Inserindo...',getdate(),getdate())</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -8767,7 +9105,7 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2055,      'pt-br','2055','SearchResultLabel','Resultado da Busca')</v>
+        <v>insert into sysLocalizationText Values(2055,      'pt-br','2055','SearchResultLabel','Resultado da Busca',getdate(),getdate())</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -8791,7 +9129,7 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2056,      'pt-br','2056','DetailsLabel','Detalhes')</v>
+        <v>insert into sysLocalizationText Values(2056,      'pt-br','2056','DetailsLabel','Detalhes',getdate(),getdate())</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -8815,7 +9153,7 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2057,      'pt-br','2057','NoRecordsFound','Nenhum registro encontrado')</v>
+        <v>insert into sysLocalizationText Values(2057,      'pt-br','2057','NoRecordsFound','Nenhum registro encontrado',getdate(),getdate())</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -8839,7 +9177,7 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2058,      'pt-br','2058','LoadingPage','Carregando. Aguarde...')</v>
+        <v>insert into sysLocalizationText Values(2058,      'pt-br','2058','LoadingPage','Carregando. Aguarde...',getdate(),getdate())</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -8863,7 +9201,7 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2059,      'pt-br','2059','LoadingData','Carregando a página. Aguarde...')</v>
+        <v>insert into sysLocalizationText Values(2059,      'pt-br','2059','LoadingData','Carregando a página. Aguarde...',getdate(),getdate())</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -8887,7 +9225,7 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2060,      'pt-br','2060','ErrorOnExecuteSearch','Erro ao efetuar a busca')</v>
+        <v>insert into sysLocalizationText Values(2060,      'pt-br','2060','ErrorOnExecuteSearch','Erro ao efetuar a busca',getdate(),getdate())</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -8911,7 +9249,7 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2061,      'pt-br','2061','ErrorOnReturnData','Erro ao retornar dados')</v>
+        <v>insert into sysLocalizationText Values(2061,      'pt-br','2061','ErrorOnReturnData','Erro ao retornar dados',getdate(),getdate())</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -8935,7 +9273,7 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2062,      'pt-br','2062','ErrorOnCreateNewRecord','Erro ao criar registro')</v>
+        <v>insert into sysLocalizationText Values(2062,      'pt-br','2062','ErrorOnCreateNewRecord','Erro ao criar registro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -8959,7 +9297,7 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2063,      'pt-br','2063','AfterSaveAnswering','O novo registro foi criado com sucesso. Deseja continuar inserindo ?')</v>
+        <v>insert into sysLocalizationText Values(2063,      'pt-br','2063','AfterSaveAnswering','O novo registro foi criado com sucesso. Deseja continuar inserindo ?',getdate(),getdate())</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -8983,7 +9321,7 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2064,      'pt-br','2064','NoticeLabel','Aviso')</v>
+        <v>insert into sysLocalizationText Values(2064,      'pt-br','2064','NoticeLabel','Aviso',getdate(),getdate())</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -9007,7 +9345,7 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="1"/>
-        <v>insert into sysLocalizationText Values(2065,      'pt-br','2065','SuccessLabel','Sucesso')</v>
+        <v>insert into sysLocalizationText Values(2065,      'pt-br','2065','SuccessLabel','Sucesso',getdate(),getdate())</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -9030,8 +9368,8 @@
         <v>'O registro foi salvo com sucesso.'</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" ref="F66:F169" si="3">"insert into sysLocalizationText Values(" &amp;A66 &amp; "," &amp; B66 &amp; "," &amp;C66 &amp; "," &amp; D66 &amp; "," &amp; E66 &amp; ")"</f>
-        <v>insert into sysLocalizationText Values(2066,      'pt-br','2066','SuccessSaveMessage','O registro foi salvo com sucesso.')</v>
+        <f t="shared" ref="F66:F129" si="3">"insert into sysLocalizationText Values(" &amp;A66 &amp; "," &amp; B66 &amp; "," &amp;C66 &amp; "," &amp; D66 &amp; "," &amp; E66 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(2066,      'pt-br','2066','SuccessSaveMessage','O registro foi salvo com sucesso.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -9055,7 +9393,7 @@
       </c>
       <c r="F67" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2067,      'pt-br','2067','Email-Label','E-mail')</v>
+        <v>insert into sysLocalizationText Values(2067,      'pt-br','2067','Email-Label','E-mail',getdate(),getdate())</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9079,7 +9417,7 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2068,      'pt-br','2068','UserName-Label','Nome de Usuário')</v>
+        <v>insert into sysLocalizationText Values(2068,      'pt-br','2068','UserName-Label','Nome de Usuário',getdate(),getdate())</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -9103,7 +9441,7 @@
       </c>
       <c r="F69" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2069,      'pt-br','2069','Password-Label','Senha')</v>
+        <v>insert into sysLocalizationText Values(2069,      'pt-br','2069','Password-Label','Senha',getdate(),getdate())</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -9127,7 +9465,7 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2070,      'pt-br','2070','Instance-Label','Instância')</v>
+        <v>insert into sysLocalizationText Values(2070,      'pt-br','2070','Instance-Label','Instância',getdate(),getdate())</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -9151,7 +9489,7 @@
       </c>
       <c r="F71" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2071,      'pt-br','2071','Role-Label','Perfim')</v>
+        <v>insert into sysLocalizationText Values(2071,      'pt-br','2071','Role-Label','Perfim',getdate(),getdate())</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -9175,7 +9513,7 @@
       </c>
       <c r="F72" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2072,      'pt-br','2072','Yes-Text','Sim')</v>
+        <v>insert into sysLocalizationText Values(2072,      'pt-br','2072','Yes-Text','Sim',getdate(),getdate())</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -9199,7 +9537,7 @@
       </c>
       <c r="F73" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2073,      'pt-br','2073','No-Text','Não')</v>
+        <v>insert into sysLocalizationText Values(2073,      'pt-br','2073','No-Text','Não',getdate(),getdate())</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -9223,7 +9561,7 @@
       </c>
       <c r="F74" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2074,      'pt-br','2074','Saving-Label','Salvando...')</v>
+        <v>insert into sysLocalizationText Values(2074,      'pt-br','2074','Saving-Label','Salvando...',getdate(),getdate())</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -9247,7 +9585,7 @@
       </c>
       <c r="F75" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2075,      'pt-br','2075','Edit-Label','Editar')</v>
+        <v>insert into sysLocalizationText Values(2075,      'pt-br','2075','Edit-Label','Editar',getdate(),getdate())</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -9271,7 +9609,7 @@
       </c>
       <c r="F76" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2076,      'pt-br','2076','Date-Label','Data')</v>
+        <v>insert into sysLocalizationText Values(2076,      'pt-br','2076','Date-Label','Data',getdate(),getdate())</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -9295,7 +9633,7 @@
       </c>
       <c r="F77" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2077,      'pt-br','2077','Field-Label','Campo')</v>
+        <v>insert into sysLocalizationText Values(2077,      'pt-br','2077','Field-Label','Campo',getdate(),getdate())</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -9319,7 +9657,7 @@
       </c>
       <c r="F78" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2078,      'pt-br','2078','Value-Label','Valor')</v>
+        <v>insert into sysLocalizationText Values(2078,      'pt-br','2078','Value-Label','Valor',getdate(),getdate())</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -9343,7 +9681,7 @@
       </c>
       <c r="F79" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2079,      'pt-br','2079','SelectItem-Description','Selecione um Item')</v>
+        <v>insert into sysLocalizationText Values(2079,      'pt-br','2079','SelectItem-Description','Selecione um Item',getdate(),getdate())</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -9367,7 +9705,7 @@
       </c>
       <c r="F80" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2080,      'pt-br','2080','AllItem-Description','Todos')</v>
+        <v>insert into sysLocalizationText Values(2080,      'pt-br','2080','AllItem-Description','Todos',getdate(),getdate())</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -9391,7 +9729,7 @@
       </c>
       <c r="F81" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2081,      'pt-br','2081','Welcome-Label','Bem-vindo ao GW Template')</v>
+        <v>insert into sysLocalizationText Values(2081,      'pt-br','2081','Welcome-Label','Bem-vindo ao GW Template',getdate(),getdate())</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -9415,7 +9753,7 @@
       </c>
       <c r="F82" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2082,      'pt-br','2082','LoginTitle-Label','Entrar')</v>
+        <v>insert into sysLocalizationText Values(2082,      'pt-br','2082','LoginTitle-Label','Entrar',getdate(),getdate())</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -9439,7 +9777,7 @@
       </c>
       <c r="F83" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2083,      'pt-br','2083','LoginTitle-Description','Insira seu login e senha')</v>
+        <v>insert into sysLocalizationText Values(2083,      'pt-br','2083','LoginTitle-Description','Insira seu login e senha',getdate(),getdate())</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -9463,7 +9801,7 @@
       </c>
       <c r="F84" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2084,      'pt-br','2084','InputEmail-Description','Digite seu e-mail de cadastro')</v>
+        <v>insert into sysLocalizationText Values(2084,      'pt-br','2084','InputEmail-Description','Digite seu e-mail de cadastro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -9487,7 +9825,7 @@
       </c>
       <c r="F85" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2085,      'pt-br','2085','InputPassword-Description','Digite sua senha')</v>
+        <v>insert into sysLocalizationText Values(2085,      'pt-br','2085','InputPassword-Description','Digite sua senha',getdate(),getdate())</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -9511,7 +9849,7 @@
       </c>
       <c r="F86" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2086,      'pt-br','2086','ForgetPassword-Description','Esqueceu a senha ?')</v>
+        <v>insert into sysLocalizationText Values(2086,      'pt-br','2086','ForgetPassword-Description','Esqueceu a senha ?',getdate(),getdate())</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -9535,7 +9873,7 @@
       </c>
       <c r="F87" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2087,      'pt-br','2087','LoginButton-Label','Confirmar')</v>
+        <v>insert into sysLocalizationText Values(2087,      'pt-br','2087','LoginButton-Label','Confirmar',getdate(),getdate())</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -9559,7 +9897,7 @@
       </c>
       <c r="F88" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2088,      'pt-br','2088','LoginLoading-Label','Entrando...')</v>
+        <v>insert into sysLocalizationText Values(2088,      'pt-br','2088','LoginLoading-Label','Entrando...',getdate(),getdate())</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -9583,7 +9921,7 @@
       </c>
       <c r="F89" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2089,      'pt-br','2089','SendText-Description','Enviando...')</v>
+        <v>insert into sysLocalizationText Values(2089,      'pt-br','2089','SendText-Description','Enviando...',getdate(),getdate())</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -9607,7 +9945,7 @@
       </c>
       <c r="F90" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2090,      'pt-br','2090','ActiveAccountButton-Label','Ativar Conta')</v>
+        <v>insert into sysLocalizationText Values(2090,      'pt-br','2090','ActiveAccountButton-Label','Ativar Conta',getdate(),getdate())</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -9631,7 +9969,7 @@
       </c>
       <c r="F91" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2091,      'pt-br','2091','ActiveAccount-Label','Ativação de Conta')</v>
+        <v>insert into sysLocalizationText Values(2091,      'pt-br','2091','ActiveAccount-Label','Ativação de Conta',getdate(),getdate())</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -9655,7 +9993,7 @@
       </c>
       <c r="F92" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2092,      'pt-br','2092','ActiveAccount-Description','Não consegue acessar ?')</v>
+        <v>insert into sysLocalizationText Values(2092,      'pt-br','2092','ActiveAccount-Description','Não consegue acessar ?',getdate(),getdate())</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -9679,7 +10017,7 @@
       </c>
       <c r="F93" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2093,      'pt-br','2093','ActiveAccount-Step1','Envie o código de ativação para o seu e-mail de cadastro')</v>
+        <v>insert into sysLocalizationText Values(2093,      'pt-br','2093','ActiveAccount-Step1','Envie o código de ativação para o seu e-mail de cadastro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -9703,7 +10041,7 @@
       </c>
       <c r="F94" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2094,      'pt-br','2094','ActiveAccount-Step2','Informe o código de ativação recebido')</v>
+        <v>insert into sysLocalizationText Values(2094,      'pt-br','2094','ActiveAccount-Step2','Informe o código de ativação recebido',getdate(),getdate())</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -9727,7 +10065,7 @@
       </c>
       <c r="F95" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2095,      'pt-br','2095','SendCodeButton-Label','Enviar Código')</v>
+        <v>insert into sysLocalizationText Values(2095,      'pt-br','2095','SendCodeButton-Label','Enviar Código',getdate(),getdate())</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -9751,7 +10089,7 @@
       </c>
       <c r="F96" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2096,      'pt-br','2096','ActiveLoading-Label','Solicitar Ativação')</v>
+        <v>insert into sysLocalizationText Values(2096,      'pt-br','2096','ActiveLoading-Label','Solicitar Ativação',getdate(),getdate())</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -9775,7 +10113,7 @@
       </c>
       <c r="F97" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2097,      'pt-br','2097','InputCode-Description','Digite o código recebido por e-mail')</v>
+        <v>insert into sysLocalizationText Values(2097,      'pt-br','2097','InputCode-Description','Digite o código recebido por e-mail',getdate(),getdate())</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -9799,7 +10137,7 @@
       </c>
       <c r="F98" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2098,      'pt-br','2098','Unlogged-Label','Você não está logado')</v>
+        <v>insert into sysLocalizationText Values(2098,      'pt-br','2098','Unlogged-Label','Você não está logado',getdate(),getdate())</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -9823,7 +10161,7 @@
       </c>
       <c r="F99" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2099,      'pt-br','2099','MyProfile-Label','Meu Perfil')</v>
+        <v>insert into sysLocalizationText Values(2099,      'pt-br','2099','MyProfile-Label','Meu Perfil',getdate(),getdate())</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -9847,7 +10185,7 @@
       </c>
       <c r="F100" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2100,      'pt-br','2100','MainProfileData-Label','Dados do Perfil')</v>
+        <v>insert into sysLocalizationText Values(2100,      'pt-br','2100','MainProfileData-Label','Dados do Perfil',getdate(),getdate())</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -9871,7 +10209,7 @@
       </c>
       <c r="F101" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2101,      'pt-br','2101','AlterPassword-Label','Trocar Senha')</v>
+        <v>insert into sysLocalizationText Values(2101,      'pt-br','2101','AlterPassword-Label','Trocar Senha',getdate(),getdate())</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -9895,7 +10233,7 @@
       </c>
       <c r="F102" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2102,      'pt-br','2102','LanguageRole-Label','Linguagem')</v>
+        <v>insert into sysLocalizationText Values(2102,      'pt-br','2102','LanguageRole-Label','Linguagem',getdate(),getdate())</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -9919,7 +10257,7 @@
       </c>
       <c r="F103" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2103,      'pt-br','2103','AlterProfileImage-Label','Alterar a imagem de perfil')</v>
+        <v>insert into sysLocalizationText Values(2103,      'pt-br','2103','AlterProfileImage-Label','Alterar a imagem de perfil',getdate(),getdate())</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -9943,7 +10281,7 @@
       </c>
       <c r="F104" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2104,      'pt-br','2104','AlterPasswordStep1-Label','Clique no link abaixo para receber um email com o código de segurança para troca de senha')</v>
+        <v>insert into sysLocalizationText Values(2104,      'pt-br','2104','AlterPasswordStep1-Label','Clique no link abaixo para receber um email com o código de segurança para troca de senha',getdate(),getdate())</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -9967,7 +10305,7 @@
       </c>
       <c r="F105" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2105,      'pt-br','2105','AlterPasswordStep2-Label','Após receber código, preencha as informações abaixo e clique em Altera Senha')</v>
+        <v>insert into sysLocalizationText Values(2105,      'pt-br','2105','AlterPasswordStep2-Label','Após receber código, preencha as informações abaixo e clique em Altera Senha',getdate(),getdate())</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -9991,7 +10329,7 @@
       </c>
       <c r="F106" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2106,      'pt-br','2106','InputNewPassword-Label','Digite a nova senha')</v>
+        <v>insert into sysLocalizationText Values(2106,      'pt-br','2106','InputNewPassword-Label','Digite a nova senha',getdate(),getdate())</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -10015,7 +10353,7 @@
       </c>
       <c r="F107" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2107,      'pt-br','2107','AlterPasswordButton-Label','Alterar a Senha')</v>
+        <v>insert into sysLocalizationText Values(2107,      'pt-br','2107','AlterPasswordButton-Label','Alterar a Senha',getdate(),getdate())</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -10039,7 +10377,7 @@
       </c>
       <c r="F108" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2108,      'pt-br','2108','AlterPasswordButton-Loading','Alterando a senha....')</v>
+        <v>insert into sysLocalizationText Values(2108,      'pt-br','2108','AlterPasswordButton-Loading','Alterando a senha....',getdate(),getdate())</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -10063,7 +10401,7 @@
       </c>
       <c r="F109" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2109,      'pt-br','2109','InvalidCredentials-Title','Credenciais Inválidas')</v>
+        <v>insert into sysLocalizationText Values(2109,      'pt-br','2109','InvalidCredentials-Title','Credenciais Inválidas',getdate(),getdate())</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -10087,7 +10425,7 @@
       </c>
       <c r="F110" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2110,      'pt-br','2110','InvalidCredentials-Message','E-mail ou senha inválidos!')</v>
+        <v>insert into sysLocalizationText Values(2110,      'pt-br','2110','InvalidCredentials-Message','E-mail ou senha inválidos!',getdate(),getdate())</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -10111,7 +10449,7 @@
       </c>
       <c r="F111" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2111,      'pt-br','2111','TemporaryPassword-Title','Senha Enviada')</v>
+        <v>insert into sysLocalizationText Values(2111,      'pt-br','2111','TemporaryPassword-Title','Senha Enviada',getdate(),getdate())</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -10135,7 +10473,7 @@
       </c>
       <c r="F112" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2112,      'pt-br','2112','TemporaryPassword-Message','Uma senha temporária foi enviada para o seu e-mail de cadastro. Ao logar, solicite a troca de senha.')</v>
+        <v>insert into sysLocalizationText Values(2112,      'pt-br','2112','TemporaryPassword-Message','Uma senha temporária foi enviada para o seu e-mail de cadastro. Ao logar, solicite a troca de senha.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -10159,7 +10497,7 @@
       </c>
       <c r="F113" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2113,      'pt-br','2113','SuccessActivated-Title','Conta Ativada com Sucesso')</v>
+        <v>insert into sysLocalizationText Values(2113,      'pt-br','2113','SuccessActivated-Title','Conta Ativada com Sucesso',getdate(),getdate())</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -10183,7 +10521,7 @@
       </c>
       <c r="F114" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2114,      'pt-br','2114','SuccessActivated-Message','A conta foi ativada com sucesso. Você já pode efetuar login.')</v>
+        <v>insert into sysLocalizationText Values(2114,      'pt-br','2114','SuccessActivated-Message','A conta foi ativada com sucesso. Você já pode efetuar login.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -10207,7 +10545,7 @@
       </c>
       <c r="F115" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2115,      'pt-br','2115','ActivateCode-Title','Código Enviado')</v>
+        <v>insert into sysLocalizationText Values(2115,      'pt-br','2115','ActivateCode-Title','Código Enviado',getdate(),getdate())</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -10231,7 +10569,7 @@
       </c>
       <c r="F116" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2116,      'pt-br','2116','ActivateCode-Message','O código de segurança foi enviado por e-mail.')</v>
+        <v>insert into sysLocalizationText Values(2116,      'pt-br','2116','ActivateCode-Message','O código de segurança foi enviado por e-mail.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -10255,7 +10593,7 @@
       </c>
       <c r="F117" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2117,      'pt-br','2117','PasswordChanged-Title','Senha Alterada')</v>
+        <v>insert into sysLocalizationText Values(2117,      'pt-br','2117','PasswordChanged-Title','Senha Alterada',getdate(),getdate())</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -10279,7 +10617,7 @@
       </c>
       <c r="F118" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2118,      'pt-br','2118','PasswordChanged-Message','A senha foi alterada com sucesso. Efetue login novamente.')</v>
+        <v>insert into sysLocalizationText Values(2118,      'pt-br','2118','PasswordChanged-Message','A senha foi alterada com sucesso. Efetue login novamente.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -10303,7 +10641,7 @@
       </c>
       <c r="F119" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2119,      'pt-br','2119','ImageChanged-Title','Imagem Alterada')</v>
+        <v>insert into sysLocalizationText Values(2119,      'pt-br','2119','ImageChanged-Title','Imagem Alterada',getdate(),getdate())</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -10327,7 +10665,7 @@
       </c>
       <c r="F120" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2120,      'pt-br','2120','ImageChanged-Message','A imagem de perfil foi alterada. No próximo login a nova imagem será exibida.')</v>
+        <v>insert into sysLocalizationText Values(2120,      'pt-br','2120','ImageChanged-Message','A imagem de perfil foi alterada. No próximo login a nova imagem será exibida.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -10351,7 +10689,7 @@
       </c>
       <c r="F121" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2121,      'pt-br','2121','SearchByEmail-Label','Por E-mail')</v>
+        <v>insert into sysLocalizationText Values(2121,      'pt-br','2121','SearchByEmail-Label','Por E-mail',getdate(),getdate())</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -10375,7 +10713,7 @@
       </c>
       <c r="F122" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2122,      'pt-br','2122','SearchByUserName-Label','Por Nome de Usuário')</v>
+        <v>insert into sysLocalizationText Values(2122,      'pt-br','2122','SearchByUserName-Label','Por Nome de Usuário',getdate(),getdate())</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -10399,7 +10737,7 @@
       </c>
       <c r="F123" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2123,      'pt-br','2123','SearchByEmail-Description','Pesquisar por E-mail')</v>
+        <v>insert into sysLocalizationText Values(2123,      'pt-br','2123','SearchByEmail-Description','Pesquisar por E-mail',getdate(),getdate())</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -10423,7 +10761,7 @@
       </c>
       <c r="F124" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2124,      'pt-br','2124','SearchByUserName-Description','Pesquisar por Nome de Usuário')</v>
+        <v>insert into sysLocalizationText Values(2124,      'pt-br','2124','SearchByUserName-Description','Pesquisar por Nome de Usuário',getdate(),getdate())</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -10447,7 +10785,7 @@
       </c>
       <c r="F125" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2125,      'pt-br','2125','SearchByInstance-Label','Por Instância')</v>
+        <v>insert into sysLocalizationText Values(2125,      'pt-br','2125','SearchByInstance-Label','Por Instância',getdate(),getdate())</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -10471,7 +10809,7 @@
       </c>
       <c r="F126" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2126,      'pt-br','2126','SearchByRole-Label','Por Perfil')</v>
+        <v>insert into sysLocalizationText Values(2126,      'pt-br','2126','SearchByRole-Label','Por Perfil',getdate(),getdate())</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -10495,7 +10833,7 @@
       </c>
       <c r="F127" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2127,      'pt-br','2127','NewUser-Label','Novo Usuáro')</v>
+        <v>insert into sysLocalizationText Values(2127,      'pt-br','2127','NewUser-Label','Novo Usuáro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -10519,7 +10857,7 @@
       </c>
       <c r="F128" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2128,      'pt-br','2128','NewUser-Description','Clique aqui para criar novo usuário')</v>
+        <v>insert into sysLocalizationText Values(2128,      'pt-br','2128','NewUser-Description','Clique aqui para criar novo usuário',getdate(),getdate())</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -10543,7 +10881,7 @@
       </c>
       <c r="F129" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2129,      'pt-br','2129','Active-Label','Ativo')</v>
+        <v>insert into sysLocalizationText Values(2129,      'pt-br','2129','Active-Label','Ativo',getdate(),getdate())</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -10566,8 +10904,8 @@
         <v>'Bloqueado'</v>
       </c>
       <c r="F130" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2130,      'pt-br','2130','Locked-Label','Bloqueado')</v>
+        <f t="shared" ref="F130:F193" si="8">"insert into sysLocalizationText Values(" &amp;A130 &amp; "," &amp; B130 &amp; "," &amp;C130 &amp; "," &amp; D130 &amp; "," &amp; E130 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(2130,      'pt-br','2130','Locked-Label','Bloqueado',getdate(),getdate())</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -10590,8 +10928,8 @@
         <v>'Dados Principais'</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2131,      'pt-br','2131','MainData-Label','Dados Principais')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2131,      'pt-br','2131','MainData-Label','Dados Principais',getdate(),getdate())</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -10614,8 +10952,8 @@
         <v>'Instância e Perfil'</v>
       </c>
       <c r="F132" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2132,      'pt-br','2132','User-SecondTabLabel','Instância e Perfil')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2132,      'pt-br','2132','User-SecondTabLabel','Instância e Perfil',getdate(),getdate())</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -10638,8 +10976,8 @@
         <v>'Data de Cadastro'</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2133,      'pt-br','2133','CreateDate-Label','Data de Cadastro')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2133,      'pt-br','2133','CreateDate-Label','Data de Cadastro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -10662,8 +11000,8 @@
         <v>'Data do Último Acesso'</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2134,      'pt-br','2134','LastLoginDate-Label','Data do Último Acesso')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2134,      'pt-br','2134','LastLoginDate-Label','Data do Último Acesso',getdate(),getdate())</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -10686,8 +11024,8 @@
         <v>'Idioma Padrão'</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2135,      'pt-br','2135','DefaultLanguage-Label','Idioma Padrão')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2135,      'pt-br','2135','DefaultLanguage-Label','Idioma Padrão',getdate(),getdate())</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -10710,8 +11048,8 @@
         <v>'IP do Último Acesso'</v>
       </c>
       <c r="F136" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2136,      'pt-br','2136','LastLoginIP-Label','IP do Último Acesso')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2136,      'pt-br','2136','LastLoginIP-Label','IP do Último Acesso',getdate(),getdate())</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -10734,8 +11072,8 @@
         <v>'Total de Acessos'</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2137,      'pt-br','2137','LoginCounter-Label','Total de Acessos')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2137,      'pt-br','2137','LoginCounter-Label','Total de Acessos',getdate(),getdate())</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -10758,8 +11096,8 @@
         <v>'Código de Recuperação de Senha'</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2138,      'pt-br','2138','PasswordRecovery-Label','Código de Recuperação de Senha')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2138,      'pt-br','2138','PasswordRecovery-Label','Código de Recuperação de Senha',getdate(),getdate())</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -10782,8 +11120,8 @@
         <v>'Alterar a Instância'</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2139,      'pt-br','2139','AlterInstance-Label','Alterar a Instância')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2139,      'pt-br','2139','AlterInstance-Label','Alterar a Instância',getdate(),getdate())</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -10806,8 +11144,8 @@
         <v>'Selecione uma Instância para alterar'</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2140,      'pt-br','2140','AlterInstance-Description','Selecione uma Instância para alterar')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2140,      'pt-br','2140','AlterInstance-Description','Selecione uma Instância para alterar',getdate(),getdate())</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -10830,8 +11168,8 @@
         <v>'Alterando...'</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2141,      'pt-br','2141','Altering-Label','Alterando...')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2141,      'pt-br','2141','Altering-Label','Alterando...',getdate(),getdate())</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -10854,8 +11192,8 @@
         <v>'Alterar Perfil'</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2142,      'pt-br','2142','AlterRole-Label','Alterar Perfil')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2142,      'pt-br','2142','AlterRole-Label','Alterar Perfil',getdate(),getdate())</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -10878,8 +11216,8 @@
         <v>'Selecione um Perfil para alterar'</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2143,      'pt-br','2143','AlterRole-Description','Selecione um Perfil para alterar')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2143,      'pt-br','2143','AlterRole-Description','Selecione um Perfil para alterar',getdate(),getdate())</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -10902,8 +11240,8 @@
         <v>'Status do Usuário'</v>
       </c>
       <c r="F144" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2144,      'pt-br','2144','UserStatus-Label','Status do Usuário')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2144,      'pt-br','2144','UserStatus-Label','Status do Usuário',getdate(),getdate())</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -10926,8 +11264,8 @@
         <v>'Clique aqui para alterar o status'</v>
       </c>
       <c r="F145" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2145,      'pt-br','2145','ChangeUserState-Description','Clique aqui para alterar o status')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2145,      'pt-br','2145','ChangeUserState-Description','Clique aqui para alterar o status',getdate(),getdate())</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -10950,8 +11288,8 @@
         <v>'Atualizar Status'</v>
       </c>
       <c r="F146" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2146,      'pt-br','2146','ChangeUserState-Label','Atualizar Status')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2146,      'pt-br','2146','ChangeUserState-Label','Atualizar Status',getdate(),getdate())</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -10974,8 +11312,8 @@
         <v>'Novo Usuário'</v>
       </c>
       <c r="F147" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2147,      'pt-br','2147','CreateUser-Label','Novo Usuário')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2147,      'pt-br','2147','CreateUser-Label','Novo Usuário',getdate(),getdate())</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -10998,8 +11336,8 @@
         <v>'Clique aqui para cciar o novo usuário'</v>
       </c>
       <c r="F148" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2148,      'pt-br','2148','CreateUser-Description','Clique aqui para cciar o novo usuário')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2148,      'pt-br','2148','CreateUser-Description','Clique aqui para cciar o novo usuário',getdate(),getdate())</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -11022,8 +11360,8 @@
         <v>'Salvar'</v>
       </c>
       <c r="F149" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2149,      'pt-br','2149','CreateUserButton-Label','Salvar')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2149,      'pt-br','2149','CreateUserButton-Label','Salvar',getdate(),getdate())</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -11046,8 +11384,8 @@
         <v>'Error ao alterar o status do usuário'</v>
       </c>
       <c r="F150" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2150,      'pt-br','2150','AlterStatus-Error','Error ao alterar o status do usuário')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2150,      'pt-br','2150','AlterStatus-Error','Error ao alterar o status do usuário',getdate(),getdate())</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -11070,8 +11408,8 @@
         <v>'O status do usuário foi alterado com sucesso'</v>
       </c>
       <c r="F151" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2151,      'pt-br','2151','AlterStatus-Success','O status do usuário foi alterado com sucesso')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2151,      'pt-br','2151','AlterStatus-Success','O status do usuário foi alterado com sucesso',getdate(),getdate())</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -11094,8 +11432,8 @@
         <v>'Erro ao alterar instância'</v>
       </c>
       <c r="F152" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2152,      'pt-br','2152','AlterInstance-Error','Erro ao alterar instância')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2152,      'pt-br','2152','AlterInstance-Error','Erro ao alterar instância',getdate(),getdate())</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -11118,8 +11456,8 @@
         <v>'A instância foi alterada com sucesso'</v>
       </c>
       <c r="F153" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2153,      'pt-br','2153','AlterInstance-Success','A instância foi alterada com sucesso')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2153,      'pt-br','2153','AlterInstance-Success','A instância foi alterada com sucesso',getdate(),getdate())</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -11142,8 +11480,8 @@
         <v>'Erro ao alterar o perfil.'</v>
       </c>
       <c r="F154" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2154,      'pt-br','2154','AlterRole-Error','Erro ao alterar o perfil.')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2154,      'pt-br','2154','AlterRole-Error','Erro ao alterar o perfil.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -11166,8 +11504,8 @@
         <v>'O status foi alterado com sucesso'</v>
       </c>
       <c r="F155" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2155,      'pt-br','2155','AlterRole-Success','O status foi alterado com sucesso')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2155,      'pt-br','2155','AlterRole-Success','O status foi alterado com sucesso',getdate(),getdate())</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -11190,8 +11528,8 @@
         <v>'Instância'</v>
       </c>
       <c r="F156" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2156,      'pt-br','2156','Instance-PageTitle','Instância')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2156,      'pt-br','2156','Instance-PageTitle','Instância',getdate(),getdate())</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -11214,8 +11552,8 @@
         <v>'Por Nome da Instância'</v>
       </c>
       <c r="F157" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2157,      'pt-br','2157','SearchByInstanceName-Label','Por Nome da Instância')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2157,      'pt-br','2157','SearchByInstanceName-Label','Por Nome da Instância',getdate(),getdate())</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -11238,8 +11576,8 @@
         <v>'Pesquisar por Nome da Instância'</v>
       </c>
       <c r="F158" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2158,      'pt-br','2158','SearchByInstanceName-Description','Pesquisar por Nome da Instância')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2158,      'pt-br','2158','SearchByInstanceName-Description','Pesquisar por Nome da Instância',getdate(),getdate())</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -11262,8 +11600,8 @@
         <v>'Por Tipo da Instância'</v>
       </c>
       <c r="F159" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2159,      'pt-br','2159','SearchByInstanceTypeName-Label','Por Tipo da Instância')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2159,      'pt-br','2159','SearchByInstanceTypeName-Label','Por Tipo da Instância',getdate(),getdate())</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -11286,8 +11624,8 @@
         <v>'Pesquisar por Tipo da Instância'</v>
       </c>
       <c r="F160" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2160,      'pt-br','2160','SearchByInstanceTypeName-Description','Pesquisar por Tipo da Instância')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2160,      'pt-br','2160','SearchByInstanceTypeName-Description','Pesquisar por Tipo da Instância',getdate(),getdate())</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -11310,8 +11648,8 @@
         <v>'Nova Instância'</v>
       </c>
       <c r="F161" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2161,      'pt-br','2161','NewInstance-Label','Nova Instância')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2161,      'pt-br','2161','NewInstance-Label','Nova Instância',getdate(),getdate())</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -11334,8 +11672,8 @@
         <v>'Clique aqui para criar uma nova Instância'</v>
       </c>
       <c r="F162" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2162,      'pt-br','2162','NewInstance-Description','Clique aqui para criar uma nova Instância')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2162,      'pt-br','2162','NewInstance-Description','Clique aqui para criar uma nova Instância',getdate(),getdate())</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -11358,8 +11696,8 @@
         <v>'Tipo de Instância'</v>
       </c>
       <c r="F163" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2163,      'pt-br','2163','InstanceTypeName-Label','Tipo de Instância')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2163,      'pt-br','2163','InstanceTypeName-Label','Tipo de Instância',getdate(),getdate())</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -11382,8 +11720,8 @@
         <v>'Nome da Instância'</v>
       </c>
       <c r="F164" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2164,      'pt-br','2164','InstanceName-Label','Nome da Instância')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2164,      'pt-br','2164','InstanceName-Label','Nome da Instância',getdate(),getdate())</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -11406,8 +11744,8 @@
         <v>'Dados da Instância'</v>
       </c>
       <c r="F165" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2165,      'pt-br','2165','InstanceRecord-Label','Dados da Instância')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2165,      'pt-br','2165','InstanceRecord-Label','Dados da Instância',getdate(),getdate())</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -11430,8 +11768,8 @@
         <v>'Salvar Instância'</v>
       </c>
       <c r="F166" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2166,      'pt-br','2166','SaveInstanceButton-Label','Salvar Instância')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2166,      'pt-br','2166','SaveInstanceButton-Label','Salvar Instância',getdate(),getdate())</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -11454,8 +11792,8 @@
         <v>'Clque aqui para salvar a Instância'</v>
       </c>
       <c r="F167" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2167,      'pt-br','2167','SaveInstanceButton-Description','Clque aqui para salvar a Instância')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2167,      'pt-br','2167','SaveInstanceButton-Description','Clque aqui para salvar a Instância',getdate(),getdate())</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -11478,8 +11816,8 @@
         <v>'Log de Dados'</v>
       </c>
       <c r="F168" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2168,      'pt-br','2168','DataLog-PageTitle','Log de Dados')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2168,      'pt-br','2168','DataLog-PageTitle','Log de Dados',getdate(),getdate())</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -11502,8 +11840,8 @@
         <v>'Por Tipo de Operação'</v>
       </c>
       <c r="F169" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2169,      'pt-br','2169','SearchByOperationType-Label','Por Tipo de Operação')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2169,      'pt-br','2169','SearchByOperationType-Label','Por Tipo de Operação',getdate(),getdate())</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -11514,7 +11852,7 @@
         <v>97</v>
       </c>
       <c r="C170" t="str">
-        <f t="shared" ref="C170:C233" si="8">"'" &amp; A170 &amp; "'"</f>
+        <f t="shared" ref="C170:C233" si="9">"'" &amp; A170 &amp; "'"</f>
         <v>'2170'</v>
       </c>
       <c r="D170" t="str">
@@ -11526,8 +11864,8 @@
         <v>'Por Objeto'</v>
       </c>
       <c r="F170" t="str">
-        <f t="shared" ref="F170:F233" si="9">"insert into sysLocalizationText Values(" &amp;A170 &amp; "," &amp; B170 &amp; "," &amp;C170 &amp; "," &amp; D170 &amp; "," &amp; E170 &amp; ")"</f>
-        <v>insert into sysLocalizationText Values(2170,      'pt-br','2170','SearchByObject-Label','Por Objeto')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2170,      'pt-br','2170','SearchByObject-Label','Por Objeto',getdate(),getdate())</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -11538,7 +11876,7 @@
         <v>97</v>
       </c>
       <c r="C171" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2171'</v>
       </c>
       <c r="D171" t="str">
@@ -11550,8 +11888,8 @@
         <v>'Por Intervalo de Datas'</v>
       </c>
       <c r="F171" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2171,      'pt-br','2171','SearchByIntervalDate-Label','Por Intervalo de Datas')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2171,      'pt-br','2171','SearchByIntervalDate-Label','Por Intervalo de Datas',getdate(),getdate())</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -11562,7 +11900,7 @@
         <v>97</v>
       </c>
       <c r="C172" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2172'</v>
       </c>
       <c r="D172" t="str">
@@ -11574,8 +11912,8 @@
         <v>'Data Inicial'</v>
       </c>
       <c r="F172" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2172,      'pt-br','2172','SearchByInicialDate-Label','Data Inicial')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2172,      'pt-br','2172','SearchByInicialDate-Label','Data Inicial',getdate(),getdate())</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -11586,7 +11924,7 @@
         <v>97</v>
       </c>
       <c r="C173" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2173'</v>
       </c>
       <c r="D173" t="str">
@@ -11598,8 +11936,8 @@
         <v>'Data Final'</v>
       </c>
       <c r="F173" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2173,      'pt-br','2173','SearchByFinalDate-Label','Data Final')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2173,      'pt-br','2173','SearchByFinalDate-Label','Data Final',getdate(),getdate())</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -11610,7 +11948,7 @@
         <v>97</v>
       </c>
       <c r="C174" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2174'</v>
       </c>
       <c r="D174" t="str">
@@ -11622,8 +11960,8 @@
         <v>'Por ID do Registro'</v>
       </c>
       <c r="F174" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2174,      'pt-br','2174','SearchByRecordID-Label','Por ID do Registro')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2174,      'pt-br','2174','SearchByRecordID-Label','Por ID do Registro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -11634,7 +11972,7 @@
         <v>97</v>
       </c>
       <c r="C175" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2175'</v>
       </c>
       <c r="D175" t="str">
@@ -11646,8 +11984,8 @@
         <v>'Tabela'</v>
       </c>
       <c r="F175" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2175,      'pt-br','2175','TableName-Label','Tabela')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2175,      'pt-br','2175','TableName-Label','Tabela',getdate(),getdate())</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -11658,7 +11996,7 @@
         <v>97</v>
       </c>
       <c r="C176" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2176'</v>
       </c>
       <c r="D176" t="str">
@@ -11670,8 +12008,8 @@
         <v>'Operação'</v>
       </c>
       <c r="F176" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2176,      'pt-br','2176','OperationText-Label','Operação')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2176,      'pt-br','2176','OperationText-Label','Operação',getdate(),getdate())</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -11682,7 +12020,7 @@
         <v>97</v>
       </c>
       <c r="C177" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2177'</v>
       </c>
       <c r="D177" t="str">
@@ -11694,8 +12032,8 @@
         <v>'Log ID'</v>
       </c>
       <c r="F177" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2177,      'pt-br','2177','LogID-Label','Log ID')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2177,      'pt-br','2177','LogID-Label','Log ID',getdate(),getdate())</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -11706,7 +12044,7 @@
         <v>97</v>
       </c>
       <c r="C178" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2178'</v>
       </c>
       <c r="D178" t="str">
@@ -11718,8 +12056,8 @@
         <v>'Informação do Log'</v>
       </c>
       <c r="F178" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2178,      'pt-br','2178','LogInformation-Label','Informação do Log')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2178,      'pt-br','2178','LogInformation-Label','Informação do Log',getdate(),getdate())</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -11730,7 +12068,7 @@
         <v>97</v>
       </c>
       <c r="C179" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2179'</v>
       </c>
       <c r="D179" t="str">
@@ -11742,8 +12080,8 @@
         <v>'Exibir Linha do Tempo'</v>
       </c>
       <c r="F179" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2179,      'pt-br','2179','ShowTimeLine-Label','Exibir Linha do Tempo')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2179,      'pt-br','2179','ShowTimeLine-Label','Exibir Linha do Tempo',getdate(),getdate())</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -11754,7 +12092,7 @@
         <v>97</v>
       </c>
       <c r="C180" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2180'</v>
       </c>
       <c r="D180" t="str">
@@ -11766,8 +12104,8 @@
         <v>'Versão Antiga'</v>
       </c>
       <c r="F180" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2180,      'pt-br','2180','OldVersionData-Label','Versão Antiga')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2180,      'pt-br','2180','OldVersionData-Label','Versão Antiga',getdate(),getdate())</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -11778,7 +12116,7 @@
         <v>97</v>
       </c>
       <c r="C181" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2181'</v>
       </c>
       <c r="D181" t="str">
@@ -11790,8 +12128,8 @@
         <v>'Não existe versão antiga'</v>
       </c>
       <c r="F181" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2181,      'pt-br','2181','HasNoOldVersion-Label','Não existe versão antiga')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2181,      'pt-br','2181','HasNoOldVersion-Label','Não existe versão antiga',getdate(),getdate())</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -11802,7 +12140,7 @@
         <v>97</v>
       </c>
       <c r="C182" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2182'</v>
       </c>
       <c r="D182" t="str">
@@ -11814,8 +12152,8 @@
         <v>'Versão Atual'</v>
       </c>
       <c r="F182" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2182,      'pt-br','2182','CurrentVersionData-Label','Versão Atual')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2182,      'pt-br','2182','CurrentVersionData-Label','Versão Atual',getdate(),getdate())</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -11826,7 +12164,7 @@
         <v>97</v>
       </c>
       <c r="C183" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2183'</v>
       </c>
       <c r="D183" t="str">
@@ -11838,8 +12176,8 @@
         <v>'Não existe versão atual'</v>
       </c>
       <c r="F183" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2183,      'pt-br','2183','HasNoCurrentVersion-Label','Não existe versão atual')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2183,      'pt-br','2183','HasNoCurrentVersion-Label','Não existe versão atual',getdate(),getdate())</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -11850,7 +12188,7 @@
         <v>97</v>
       </c>
       <c r="C184" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2184'</v>
       </c>
       <c r="D184" t="str">
@@ -11862,8 +12200,8 @@
         <v>'Linha do Tempo do Registro'</v>
       </c>
       <c r="F184" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2184,      'pt-br','2184','RecordTimeLine-Label','Linha do Tempo do Registro')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2184,      'pt-br','2184','RecordTimeLine-Label','Linha do Tempo do Registro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -11874,7 +12212,7 @@
         <v>97</v>
       </c>
       <c r="C185" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2185'</v>
       </c>
       <c r="D185" t="str">
@@ -11886,8 +12224,8 @@
         <v>'Não existe dados da Linha do Tempo'</v>
       </c>
       <c r="F185" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2185,      'pt-br','2185','HasNoTimeLine-Label','Não existe dados da Linha do Tempo')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2185,      'pt-br','2185','HasNoTimeLine-Label','Não existe dados da Linha do Tempo',getdate(),getdate())</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -11898,7 +12236,7 @@
         <v>97</v>
       </c>
       <c r="C186" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2186'</v>
       </c>
       <c r="D186" t="str">
@@ -11910,8 +12248,8 @@
         <v>'Textos de Localização'</v>
       </c>
       <c r="F186" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2186,      'pt-br','2186','Localization-PageTitle','Textos de Localização')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2186,      'pt-br','2186','Localization-PageTitle','Textos de Localização',getdate(),getdate())</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -11922,7 +12260,7 @@
         <v>97</v>
       </c>
       <c r="C187" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2187'</v>
       </c>
       <c r="D187" t="str">
@@ -11934,8 +12272,8 @@
         <v>'Por Linguagem'</v>
       </c>
       <c r="F187" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2187,      'pt-br','2187','SearchByLanguage-Label','Por Linguagem')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2187,      'pt-br','2187','SearchByLanguage-Label','Por Linguagem',getdate(),getdate())</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -11946,7 +12284,7 @@
         <v>97</v>
       </c>
       <c r="C188" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2188'</v>
       </c>
       <c r="D188" t="str">
@@ -11958,8 +12296,8 @@
         <v>'Pesquisar por Linguagem'</v>
       </c>
       <c r="F188" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2188,      'pt-br','2188','SearchByLanguage-Description','Pesquisar por Linguagem')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2188,      'pt-br','2188','SearchByLanguage-Description','Pesquisar por Linguagem',getdate(),getdate())</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -11970,7 +12308,7 @@
         <v>97</v>
       </c>
       <c r="C189" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2189'</v>
       </c>
       <c r="D189" t="str">
@@ -11982,8 +12320,8 @@
         <v>'Por Código'</v>
       </c>
       <c r="F189" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2189,      'pt-br','2189','SearchByLocalizationCode-Label','Por Código')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2189,      'pt-br','2189','SearchByLocalizationCode-Label','Por Código',getdate(),getdate())</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -11994,7 +12332,7 @@
         <v>97</v>
       </c>
       <c r="C190" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2190'</v>
       </c>
       <c r="D190" t="str">
@@ -12006,8 +12344,8 @@
         <v>'Pesquisar por Código'</v>
       </c>
       <c r="F190" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2190,      'pt-br','2190','SearchByLocalizationCode-Description','Pesquisar por Código')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2190,      'pt-br','2190','SearchByLocalizationCode-Description','Pesquisar por Código',getdate(),getdate())</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -12018,7 +12356,7 @@
         <v>97</v>
       </c>
       <c r="C191" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2191'</v>
       </c>
       <c r="D191" t="str">
@@ -12030,8 +12368,8 @@
         <v>'Por Nome'</v>
       </c>
       <c r="F191" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2191,      'pt-br','2191','SearchByLocalizationName-Label','Por Nome')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2191,      'pt-br','2191','SearchByLocalizationName-Label','Por Nome',getdate(),getdate())</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -12042,7 +12380,7 @@
         <v>97</v>
       </c>
       <c r="C192" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2192'</v>
       </c>
       <c r="D192" t="str">
@@ -12054,8 +12392,8 @@
         <v>'Pesquisar por Nome'</v>
       </c>
       <c r="F192" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2192,      'pt-br','2192','SearchByLocalizationName-Description','Pesquisar por Nome')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2192,      'pt-br','2192','SearchByLocalizationName-Description','Pesquisar por Nome',getdate(),getdate())</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -12066,7 +12404,7 @@
         <v>97</v>
       </c>
       <c r="C193" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2193'</v>
       </c>
       <c r="D193" t="str">
@@ -12078,8 +12416,8 @@
         <v>'Por Texto'</v>
       </c>
       <c r="F193" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2193,      'pt-br','2193','SearchByLocalizationText-Label','Por Texto')</v>
+        <f t="shared" si="8"/>
+        <v>insert into sysLocalizationText Values(2193,      'pt-br','2193','SearchByLocalizationText-Label','Por Texto',getdate(),getdate())</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -12090,7 +12428,7 @@
         <v>97</v>
       </c>
       <c r="C194" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2194'</v>
       </c>
       <c r="D194" t="str">
@@ -12102,8 +12440,8 @@
         <v>'Pesquisar por Texto'</v>
       </c>
       <c r="F194" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2194,      'pt-br','2194','SearchByLocalizationText-Description','Pesquisar por Texto')</v>
+        <f t="shared" ref="F194:F257" si="10">"insert into sysLocalizationText Values(" &amp;A194 &amp; "," &amp; B194 &amp; "," &amp;C194 &amp; "," &amp; D194 &amp; "," &amp; E194 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(2194,      'pt-br','2194','SearchByLocalizationText-Description','Pesquisar por Texto',getdate(),getdate())</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -12114,7 +12452,7 @@
         <v>97</v>
       </c>
       <c r="C195" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2195'</v>
       </c>
       <c r="D195" t="str">
@@ -12126,8 +12464,8 @@
         <v>'Linguagem'</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2195,      'pt-br','2195','Language-Label','Linguagem')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2195,      'pt-br','2195','Language-Label','Linguagem',getdate(),getdate())</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -12138,7 +12476,7 @@
         <v>97</v>
       </c>
       <c r="C196" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2196'</v>
       </c>
       <c r="D196" t="str">
@@ -12150,8 +12488,8 @@
         <v>'Código'</v>
       </c>
       <c r="F196" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2196,      'pt-br','2196','LocalizationCode-Label','Código')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2196,      'pt-br','2196','LocalizationCode-Label','Código',getdate(),getdate())</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -12162,7 +12500,7 @@
         <v>97</v>
       </c>
       <c r="C197" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2197'</v>
       </c>
       <c r="D197" t="str">
@@ -12174,8 +12512,8 @@
         <v>'Nome'</v>
       </c>
       <c r="F197" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2197,      'pt-br','2197','LocalizationName-Label','Nome')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2197,      'pt-br','2197','LocalizationName-Label','Nome',getdate(),getdate())</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -12186,7 +12524,7 @@
         <v>97</v>
       </c>
       <c r="C198" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2198'</v>
       </c>
       <c r="D198" t="str">
@@ -12198,8 +12536,8 @@
         <v>'Dados do Texto de Localização'</v>
       </c>
       <c r="F198" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2198,      'pt-br','2198','LocalizationRecord-Label','Dados do Texto de Localização')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2198,      'pt-br','2198','LocalizationRecord-Label','Dados do Texto de Localização',getdate(),getdate())</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -12210,7 +12548,7 @@
         <v>97</v>
       </c>
       <c r="C199" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2199'</v>
       </c>
       <c r="D199" t="str">
@@ -12222,8 +12560,8 @@
         <v>'Texto '</v>
       </c>
       <c r="F199" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2199,      'pt-br','2199','LocalizationText-Label','Texto ')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2199,      'pt-br','2199','LocalizationText-Label','Texto ',getdate(),getdate())</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -12234,7 +12572,7 @@
         <v>97</v>
       </c>
       <c r="C200" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2200'</v>
       </c>
       <c r="D200" t="str">
@@ -12246,8 +12584,8 @@
         <v>'Salvar Texto de Localização'</v>
       </c>
       <c r="F200" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2200,      'pt-br','2200','SaveLocalizationButton-Label','Salvar Texto de Localização')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2200,      'pt-br','2200','SaveLocalizationButton-Label','Salvar Texto de Localização',getdate(),getdate())</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -12258,7 +12596,7 @@
         <v>97</v>
       </c>
       <c r="C201" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2201'</v>
       </c>
       <c r="D201" t="str">
@@ -12270,8 +12608,8 @@
         <v>'Clique aqui para salvar os dados.'</v>
       </c>
       <c r="F201" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2201,      'pt-br','2201','SaveLocalizationButton-Description','Clique aqui para salvar os dados.')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2201,      'pt-br','2201','SaveLocalizationButton-Description','Clique aqui para salvar os dados.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -12282,7 +12620,7 @@
         <v>97</v>
       </c>
       <c r="C202" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2202'</v>
       </c>
       <c r="D202" t="str">
@@ -12294,8 +12632,8 @@
         <v>'Novo Texto de Localização'</v>
       </c>
       <c r="F202" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2202,      'pt-br','2202','NewLocalization-Label','Novo Texto de Localização')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2202,      'pt-br','2202','NewLocalization-Label','Novo Texto de Localização',getdate(),getdate())</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -12306,7 +12644,7 @@
         <v>97</v>
       </c>
       <c r="C203" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2203'</v>
       </c>
       <c r="D203" t="str">
@@ -12318,8 +12656,8 @@
         <v>'Objeto de Permissão'</v>
       </c>
       <c r="F203" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2203,      'pt-br','2203','ObjectPermission-PageTitle','Objeto de Permissão')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2203,      'pt-br','2203','ObjectPermission-PageTitle','Objeto de Permissão',getdate(),getdate())</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -12330,7 +12668,7 @@
         <v>97</v>
       </c>
       <c r="C204" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2204'</v>
       </c>
       <c r="D204" t="str">
@@ -12342,8 +12680,8 @@
         <v>'Por Nome'</v>
       </c>
       <c r="F204" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2204,      'pt-br','2204','SearchByObjectName-Label','Por Nome')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2204,      'pt-br','2204','SearchByObjectName-Label','Por Nome',getdate(),getdate())</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -12354,7 +12692,7 @@
         <v>97</v>
       </c>
       <c r="C205" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2205'</v>
       </c>
       <c r="D205" t="str">
@@ -12366,8 +12704,8 @@
         <v>'Pesquisar por Nome'</v>
       </c>
       <c r="F205" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2205,      'pt-br','2205','SearchByObjectName-Description','Pesquisar por Nome')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2205,      'pt-br','2205','SearchByObjectName-Description','Pesquisar por Nome',getdate(),getdate())</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -12378,7 +12716,7 @@
         <v>97</v>
       </c>
       <c r="C206" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2206'</v>
       </c>
       <c r="D206" t="str">
@@ -12390,8 +12728,8 @@
         <v>'Por Código'</v>
       </c>
       <c r="F206" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2206,      'pt-br','2206','SearchByObjectCode-Label','Por Código')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2206,      'pt-br','2206','SearchByObjectCode-Label','Por Código',getdate(),getdate())</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -12402,7 +12740,7 @@
         <v>97</v>
       </c>
       <c r="C207" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2207'</v>
       </c>
       <c r="D207" t="str">
@@ -12414,8 +12752,8 @@
         <v>'Pesquisar por Código'</v>
       </c>
       <c r="F207" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2207,      'pt-br','2207','SearchByObjectCode-Description','Pesquisar por Código')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2207,      'pt-br','2207','SearchByObjectCode-Description','Pesquisar por Código',getdate(),getdate())</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -12426,7 +12764,7 @@
         <v>97</v>
       </c>
       <c r="C208" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2208'</v>
       </c>
       <c r="D208" t="str">
@@ -12438,8 +12776,8 @@
         <v>'Novo Objeto de Permissão'</v>
       </c>
       <c r="F208" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2208,      'pt-br','2208','NewObject-Label','Novo Objeto de Permissão')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2208,      'pt-br','2208','NewObject-Label','Novo Objeto de Permissão',getdate(),getdate())</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -12450,7 +12788,7 @@
         <v>97</v>
       </c>
       <c r="C209" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2209'</v>
       </c>
       <c r="D209" t="str">
@@ -12462,8 +12800,8 @@
         <v>'Nome'</v>
       </c>
       <c r="F209" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2209,      'pt-br','2209','ObjectName-Label','Nome')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2209,      'pt-br','2209','ObjectName-Label','Nome',getdate(),getdate())</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -12474,7 +12812,7 @@
         <v>97</v>
       </c>
       <c r="C210" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2210'</v>
       </c>
       <c r="D210" t="str">
@@ -12486,8 +12824,8 @@
         <v>'Código'</v>
       </c>
       <c r="F210" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2210,      'pt-br','2210','ObjectCode-Label','Código')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2210,      'pt-br','2210','ObjectCode-Label','Código',getdate(),getdate())</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -12498,7 +12836,7 @@
         <v>97</v>
       </c>
       <c r="C211" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2211'</v>
       </c>
       <c r="D211" t="str">
@@ -12510,8 +12848,8 @@
         <v>'Dados do Objeto de Permissão'</v>
       </c>
       <c r="F211" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2211,      'pt-br','2211','ObjectPermissionRecord-Label','Dados do Objeto de Permissão')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2211,      'pt-br','2211','ObjectPermissionRecord-Label','Dados do Objeto de Permissão',getdate(),getdate())</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -12522,7 +12860,7 @@
         <v>97</v>
       </c>
       <c r="C212" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2212'</v>
       </c>
       <c r="D212" t="str">
@@ -12534,8 +12872,8 @@
         <v>'Salvar Objeto de Permissão'</v>
       </c>
       <c r="F212" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2212,      'pt-br','2212','SaveObjectPermissionButton-Label','Salvar Objeto de Permissão')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2212,      'pt-br','2212','SaveObjectPermissionButton-Label','Salvar Objeto de Permissão',getdate(),getdate())</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -12546,7 +12884,7 @@
         <v>97</v>
       </c>
       <c r="C213" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2213'</v>
       </c>
       <c r="D213" t="str">
@@ -12558,8 +12896,8 @@
         <v>'Clique aqui para salvar o Objeto de Permissão'</v>
       </c>
       <c r="F213" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2213,      'pt-br','2213','SaveObjectPermissionButton-Description','Clique aqui para salvar o Objeto de Permissão')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2213,      'pt-br','2213','SaveObjectPermissionButton-Description','Clique aqui para salvar o Objeto de Permissão',getdate(),getdate())</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -12570,7 +12908,7 @@
         <v>97</v>
       </c>
       <c r="C214" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2214'</v>
       </c>
       <c r="D214" t="str">
@@ -12582,8 +12920,8 @@
         <v>'Permissões'</v>
       </c>
       <c r="F214" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2214,      'pt-br','2214','Permission-PageTitle','Permissões')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2214,      'pt-br','2214','Permission-PageTitle','Permissões',getdate(),getdate())</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -12594,7 +12932,7 @@
         <v>97</v>
       </c>
       <c r="C215" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2215'</v>
       </c>
       <c r="D215" t="str">
@@ -12606,8 +12944,8 @@
         <v>'Por Objeto de Permissão'</v>
       </c>
       <c r="F215" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2215,      'pt-br','2215','SearchByObjectPermission-Label','Por Objeto de Permissão')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2215,      'pt-br','2215','SearchByObjectPermission-Label','Por Objeto de Permissão',getdate(),getdate())</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -12618,7 +12956,7 @@
         <v>97</v>
       </c>
       <c r="C216" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2216'</v>
       </c>
       <c r="D216" t="str">
@@ -12630,8 +12968,8 @@
         <v>'Por Perfil'</v>
       </c>
       <c r="F216" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2216,      'pt-br','2216','SearchByRole-Label','Por Perfil')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2216,      'pt-br','2216','SearchByRole-Label','Por Perfil',getdate(),getdate())</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -12642,7 +12980,7 @@
         <v>97</v>
       </c>
       <c r="C217" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2217'</v>
       </c>
       <c r="D217" t="str">
@@ -12654,8 +12992,8 @@
         <v>'Por Usuário'</v>
       </c>
       <c r="F217" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2217,      'pt-br','2217','SearchByUser-Label','Por Usuário')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2217,      'pt-br','2217','SearchByUser-Label','Por Usuário',getdate(),getdate())</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -12666,7 +13004,7 @@
         <v>97</v>
       </c>
       <c r="C218" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2218'</v>
       </c>
       <c r="D218" t="str">
@@ -12678,8 +13016,8 @@
         <v>'Nova Permissão'</v>
       </c>
       <c r="F218" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2218,      'pt-br','2218','NewPermission-Label','Nova Permissão')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2218,      'pt-br','2218','NewPermission-Label','Nova Permissão',getdate(),getdate())</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -12690,7 +13028,7 @@
         <v>97</v>
       </c>
       <c r="C219" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2219'</v>
       </c>
       <c r="D219" t="str">
@@ -12702,8 +13040,8 @@
         <v>'Clique aqui para inserir uma nova Permissão'</v>
       </c>
       <c r="F219" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2219,      'pt-br','2219','NewPermission-Description','Clique aqui para inserir uma nova Permissão')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2219,      'pt-br','2219','NewPermission-Description','Clique aqui para inserir uma nova Permissão',getdate(),getdate())</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -12714,7 +13052,7 @@
         <v>97</v>
       </c>
       <c r="C220" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2220'</v>
       </c>
       <c r="D220" t="str">
@@ -12726,8 +13064,8 @@
         <v>'Objeto de Permissão'</v>
       </c>
       <c r="F220" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2220,      'pt-br','2220','ObjectName-Label','Objeto de Permissão')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2220,      'pt-br','2220','ObjectName-Label','Objeto de Permissão',getdate(),getdate())</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -12738,7 +13076,7 @@
         <v>97</v>
       </c>
       <c r="C221" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2221'</v>
       </c>
       <c r="D221" t="str">
@@ -12750,8 +13088,8 @@
         <v>'Perfil'</v>
       </c>
       <c r="F221" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2221,      'pt-br','2221','RoleName-Label','Perfil')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2221,      'pt-br','2221','RoleName-Label','Perfil',getdate(),getdate())</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -12762,7 +13100,7 @@
         <v>97</v>
       </c>
       <c r="C222" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2222'</v>
       </c>
       <c r="D222" t="str">
@@ -12774,8 +13112,8 @@
         <v>'Dados da Permissão'</v>
       </c>
       <c r="F222" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2222,      'pt-br','2222','PermissionRecord-Label','Dados da Permissão')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2222,      'pt-br','2222','PermissionRecord-Label','Dados da Permissão',getdate(),getdate())</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -12786,7 +13124,7 @@
         <v>97</v>
       </c>
       <c r="C223" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2223'</v>
       </c>
       <c r="D223" t="str">
@@ -12798,8 +13136,8 @@
         <v>'Tipo de Permissão'</v>
       </c>
       <c r="F223" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2223,      'pt-br','2223','PermissionType-Label','Tipo de Permissão')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2223,      'pt-br','2223','PermissionType-Label','Tipo de Permissão',getdate(),getdate())</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -12810,7 +13148,7 @@
         <v>97</v>
       </c>
       <c r="C224" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2224'</v>
       </c>
       <c r="D224" t="str">
@@ -12822,8 +13160,8 @@
         <v>'Status de Leitura'</v>
       </c>
       <c r="F224" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2224,      'pt-br','2224','ReadStatus-Label','Status de Leitura')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2224,      'pt-br','2224','ReadStatus-Label','Status de Leitura',getdate(),getdate())</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -12834,7 +13172,7 @@
         <v>97</v>
       </c>
       <c r="C225" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2225'</v>
       </c>
       <c r="D225" t="str">
@@ -12846,8 +13184,8 @@
         <v>'Status de Gravação'</v>
       </c>
       <c r="F225" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2225,      'pt-br','2225','SaveStatus-Label','Status de Gravação')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2225,      'pt-br','2225','SaveStatus-Label','Status de Gravação',getdate(),getdate())</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -12858,7 +13196,7 @@
         <v>97</v>
       </c>
       <c r="C226" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2226'</v>
       </c>
       <c r="D226" t="str">
@@ -12870,8 +13208,8 @@
         <v>'Status de Exclusão'</v>
       </c>
       <c r="F226" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2226,      'pt-br','2226','DeleteStatus-Label','Status de Exclusão')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2226,      'pt-br','2226','DeleteStatus-Label','Status de Exclusão',getdate(),getdate())</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -12882,7 +13220,7 @@
         <v>97</v>
       </c>
       <c r="C227" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2227'</v>
       </c>
       <c r="D227" t="str">
@@ -12894,8 +13232,8 @@
         <v>'Salvar Permissão'</v>
       </c>
       <c r="F227" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2227,      'pt-br','2227','SavePermissionButton-Label','Salvar Permissão')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2227,      'pt-br','2227','SavePermissionButton-Label','Salvar Permissão',getdate(),getdate())</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -12906,7 +13244,7 @@
         <v>97</v>
       </c>
       <c r="C228" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2228'</v>
       </c>
       <c r="D228" t="str">
@@ -12918,8 +13256,8 @@
         <v>'Clique aqui para salvar a Permissão'</v>
       </c>
       <c r="F228" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2228,      'pt-br','2228','SavePermissionButton-Description','Clique aqui para salvar a Permissão')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2228,      'pt-br','2228','SavePermissionButton-Description','Clique aqui para salvar a Permissão',getdate(),getdate())</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -12930,7 +13268,7 @@
         <v>97</v>
       </c>
       <c r="C229" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2229'</v>
       </c>
       <c r="D229" t="str">
@@ -12942,8 +13280,8 @@
         <v>'Perfil'</v>
       </c>
       <c r="F229" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2229,      'pt-br','2229','Role-PageTitle','Perfil')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2229,      'pt-br','2229','Role-PageTitle','Perfil',getdate(),getdate())</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -12954,7 +13292,7 @@
         <v>97</v>
       </c>
       <c r="C230" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2230'</v>
       </c>
       <c r="D230" t="str">
@@ -12966,8 +13304,8 @@
         <v>'Por Nome do Perfil'</v>
       </c>
       <c r="F230" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2230,      'pt-br','2230','SearchByRoleName-Label','Por Nome do Perfil')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2230,      'pt-br','2230','SearchByRoleName-Label','Por Nome do Perfil',getdate(),getdate())</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -12978,7 +13316,7 @@
         <v>97</v>
       </c>
       <c r="C231" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2231'</v>
       </c>
       <c r="D231" t="str">
@@ -12990,8 +13328,8 @@
         <v>'Pesquisar por Nome do Perfil'</v>
       </c>
       <c r="F231" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2231,      'pt-br','2231','SearchByRoleName-Description','Pesquisar por Nome do Perfil')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2231,      'pt-br','2231','SearchByRoleName-Description','Pesquisar por Nome do Perfil',getdate(),getdate())</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -13002,7 +13340,7 @@
         <v>97</v>
       </c>
       <c r="C232" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2232'</v>
       </c>
       <c r="D232" t="str">
@@ -13014,8 +13352,8 @@
         <v>'Novo Perfil'</v>
       </c>
       <c r="F232" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2232,      'pt-br','2232','NewRole-Label','Novo Perfil')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2232,      'pt-br','2232','NewRole-Label','Novo Perfil',getdate(),getdate())</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -13026,7 +13364,7 @@
         <v>97</v>
       </c>
       <c r="C233" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>'2233'</v>
       </c>
       <c r="D233" t="str">
@@ -13038,8 +13376,8 @@
         <v>'Clique aqui para criar um novo Perfil'</v>
       </c>
       <c r="F233" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into sysLocalizationText Values(2233,      'pt-br','2233','NewRole-Description','Clique aqui para criar um novo Perfil')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2233,      'pt-br','2233','NewRole-Description','Clique aqui para criar um novo Perfil',getdate(),getdate())</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -13050,7 +13388,7 @@
         <v>97</v>
       </c>
       <c r="C234" t="str">
-        <f t="shared" ref="C234:C255" si="10">"'" &amp; A234 &amp; "'"</f>
+        <f t="shared" ref="C234:C255" si="11">"'" &amp; A234 &amp; "'"</f>
         <v>'2234'</v>
       </c>
       <c r="D234" t="str">
@@ -13062,8 +13400,8 @@
         <v>'Nome do Perfil'</v>
       </c>
       <c r="F234" t="str">
-        <f t="shared" ref="F234:F282" si="11">"insert into sysLocalizationText Values(" &amp;A234 &amp; "," &amp; B234 &amp; "," &amp;C234 &amp; "," &amp; D234 &amp; "," &amp; E234 &amp; ")"</f>
-        <v>insert into sysLocalizationText Values(2234,      'pt-br','2234','RoleName-Label','Nome do Perfil')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2234,      'pt-br','2234','RoleName-Label','Nome do Perfil',getdate(),getdate())</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -13074,7 +13412,7 @@
         <v>97</v>
       </c>
       <c r="C235" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2235'</v>
       </c>
       <c r="D235" t="str">
@@ -13086,8 +13424,8 @@
         <v>'Dados do Perfil'</v>
       </c>
       <c r="F235" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2235,      'pt-br','2235','RoleRecord-Label','Dados do Perfil')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2235,      'pt-br','2235','RoleRecord-Label','Dados do Perfil',getdate(),getdate())</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -13098,7 +13436,7 @@
         <v>97</v>
       </c>
       <c r="C236" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2236'</v>
       </c>
       <c r="D236" t="str">
@@ -13110,8 +13448,8 @@
         <v>'Salvar Perfil'</v>
       </c>
       <c r="F236" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2236,      'pt-br','2236','SaveRoleButton-Label','Salvar Perfil')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2236,      'pt-br','2236','SaveRoleButton-Label','Salvar Perfil',getdate(),getdate())</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -13122,7 +13460,7 @@
         <v>97</v>
       </c>
       <c r="C237" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2237'</v>
       </c>
       <c r="D237" t="str">
@@ -13134,8 +13472,8 @@
         <v>'Clique aqui para salvar o Perfil'</v>
       </c>
       <c r="F237" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2237,      'pt-br','2237','SaveRoleButton-Description','Clique aqui para salvar o Perfil')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2237,      'pt-br','2237','SaveRoleButton-Description','Clique aqui para salvar o Perfil',getdate(),getdate())</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -13146,7 +13484,7 @@
         <v>97</v>
       </c>
       <c r="C238" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2238'</v>
       </c>
       <c r="D238" t="str">
@@ -13158,8 +13496,8 @@
         <v>'Dados de Sessão'</v>
       </c>
       <c r="F238" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2238,      'pt-br','2238','SessionLog-PageTitle','Dados de Sessão')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2238,      'pt-br','2238','SessionLog-PageTitle','Dados de Sessão',getdate(),getdate())</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -13170,7 +13508,7 @@
         <v>97</v>
       </c>
       <c r="C239" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2239'</v>
       </c>
       <c r="D239" t="str">
@@ -13182,8 +13520,8 @@
         <v>'Pesquisar por E-mail'</v>
       </c>
       <c r="F239" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2239,      'pt-br','2239','SearchByEmail-Description','Pesquisar por E-mail')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2239,      'pt-br','2239','SearchByEmail-Description','Pesquisar por E-mail',getdate(),getdate())</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -13194,7 +13532,7 @@
         <v>97</v>
       </c>
       <c r="C240" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2240'</v>
       </c>
       <c r="D240" t="str">
@@ -13206,8 +13544,8 @@
         <v>'Por Intervalo de Dados'</v>
       </c>
       <c r="F240" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2240,      'pt-br','2240','SearchByDateInterval-Label','Por Intervalo de Dados')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2240,      'pt-br','2240','SearchByDateInterval-Label','Por Intervalo de Dados',getdate(),getdate())</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -13218,7 +13556,7 @@
         <v>97</v>
       </c>
       <c r="C241" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2241'</v>
       </c>
       <c r="D241" t="str">
@@ -13230,8 +13568,8 @@
         <v>'Data Inicial'</v>
       </c>
       <c r="F241" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2241,      'pt-br','2241','SearchByInicialDate-Label','Data Inicial')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2241,      'pt-br','2241','SearchByInicialDate-Label','Data Inicial',getdate(),getdate())</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -13242,7 +13580,7 @@
         <v>97</v>
       </c>
       <c r="C242" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2242'</v>
       </c>
       <c r="D242" t="str">
@@ -13254,8 +13592,8 @@
         <v>'Data Final'</v>
       </c>
       <c r="F242" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2242,      'pt-br','2242','SearchByFinalDate-Label','Data Final')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2242,      'pt-br','2242','SearchByFinalDate-Label','Data Final',getdate(),getdate())</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -13266,7 +13604,7 @@
         <v>97</v>
       </c>
       <c r="C243" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2243'</v>
       </c>
       <c r="D243" t="str">
@@ -13278,8 +13616,8 @@
         <v>'Data de Acesso'</v>
       </c>
       <c r="F243" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2243,      'pt-br','2243','AccessDate-Label','Data de Acesso')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2243,      'pt-br','2243','AccessDate-Label','Data de Acesso',getdate(),getdate())</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -13290,7 +13628,7 @@
         <v>97</v>
       </c>
       <c r="C244" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2244'</v>
       </c>
       <c r="D244" t="str">
@@ -13302,8 +13640,8 @@
         <v>'IP'</v>
       </c>
       <c r="F244" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2244,      'pt-br','2244','IP-Label','IP')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2244,      'pt-br','2244','IP-Label','IP',getdate(),getdate())</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -13314,7 +13652,7 @@
         <v>97</v>
       </c>
       <c r="C245" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2245'</v>
       </c>
       <c r="D245" t="str">
@@ -13326,8 +13664,8 @@
         <v>'Super Admin'</v>
       </c>
       <c r="F245" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2245,      'pt-br','2245','SuperAdmin-MenuText','Super Admin')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2245,      'pt-br','2245','SuperAdmin-MenuText','Super Admin',getdate(),getdate())</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -13338,7 +13676,7 @@
         <v>97</v>
       </c>
       <c r="C246" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2246'</v>
       </c>
       <c r="D246" t="str">
@@ -13350,8 +13688,8 @@
         <v>'Gerenciamento'</v>
       </c>
       <c r="F246" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2246,      'pt-br','2246','BasicsData-MenuText','Gerenciamento')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2246,      'pt-br','2246','BasicsData-MenuText','Gerenciamento',getdate(),getdate())</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -13362,7 +13700,7 @@
         <v>97</v>
       </c>
       <c r="C247" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2247'</v>
       </c>
       <c r="D247" t="str">
@@ -13374,8 +13712,8 @@
         <v>'Monitoramento'</v>
       </c>
       <c r="F247" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2247,      'pt-br','2247','Monitoring-MenuText','Monitoramento')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2247,      'pt-br','2247','Monitoring-MenuText','Monitoramento',getdate(),getdate())</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -13386,7 +13724,7 @@
         <v>97</v>
       </c>
       <c r="C248" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2248'</v>
       </c>
       <c r="D248" t="str">
@@ -13398,8 +13736,8 @@
         <v>'Instâncias'</v>
       </c>
       <c r="F248" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2248,      'pt-br','2248','Instance-MenuText','Instâncias')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2248,      'pt-br','2248','Instance-MenuText','Instâncias',getdate(),getdate())</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -13410,7 +13748,7 @@
         <v>97</v>
       </c>
       <c r="C249" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2249'</v>
       </c>
       <c r="D249" t="str">
@@ -13422,8 +13760,8 @@
         <v>'Perfils'</v>
       </c>
       <c r="F249" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2249,      'pt-br','2249','Role-MenuText','Perfils')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2249,      'pt-br','2249','Role-MenuText','Perfils',getdate(),getdate())</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -13434,7 +13772,7 @@
         <v>97</v>
       </c>
       <c r="C250" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2250'</v>
       </c>
       <c r="D250" t="str">
@@ -13446,8 +13784,8 @@
         <v>'Usuários'</v>
       </c>
       <c r="F250" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2250,      'pt-br','2250','Users-MenuText','Usuários')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2250,      'pt-br','2250','Users-MenuText','Usuários',getdate(),getdate())</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -13458,7 +13796,7 @@
         <v>97</v>
       </c>
       <c r="C251" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2251'</v>
       </c>
       <c r="D251" t="str">
@@ -13470,8 +13808,8 @@
         <v>'Objetos de Permissões'</v>
       </c>
       <c r="F251" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2251,      'pt-br','2251','ObjectPermission-MenuText','Objetos de Permissões')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2251,      'pt-br','2251','ObjectPermission-MenuText','Objetos de Permissões',getdate(),getdate())</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -13482,7 +13820,7 @@
         <v>97</v>
       </c>
       <c r="C252" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2252'</v>
       </c>
       <c r="D252" t="str">
@@ -13494,8 +13832,8 @@
         <v>'Permissões'</v>
       </c>
       <c r="F252" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2252,      'pt-br','2252','Permissions-MenuText','Permissões')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2252,      'pt-br','2252','Permissions-MenuText','Permissões',getdate(),getdate())</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -13506,7 +13844,7 @@
         <v>97</v>
       </c>
       <c r="C253" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2253'</v>
       </c>
       <c r="D253" t="str">
@@ -13518,8 +13856,8 @@
         <v>'Textos de Localização'</v>
       </c>
       <c r="F253" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2253,      'pt-br','2253','Localization-MenuText','Textos de Localização')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2253,      'pt-br','2253','Localization-MenuText','Textos de Localização',getdate(),getdate())</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -13530,7 +13868,7 @@
         <v>97</v>
       </c>
       <c r="C254" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2256'</v>
       </c>
       <c r="D254" t="str">
@@ -13542,8 +13880,8 @@
         <v>'Log de Dados'</v>
       </c>
       <c r="F254" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2256,      'pt-br','2256','DataLog-MenuText','Log de Dados')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2256,      'pt-br','2256','DataLog-MenuText','Log de Dados',getdate(),getdate())</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -13554,7 +13892,7 @@
         <v>97</v>
       </c>
       <c r="C255" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>'2257'</v>
       </c>
       <c r="D255" t="str">
@@ -13566,8 +13904,8 @@
         <v>'Log de Sessão'</v>
       </c>
       <c r="F255" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2257,      'pt-br','2257','SessionLog-MenuText','Log de Sessão')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2257,      'pt-br','2257','SessionLog-MenuText','Log de Sessão',getdate(),getdate())</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -13590,8 +13928,8 @@
         <v>'Nome do Grupo de Parâmetro'</v>
       </c>
       <c r="F256" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2258,      'pt-br','2258','SearchByGroupParameterName-Label','Nome do Grupo de Parâmetro')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2258,      'pt-br','2258','SearchByGroupParameterName-Label','Nome do Grupo de Parâmetro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -13614,8 +13952,8 @@
         <v>'Pesquisar por Nome de Grupo de Parâmetro'</v>
       </c>
       <c r="F257" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2259,      'pt-br','2259','SearchByGroupParameterName-Description','Pesquisar por Nome de Grupo de Parâmetro')</v>
+        <f t="shared" si="10"/>
+        <v>insert into sysLocalizationText Values(2259,      'pt-br','2259','SearchByGroupParameterName-Description','Pesquisar por Nome de Grupo de Parâmetro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -13638,8 +13976,8 @@
         <v>'Novo Grupo de Parâmetro'</v>
       </c>
       <c r="F258" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2260,      'pt-br','2260','NewGroupParameter-Label','Novo Grupo de Parâmetro')</v>
+        <f t="shared" ref="F258:F294" si="13">"insert into sysLocalizationText Values(" &amp;A258 &amp; "," &amp; B258 &amp; "," &amp;C258 &amp; "," &amp; D258 &amp; "," &amp; E258 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(2260,      'pt-br','2260','NewGroupParameter-Label','Novo Grupo de Parâmetro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -13662,8 +14000,8 @@
         <v>'Clique aqui para criar um novo Grupo de Parâmetro '</v>
       </c>
       <c r="F259" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2261,      'pt-br','2261','NewGroupParameter-Description','Clique aqui para criar um novo Grupo de Parâmetro ')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2261,      'pt-br','2261','NewGroupParameter-Description','Clique aqui para criar um novo Grupo de Parâmetro ',getdate(),getdate())</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -13686,8 +14024,8 @@
         <v>'Dados do Grupo de Parâmetro'</v>
       </c>
       <c r="F260" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2262,      'pt-br','2262','GroupParameterRecord-Label','Dados do Grupo de Parâmetro')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2262,      'pt-br','2262','GroupParameterRecord-Label','Dados do Grupo de Parâmetro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -13710,8 +14048,8 @@
         <v>'Nome do Grupo de Parâmetro'</v>
       </c>
       <c r="F261" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2263,      'pt-br','2263','GroupParameterName-Label','Nome do Grupo de Parâmetro')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2263,      'pt-br','2263','GroupParameterName-Label','Nome do Grupo de Parâmetro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -13722,7 +14060,7 @@
         <v>97</v>
       </c>
       <c r="C262" t="str">
-        <f t="shared" ref="C262:C268" si="13">"'" &amp; A262 &amp; "'"</f>
+        <f t="shared" ref="C262:C268" si="14">"'" &amp; A262 &amp; "'"</f>
         <v>'2264'</v>
       </c>
       <c r="D262" t="str">
@@ -13734,8 +14072,8 @@
         <v>'Save Group Parameter'</v>
       </c>
       <c r="F262" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2264,      'pt-br','2264','SaveGroupParameterButton-Label','Save Group Parameter')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2264,      'pt-br','2264','SaveGroupParameterButton-Label','Save Group Parameter',getdate(),getdate())</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -13746,7 +14084,7 @@
         <v>97</v>
       </c>
       <c r="C263" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'2265'</v>
       </c>
       <c r="D263" t="str">
@@ -13758,8 +14096,8 @@
         <v>'Clique aqui para salvar o Grupo de Parâmetro'</v>
       </c>
       <c r="F263" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2265,      'pt-br','2265','SaveGroupParameterButton-Description','Clique aqui para salvar o Grupo de Parâmetro')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2265,      'pt-br','2265','SaveGroupParameterButton-Description','Clique aqui para salvar o Grupo de Parâmetro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -13770,7 +14108,7 @@
         <v>97</v>
       </c>
       <c r="C264" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'2266'</v>
       </c>
       <c r="D264" t="str">
@@ -13782,8 +14120,8 @@
         <v>'Grupo de Parâmetros'</v>
       </c>
       <c r="F264" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2266,      'pt-br','2266','GroupParameter-PageTitle','Grupo de Parâmetros')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2266,      'pt-br','2266','GroupParameter-PageTitle','Grupo de Parâmetros',getdate(),getdate())</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -13794,7 +14132,7 @@
         <v>97</v>
       </c>
       <c r="C265" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'2267'</v>
       </c>
       <c r="D265" t="str">
@@ -13806,8 +14144,8 @@
         <v>'Nome do Parâmetro'</v>
       </c>
       <c r="F265" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2267,      'pt-br','2267','SearchByParameterName-Label','Nome do Parâmetro')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2267,      'pt-br','2267','SearchByParameterName-Label','Nome do Parâmetro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -13818,7 +14156,7 @@
         <v>97</v>
       </c>
       <c r="C266" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'2268'</v>
       </c>
       <c r="D266" t="str">
@@ -13830,8 +14168,8 @@
         <v>'Pesquisar por Nome do Parâmetro'</v>
       </c>
       <c r="F266" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2268,      'pt-br','2268','SearchByParameterName-Description','Pesquisar por Nome do Parâmetro')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2268,      'pt-br','2268','SearchByParameterName-Description','Pesquisar por Nome do Parâmetro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -13842,7 +14180,7 @@
         <v>97</v>
       </c>
       <c r="C267" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'2269'</v>
       </c>
       <c r="D267" t="str">
@@ -13854,8 +14192,8 @@
         <v>'Novo Parâmetro'</v>
       </c>
       <c r="F267" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2269,      'pt-br','2269','NewParameter-Label','Novo Parâmetro')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2269,      'pt-br','2269','NewParameter-Label','Novo Parâmetro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -13866,7 +14204,7 @@
         <v>97</v>
       </c>
       <c r="C268" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>'2270'</v>
       </c>
       <c r="D268" t="str">
@@ -13878,8 +14216,8 @@
         <v>'Clique aqui par acriar um novo Parâmetro'</v>
       </c>
       <c r="F268" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2270,      'pt-br','2270','NewParameter-Description','Clique aqui par acriar um novo Parâmetro')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2270,      'pt-br','2270','NewParameter-Description','Clique aqui par acriar um novo Parâmetro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -13890,7 +14228,7 @@
         <v>97</v>
       </c>
       <c r="C269" t="str">
-        <f t="shared" ref="C269:C282" si="14">"'" &amp; A269 &amp; "'"</f>
+        <f t="shared" ref="C269:C280" si="15">"'" &amp; A269 &amp; "'"</f>
         <v>'2271'</v>
       </c>
       <c r="D269" t="str">
@@ -13902,8 +14240,8 @@
         <v>'Dados do Parâmetro'</v>
       </c>
       <c r="F269" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2271,      'pt-br','2271','ParameterRecord-Label','Dados do Parâmetro')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2271,      'pt-br','2271','ParameterRecord-Label','Dados do Parâmetro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -13914,7 +14252,7 @@
         <v>97</v>
       </c>
       <c r="C270" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'2272'</v>
       </c>
       <c r="D270" t="str">
@@ -13926,8 +14264,8 @@
         <v>'Nome do Parâmetro'</v>
       </c>
       <c r="F270" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2272,      'pt-br','2272','ParameterName-Label','Nome do Parâmetro')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2272,      'pt-br','2272','ParameterName-Label','Nome do Parâmetro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -13938,7 +14276,7 @@
         <v>97</v>
       </c>
       <c r="C271" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'2273'</v>
       </c>
       <c r="D271" t="str">
@@ -13950,8 +14288,8 @@
         <v>'Salvar Parâmetro'</v>
       </c>
       <c r="F271" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2273,      'pt-br','2273','SaveParameterButton-Label','Salvar Parâmetro')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2273,      'pt-br','2273','SaveParameterButton-Label','Salvar Parâmetro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -13962,7 +14300,7 @@
         <v>97</v>
       </c>
       <c r="C272" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'2274'</v>
       </c>
       <c r="D272" t="str">
@@ -13974,8 +14312,8 @@
         <v>'Clique aqui para salvar o Parâmetro'</v>
       </c>
       <c r="F272" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2274,      'pt-br','2274','SaveParameterButton-Description','Clique aqui para salvar o Parâmetro')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2274,      'pt-br','2274','SaveParameterButton-Description','Clique aqui para salvar o Parâmetro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -13986,7 +14324,7 @@
         <v>97</v>
       </c>
       <c r="C273" t="str">
-        <f t="shared" ref="C273:C282" si="15">"'" &amp; A273 &amp; "'"</f>
+        <f t="shared" ref="C273:C294" si="16">"'" &amp; A273 &amp; "'"</f>
         <v>'2275'</v>
       </c>
       <c r="D273" t="str">
@@ -13998,34 +14336,52 @@
         <v>'Parâmetros'</v>
       </c>
       <c r="F273" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2275,      'pt-br','2275','Parameter-PageTitle','Parâmetros')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2275,      'pt-br','2275','Parameter-PageTitle','Parâmetros',getdate(),getdate())</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2276</v>
       </c>
+      <c r="B274" t="s">
+        <v>97</v>
+      </c>
       <c r="C274" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'2276'</v>
       </c>
+      <c r="D274" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="F274" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2276,,'2276',,)</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2276,      'pt-br','2276','ChangeUserLanguage-Title','Alterar linguagem do usuário',getdate(),getdate())</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2277</v>
       </c>
+      <c r="B275" t="s">
+        <v>97</v>
+      </c>
       <c r="C275" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'2277'</v>
       </c>
+      <c r="D275" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="F275" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2277,,'2277',,)</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2277,      'pt-br','2277','ChangeUserLanguage-Message','A linguagem do usuário foi alterada com sucesso. Faça login novamente.',getdate(),getdate())</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -14036,7 +14392,7 @@
         <v>97</v>
       </c>
       <c r="C276" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'2278'</v>
       </c>
       <c r="D276" t="str">
@@ -14048,8 +14404,8 @@
         <v>'Log de Exceções'</v>
       </c>
       <c r="F276" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2278,      'pt-br','2278','ExceptionLog-PageTitle','Log de Exceções')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2278,      'pt-br','2278','ExceptionLog-PageTitle','Log de Exceções',getdate(),getdate())</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -14060,7 +14416,7 @@
         <v>97</v>
       </c>
       <c r="C277" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'2279'</v>
       </c>
       <c r="D277" t="str">
@@ -14072,8 +14428,8 @@
         <v>'Pesquisar por Origem'</v>
       </c>
       <c r="F277" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2279,      'pt-br','2279','SearchByOrgin-Label','Pesquisar por Origem')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2279,      'pt-br','2279','SearchByOrgin-Label','Pesquisar por Origem',getdate(),getdate())</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -14084,7 +14440,7 @@
         <v>97</v>
       </c>
       <c r="C278" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'2280'</v>
       </c>
       <c r="D278" t="str">
@@ -14096,8 +14452,8 @@
         <v>'Origem'</v>
       </c>
       <c r="F278" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2280,      'pt-br','2280','Origin-Label','Origem')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2280,      'pt-br','2280','Origin-Label','Origem',getdate(),getdate())</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -14108,7 +14464,7 @@
         <v>97</v>
       </c>
       <c r="C279" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'2281'</v>
       </c>
       <c r="D279" t="str">
@@ -14120,8 +14476,8 @@
         <v>'Local Alvo'</v>
       </c>
       <c r="F279" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2281,      'pt-br','2281','TargetSite-Label','Local Alvo')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2281,      'pt-br','2281','TargetSite-Label','Local Alvo',getdate(),getdate())</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -14132,7 +14488,7 @@
         <v>97</v>
       </c>
       <c r="C280" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>'2282'</v>
       </c>
       <c r="D280" t="str">
@@ -14144,8 +14500,8 @@
         <v>'Messagem de Erro'</v>
       </c>
       <c r="F280" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2282,      'pt-br','2282','ErrMessage-Label','Messagem de Erro')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2282,      'pt-br','2282','ErrMessage-Label','Messagem de Erro',getdate(),getdate())</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -14156,7 +14512,7 @@
         <v>97</v>
       </c>
       <c r="C281" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>'2283'</v>
       </c>
       <c r="D281" t="str">
@@ -14168,8 +14524,8 @@
         <v>'Rastreamento da Pilha'</v>
       </c>
       <c r="F281" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2283,      'pt-br','2283','StackTrace-Label','Rastreamento da Pilha')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2283,      'pt-br','2283','StackTrace-Label','Rastreamento da Pilha',getdate(),getdate())</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -14180,7 +14536,7 @@
         <v>97</v>
       </c>
       <c r="C282" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="C282" si="17">"'" &amp; A282 &amp; "'"</f>
         <v>'2284'</v>
       </c>
       <c r="D282" t="str">
@@ -14192,8 +14548,296 @@
         <v>'IP do Cliente'</v>
       </c>
       <c r="F282" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into sysLocalizationText Values(2284,      'pt-br','2284','ClientIP-Label','IP do Cliente')</v>
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2284,      'pt-br','2284','ClientIP-Label','IP do Cliente',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>2285</v>
+      </c>
+      <c r="B283" t="s">
+        <v>97</v>
+      </c>
+      <c r="C283" t="str">
+        <f t="shared" si="16"/>
+        <v>'2285'</v>
+      </c>
+      <c r="D283" t="str">
+        <f>$N$1 &amp; "SearchByConfigName-Label" &amp; $N$1</f>
+        <v>'SearchByConfigName-Label'</v>
+      </c>
+      <c r="E283" t="str">
+        <f>$N$1 &amp; "Por Nome Configuração" &amp; $N$1</f>
+        <v>'Por Nome Configuração'</v>
+      </c>
+      <c r="F283" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2285,      'pt-br','2285','SearchByConfigName-Label','Por Nome Configuração',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>2286</v>
+      </c>
+      <c r="B284" t="s">
+        <v>97</v>
+      </c>
+      <c r="C284" t="str">
+        <f t="shared" si="16"/>
+        <v>'2286'</v>
+      </c>
+      <c r="D284" t="str">
+        <f>$N$1 &amp; "SearchByConfigName-Description" &amp; $N$1</f>
+        <v>'SearchByConfigName-Description'</v>
+      </c>
+      <c r="E284" t="str">
+        <f>$N$1 &amp; "Pesquisar por Nome Configuração" &amp; $N$1</f>
+        <v>'Pesquisar por Nome Configuração'</v>
+      </c>
+      <c r="F284" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2286,      'pt-br','2286','SearchByConfigName-Description','Pesquisar por Nome Configuração',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>2287</v>
+      </c>
+      <c r="B285" t="s">
+        <v>97</v>
+      </c>
+      <c r="C285" t="str">
+        <f t="shared" si="16"/>
+        <v>'2287'</v>
+      </c>
+      <c r="D285" t="str">
+        <f>$N$1 &amp; "NewConfig-Label" &amp; $N$1</f>
+        <v>'NewConfig-Label'</v>
+      </c>
+      <c r="E285" t="str">
+        <f>$N$1 &amp; "Nova Configguração" &amp; $N$1</f>
+        <v>'Nova Configguração'</v>
+      </c>
+      <c r="F285" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2287,      'pt-br','2287','NewConfig-Label','Nova Configguração',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>2288</v>
+      </c>
+      <c r="B286" t="s">
+        <v>97</v>
+      </c>
+      <c r="C286" t="str">
+        <f t="shared" si="16"/>
+        <v>'2288'</v>
+      </c>
+      <c r="D286" t="str">
+        <f>$N$1 &amp; "NewConfig-Description" &amp; $N$1</f>
+        <v>'NewConfig-Description'</v>
+      </c>
+      <c r="E286" t="str">
+        <f>$N$1 &amp; "Clique aqui para criar uma nova Configuração" &amp; $N$1</f>
+        <v>'Clique aqui para criar uma nova Configuração'</v>
+      </c>
+      <c r="F286" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2288,      'pt-br','2288','NewConfig-Description','Clique aqui para criar uma nova Configuração',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>2289</v>
+      </c>
+      <c r="B287" t="s">
+        <v>97</v>
+      </c>
+      <c r="C287" t="str">
+        <f t="shared" si="16"/>
+        <v>'2289'</v>
+      </c>
+      <c r="D287" t="str">
+        <f>$N$1 &amp; "ConfigName" &amp; $N$1</f>
+        <v>'ConfigName'</v>
+      </c>
+      <c r="E287" t="str">
+        <f>$N$1 &amp; "Nome Configuração" &amp; $N$1</f>
+        <v>'Nome Configuração'</v>
+      </c>
+      <c r="F287" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2289,      'pt-br','2289','ConfigName','Nome Configuração',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>2290</v>
+      </c>
+      <c r="B288" t="s">
+        <v>97</v>
+      </c>
+      <c r="C288" t="str">
+        <f t="shared" si="16"/>
+        <v>'2290'</v>
+      </c>
+      <c r="D288" t="str">
+        <f>$N$1 &amp; "ConfigRecord-Label" &amp; $N$1</f>
+        <v>'ConfigRecord-Label'</v>
+      </c>
+      <c r="E288" t="str">
+        <f>$N$1 &amp; "Configurações" &amp; $N$1</f>
+        <v>'Configurações'</v>
+      </c>
+      <c r="F288" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2290,      'pt-br','2290','ConfigRecord-Label','Configurações',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>2291</v>
+      </c>
+      <c r="B289" t="s">
+        <v>97</v>
+      </c>
+      <c r="C289" t="str">
+        <f t="shared" si="16"/>
+        <v>'2291'</v>
+      </c>
+      <c r="D289" t="str">
+        <f>$N$1 &amp; "ConfigName-Label" &amp; $N$1</f>
+        <v>'ConfigName-Label'</v>
+      </c>
+      <c r="E289" t="str">
+        <f>$N$1 &amp; "Nome da Configuração" &amp; $N$1</f>
+        <v>'Nome da Configuração'</v>
+      </c>
+      <c r="F289" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2291,      'pt-br','2291','ConfigName-Label','Nome da Configuração',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>2292</v>
+      </c>
+      <c r="B290" t="s">
+        <v>97</v>
+      </c>
+      <c r="C290" t="str">
+        <f t="shared" si="16"/>
+        <v>'2292'</v>
+      </c>
+      <c r="D290" t="str">
+        <f>$N$1 &amp; "ConfigValue-Label" &amp; $N$1</f>
+        <v>'ConfigValue-Label'</v>
+      </c>
+      <c r="E290" t="str">
+        <f>$N$1 &amp; "Valor da Configuração" &amp; $N$1</f>
+        <v>'Valor da Configuração'</v>
+      </c>
+      <c r="F290" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2292,      'pt-br','2292','ConfigValue-Label','Valor da Configuração',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>2293</v>
+      </c>
+      <c r="B291" t="s">
+        <v>97</v>
+      </c>
+      <c r="C291" t="str">
+        <f t="shared" si="16"/>
+        <v>'2293'</v>
+      </c>
+      <c r="D291" t="str">
+        <f>$N$1 &amp; "ConfigValue" &amp; $N$1</f>
+        <v>'ConfigValue'</v>
+      </c>
+      <c r="E291" t="str">
+        <f>$N$1 &amp; "Valor da Configuração" &amp; $N$1</f>
+        <v>'Valor da Configuração'</v>
+      </c>
+      <c r="F291" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2293,      'pt-br','2293','ConfigValue','Valor da Configuração',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>2294</v>
+      </c>
+      <c r="B292" t="s">
+        <v>97</v>
+      </c>
+      <c r="C292" t="str">
+        <f t="shared" si="16"/>
+        <v>'2294'</v>
+      </c>
+      <c r="D292" t="str">
+        <f>$N$1 &amp; "SaveConfigButton-Label" &amp; $N$1</f>
+        <v>'SaveConfigButton-Label'</v>
+      </c>
+      <c r="E292" t="str">
+        <f>$N$1 &amp; "Salvar Configuração" &amp; $N$1</f>
+        <v>'Salvar Configuração'</v>
+      </c>
+      <c r="F292" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2294,      'pt-br','2294','SaveConfigButton-Label','Salvar Configuração',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>2295</v>
+      </c>
+      <c r="B293" t="s">
+        <v>97</v>
+      </c>
+      <c r="C293" t="str">
+        <f t="shared" si="16"/>
+        <v>'2295'</v>
+      </c>
+      <c r="D293" t="str">
+        <f>$N$1 &amp; "SaveConfigButton-Description" &amp; $N$1</f>
+        <v>'SaveConfigButton-Description'</v>
+      </c>
+      <c r="E293" t="str">
+        <f>$N$1 &amp; "Clique aqui para salvar a Configuração" &amp; $N$1</f>
+        <v>'Clique aqui para salvar a Configuração'</v>
+      </c>
+      <c r="F293" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2295,      'pt-br','2295','SaveConfigButton-Description','Clique aqui para salvar a Configuração',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>2296</v>
+      </c>
+      <c r="B294" t="s">
+        <v>97</v>
+      </c>
+      <c r="C294" t="str">
+        <f t="shared" si="16"/>
+        <v>'2296'</v>
+      </c>
+      <c r="D294" t="str">
+        <f>$N$1 &amp; "Configs-PageTitle" &amp; $N$1</f>
+        <v>'Configs-PageTitle'</v>
+      </c>
+      <c r="E294" t="str">
+        <f>$N$1 &amp; "Configurações" &amp; $N$1</f>
+        <v>'Configurações'</v>
+      </c>
+      <c r="F294" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2296,      'pt-br','2296','Configs-PageTitle','Configurações',getdate(),getdate())</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/InsertLocalizationText.xlsx
+++ b/Docs/InsertLocalizationText.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="156">
   <si>
     <t xml:space="preserve">      'en-us'</t>
   </si>
@@ -884,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N294"/>
+  <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="D284" sqref="D284"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="E303" sqref="E303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7861,6 +7861,390 @@
         <v>insert into sysLocalizationText Values(1296,      'en-us','1296','Configs-PageTitle','Configurations',getdate(),getdate())</v>
       </c>
     </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>1297</v>
+      </c>
+      <c r="B295" t="s">
+        <v>0</v>
+      </c>
+      <c r="C295" t="str">
+        <f t="shared" ref="C295" si="29">"'" &amp; A295 &amp; "'"</f>
+        <v>'1297'</v>
+      </c>
+      <c r="D295" t="str">
+        <f>$N$1 &amp; "Logout-Label" &amp; $N$1</f>
+        <v>'Logout-Label'</v>
+      </c>
+      <c r="E295" t="str">
+        <f>$N$1 &amp; "Logout" &amp; $N$1</f>
+        <v>'Logout'</v>
+      </c>
+      <c r="F295" t="str">
+        <f t="shared" ref="F295" si="30">"insert into sysLocalizationText Values(" &amp;A295 &amp; "," &amp; B295 &amp; "," &amp;C295 &amp; "," &amp; D295 &amp; "," &amp; E295 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(1297,      'en-us','1297','Logout-Label','Logout',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>1298</v>
+      </c>
+      <c r="B296" t="s">
+        <v>0</v>
+      </c>
+      <c r="C296" t="str">
+        <f t="shared" ref="C296" si="31">"'" &amp; A296 &amp; "'"</f>
+        <v>'1298'</v>
+      </c>
+      <c r="D296" t="str">
+        <f>$N$1 &amp; "AlterProfileImage-Description" &amp; $N$1</f>
+        <v>'AlterProfileImage-Description'</v>
+      </c>
+      <c r="E296" t="str">
+        <f>$N$1 &amp; "Drag the file here you wish to upload, or click on buttom above to browse." &amp; $N$1</f>
+        <v>'Drag the file here you wish to upload, or click on buttom above to browse.'</v>
+      </c>
+      <c r="F296" t="str">
+        <f t="shared" ref="F296" si="32">"insert into sysLocalizationText Values(" &amp;A296 &amp; "," &amp; B296 &amp; "," &amp;C296 &amp; "," &amp; D296 &amp; "," &amp; E296 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(1298,      'en-us','1298','AlterProfileImage-Description','Drag the file here you wish to upload, or click on buttom above to browse.',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>1299</v>
+      </c>
+      <c r="B297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C297" t="str">
+        <f t="shared" ref="C297:C310" si="33">"'" &amp; A297 &amp; "'"</f>
+        <v>'1299'</v>
+      </c>
+      <c r="D297" t="str">
+        <f>$N$1 &amp; "Menu-Superadmin" &amp; $N$1</f>
+        <v>'Menu-Superadmin'</v>
+      </c>
+      <c r="E297" t="str">
+        <f>$N$1 &amp; "Super Admin" &amp; $N$1</f>
+        <v>'Super Admin'</v>
+      </c>
+      <c r="F297" t="str">
+        <f t="shared" ref="F297:F310" si="34">"insert into sysLocalizationText Values(" &amp;A297 &amp; "," &amp; B297 &amp; "," &amp;C297 &amp; "," &amp; D297 &amp; "," &amp; E297 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(1299,      'en-us','1299','Menu-Superadmin','Super Admin',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1300</v>
+      </c>
+      <c r="B298" t="s">
+        <v>0</v>
+      </c>
+      <c r="C298" t="str">
+        <f t="shared" si="33"/>
+        <v>'1300'</v>
+      </c>
+      <c r="D298" t="str">
+        <f>$N$1 &amp; "Menu-Configs" &amp; $N$1</f>
+        <v>'Menu-Configs'</v>
+      </c>
+      <c r="E298" t="str">
+        <f>$N$1 &amp; "Business Configs" &amp; $N$1</f>
+        <v>'Business Configs'</v>
+      </c>
+      <c r="F298" t="str">
+        <f t="shared" si="34"/>
+        <v>insert into sysLocalizationText Values(1300,      'en-us','1300','Menu-Configs','Business Configs',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>1301</v>
+      </c>
+      <c r="B299" t="s">
+        <v>0</v>
+      </c>
+      <c r="C299" t="str">
+        <f t="shared" si="33"/>
+        <v>'1301'</v>
+      </c>
+      <c r="D299" t="str">
+        <f>$N$1 &amp; "Menu-Instance" &amp; $N$1</f>
+        <v>'Menu-Instance'</v>
+      </c>
+      <c r="E299" t="str">
+        <f>$N$1 &amp; "Instances" &amp; $N$1</f>
+        <v>'Instances'</v>
+      </c>
+      <c r="F299" t="str">
+        <f t="shared" si="34"/>
+        <v>insert into sysLocalizationText Values(1301,      'en-us','1301','Menu-Instance','Instances',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>1302</v>
+      </c>
+      <c r="B300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C300" t="str">
+        <f t="shared" si="33"/>
+        <v>'1302'</v>
+      </c>
+      <c r="D300" t="str">
+        <f>$N$1 &amp; "Menu-Roles" &amp; $N$1</f>
+        <v>'Menu-Roles'</v>
+      </c>
+      <c r="E300" t="str">
+        <f>$N$1 &amp; "Roles" &amp; $N$1</f>
+        <v>'Roles'</v>
+      </c>
+      <c r="F300" t="str">
+        <f t="shared" si="34"/>
+        <v>insert into sysLocalizationText Values(1302,      'en-us','1302','Menu-Roles','Roles',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>1303</v>
+      </c>
+      <c r="B301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" t="str">
+        <f t="shared" si="33"/>
+        <v>'1303'</v>
+      </c>
+      <c r="D301" t="str">
+        <f>$N$1 &amp; "Menu-ObjectPermissions" &amp; $N$1</f>
+        <v>'Menu-ObjectPermissions'</v>
+      </c>
+      <c r="E301" t="str">
+        <f>$N$1 &amp; "Object Permissions" &amp; $N$1</f>
+        <v>'Object Permissions'</v>
+      </c>
+      <c r="F301" t="str">
+        <f t="shared" si="34"/>
+        <v>insert into sysLocalizationText Values(1303,      'en-us','1303','Menu-ObjectPermissions','Object Permissions',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>1304</v>
+      </c>
+      <c r="B302" t="s">
+        <v>0</v>
+      </c>
+      <c r="C302" t="str">
+        <f t="shared" si="33"/>
+        <v>'1304'</v>
+      </c>
+      <c r="D302" t="str">
+        <f>$N$1 &amp; "Menu-Permissions" &amp; $N$1</f>
+        <v>'Menu-Permissions'</v>
+      </c>
+      <c r="E302" t="str">
+        <f>$N$1 &amp; "Permissions" &amp; $N$1</f>
+        <v>'Permissions'</v>
+      </c>
+      <c r="F302" t="str">
+        <f t="shared" si="34"/>
+        <v>insert into sysLocalizationText Values(1304,      'en-us','1304','Menu-Permissions','Permissions',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>1305</v>
+      </c>
+      <c r="B303" t="s">
+        <v>0</v>
+      </c>
+      <c r="C303" t="str">
+        <f t="shared" si="33"/>
+        <v>'1305'</v>
+      </c>
+      <c r="D303" t="str">
+        <f>$N$1 &amp; "Menu-Users" &amp; $N$1</f>
+        <v>'Menu-Users'</v>
+      </c>
+      <c r="E303" t="str">
+        <f>$N$1 &amp; "Users" &amp; $N$1</f>
+        <v>'Users'</v>
+      </c>
+      <c r="F303" t="str">
+        <f t="shared" si="34"/>
+        <v>insert into sysLocalizationText Values(1305,      'en-us','1305','Menu-Users','Users',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>1306</v>
+      </c>
+      <c r="B304" t="s">
+        <v>0</v>
+      </c>
+      <c r="C304" t="str">
+        <f t="shared" si="33"/>
+        <v>'1306'</v>
+      </c>
+      <c r="D304" t="str">
+        <f>$N$1 &amp; "Menu-LocalizationTexts" &amp; $N$1</f>
+        <v>'Menu-LocalizationTexts'</v>
+      </c>
+      <c r="E304" t="str">
+        <f>$N$1 &amp; "Localization Texts" &amp; $N$1</f>
+        <v>'Localization Texts'</v>
+      </c>
+      <c r="F304" t="str">
+        <f t="shared" si="34"/>
+        <v>insert into sysLocalizationText Values(1306,      'en-us','1306','Menu-LocalizationTexts','Localization Texts',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>1307</v>
+      </c>
+      <c r="B305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C305" t="str">
+        <f t="shared" si="33"/>
+        <v>'1307'</v>
+      </c>
+      <c r="D305" t="str">
+        <f>$N$1 &amp; "Menu-GroupParameters" &amp; $N$1</f>
+        <v>'Menu-GroupParameters'</v>
+      </c>
+      <c r="E305" t="str">
+        <f>$N$1 &amp; "Group Parameters" &amp; $N$1</f>
+        <v>'Group Parameters'</v>
+      </c>
+      <c r="F305" t="str">
+        <f t="shared" si="34"/>
+        <v>insert into sysLocalizationText Values(1307,      'en-us','1307','Menu-GroupParameters','Group Parameters',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>1308</v>
+      </c>
+      <c r="B306" t="s">
+        <v>0</v>
+      </c>
+      <c r="C306" t="str">
+        <f t="shared" si="33"/>
+        <v>'1308'</v>
+      </c>
+      <c r="D306" t="str">
+        <f>$N$1 &amp; "Menu-Parameters" &amp; $N$1</f>
+        <v>'Menu-Parameters'</v>
+      </c>
+      <c r="E306" t="str">
+        <f>$N$1 &amp; "Parameters" &amp; $N$1</f>
+        <v>'Parameters'</v>
+      </c>
+      <c r="F306" t="str">
+        <f t="shared" si="34"/>
+        <v>insert into sysLocalizationText Values(1308,      'en-us','1308','Menu-Parameters','Parameters',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>1309</v>
+      </c>
+      <c r="B307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C307" t="str">
+        <f t="shared" si="33"/>
+        <v>'1309'</v>
+      </c>
+      <c r="D307" t="str">
+        <f>$N$1 &amp; "Menu-Monitoring" &amp; $N$1</f>
+        <v>'Menu-Monitoring'</v>
+      </c>
+      <c r="E307" t="str">
+        <f>$N$1 &amp; "Monitoring" &amp; $N$1</f>
+        <v>'Monitoring'</v>
+      </c>
+      <c r="F307" t="str">
+        <f t="shared" si="34"/>
+        <v>insert into sysLocalizationText Values(1309,      'en-us','1309','Menu-Monitoring','Monitoring',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>1310</v>
+      </c>
+      <c r="B308" t="s">
+        <v>0</v>
+      </c>
+      <c r="C308" t="str">
+        <f t="shared" si="33"/>
+        <v>'1310'</v>
+      </c>
+      <c r="D308" t="str">
+        <f>$N$1 &amp; "Menu-SessionLog" &amp; $N$1</f>
+        <v>'Menu-SessionLog'</v>
+      </c>
+      <c r="E308" t="str">
+        <f>$N$1 &amp; "Session Log" &amp; $N$1</f>
+        <v>'Session Log'</v>
+      </c>
+      <c r="F308" t="str">
+        <f t="shared" si="34"/>
+        <v>insert into sysLocalizationText Values(1310,      'en-us','1310','Menu-SessionLog','Session Log',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>1311</v>
+      </c>
+      <c r="B309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C309" t="str">
+        <f t="shared" si="33"/>
+        <v>'1311'</v>
+      </c>
+      <c r="D309" t="str">
+        <f>$N$1 &amp; "Menu-DataLog" &amp; $N$1</f>
+        <v>'Menu-DataLog'</v>
+      </c>
+      <c r="E309" t="str">
+        <f>$N$1 &amp; "Data Log" &amp; $N$1</f>
+        <v>'Data Log'</v>
+      </c>
+      <c r="F309" t="str">
+        <f t="shared" si="34"/>
+        <v>insert into sysLocalizationText Values(1311,      'en-us','1311','Menu-DataLog','Data Log',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>1312</v>
+      </c>
+      <c r="B310" t="s">
+        <v>0</v>
+      </c>
+      <c r="C310" t="str">
+        <f t="shared" si="33"/>
+        <v>'1312'</v>
+      </c>
+      <c r="D310" t="str">
+        <f>$N$1 &amp; "Menu-ExceptionLog" &amp; $N$1</f>
+        <v>'Menu-ExceptionLog'</v>
+      </c>
+      <c r="E310" t="str">
+        <f>$N$1 &amp; "Exception Log" &amp; $N$1</f>
+        <v>'Exception Log'</v>
+      </c>
+      <c r="F310" t="str">
+        <f t="shared" si="34"/>
+        <v>insert into sysLocalizationText Values(1312,      'en-us','1312','Menu-ExceptionLog','Exception Log',getdate(),getdate())</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7870,10 +8254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N294"/>
+  <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="D284" sqref="D284"/>
+    <sheetView topLeftCell="E289" workbookViewId="0">
+      <selection activeCell="E301" sqref="E301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13976,7 +14360,7 @@
         <v>'Novo Grupo de Parâmetro'</v>
       </c>
       <c r="F258" t="str">
-        <f t="shared" ref="F258:F294" si="13">"insert into sysLocalizationText Values(" &amp;A258 &amp; "," &amp; B258 &amp; "," &amp;C258 &amp; "," &amp; D258 &amp; "," &amp; E258 &amp; ",getdate(),getdate())"</f>
+        <f t="shared" ref="F258:F310" si="13">"insert into sysLocalizationText Values(" &amp;A258 &amp; "," &amp; B258 &amp; "," &amp;C258 &amp; "," &amp; D258 &amp; "," &amp; E258 &amp; ",getdate(),getdate())"</f>
         <v>insert into sysLocalizationText Values(2260,      'pt-br','2260','NewGroupParameter-Label','Novo Grupo de Parâmetro',getdate(),getdate())</v>
       </c>
     </row>
@@ -14324,7 +14708,7 @@
         <v>97</v>
       </c>
       <c r="C273" t="str">
-        <f t="shared" ref="C273:C294" si="16">"'" &amp; A273 &amp; "'"</f>
+        <f t="shared" ref="C273:C296" si="16">"'" &amp; A273 &amp; "'"</f>
         <v>'2275'</v>
       </c>
       <c r="D273" t="str">
@@ -14838,6 +15222,390 @@
       <c r="F294" t="str">
         <f t="shared" si="13"/>
         <v>insert into sysLocalizationText Values(2296,      'pt-br','2296','Configs-PageTitle','Configurações',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>2297</v>
+      </c>
+      <c r="B295" t="s">
+        <v>97</v>
+      </c>
+      <c r="C295" t="str">
+        <f t="shared" si="16"/>
+        <v>'2297'</v>
+      </c>
+      <c r="D295" t="str">
+        <f>$N$1 &amp; "Logout-Label" &amp; $N$1</f>
+        <v>'Logout-Label'</v>
+      </c>
+      <c r="E295" t="str">
+        <f>$N$1 &amp; "Sair" &amp; $N$1</f>
+        <v>'Sair'</v>
+      </c>
+      <c r="F295" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2297,      'pt-br','2297','Logout-Label','Sair',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>2298</v>
+      </c>
+      <c r="B296" t="s">
+        <v>97</v>
+      </c>
+      <c r="C296" t="str">
+        <f t="shared" si="16"/>
+        <v>'2298'</v>
+      </c>
+      <c r="D296" t="str">
+        <f>$N$1 &amp; "AlterProfileImage-Description" &amp; $N$1</f>
+        <v>'AlterProfileImage-Description'</v>
+      </c>
+      <c r="E296" t="str">
+        <f>$N$1 &amp; "Arraste aqui o arquivo que deseja, ou clique no botão acima para navegar." &amp; $N$1</f>
+        <v>'Arraste aqui o arquivo que deseja, ou clique no botão acima para navegar.'</v>
+      </c>
+      <c r="F296" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2298,      'pt-br','2298','AlterProfileImage-Description','Arraste aqui o arquivo que deseja, ou clique no botão acima para navegar.',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>2299</v>
+      </c>
+      <c r="B297" t="s">
+        <v>97</v>
+      </c>
+      <c r="C297" t="str">
+        <f t="shared" ref="C297:C310" si="18">"'" &amp; A297 &amp; "'"</f>
+        <v>'2299'</v>
+      </c>
+      <c r="D297" t="str">
+        <f>$N$1 &amp; "Menu-Superadmin" &amp; $N$1</f>
+        <v>'Menu-Superadmin'</v>
+      </c>
+      <c r="E297" t="str">
+        <f>$N$1 &amp; "Super Admin" &amp; $N$1</f>
+        <v>'Super Admin'</v>
+      </c>
+      <c r="F297" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2299,      'pt-br','2299','Menu-Superadmin','Super Admin',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>2300</v>
+      </c>
+      <c r="B298" t="s">
+        <v>97</v>
+      </c>
+      <c r="C298" t="str">
+        <f t="shared" si="18"/>
+        <v>'2300'</v>
+      </c>
+      <c r="D298" t="str">
+        <f>$N$1 &amp; "Menu-Configs" &amp; $N$1</f>
+        <v>'Menu-Configs'</v>
+      </c>
+      <c r="E298" t="str">
+        <f>$N$1 &amp; "Configs de Negócio" &amp; $N$1</f>
+        <v>'Configs de Negócio'</v>
+      </c>
+      <c r="F298" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2300,      'pt-br','2300','Menu-Configs','Configs de Negócio',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>2301</v>
+      </c>
+      <c r="B299" t="s">
+        <v>97</v>
+      </c>
+      <c r="C299" t="str">
+        <f t="shared" si="18"/>
+        <v>'2301'</v>
+      </c>
+      <c r="D299" t="str">
+        <f>$N$1 &amp; "Menu-Instance" &amp; $N$1</f>
+        <v>'Menu-Instance'</v>
+      </c>
+      <c r="E299" t="str">
+        <f>$N$1 &amp; "Instâncias" &amp; $N$1</f>
+        <v>'Instâncias'</v>
+      </c>
+      <c r="F299" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2301,      'pt-br','2301','Menu-Instance','Instâncias',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>2302</v>
+      </c>
+      <c r="B300" t="s">
+        <v>97</v>
+      </c>
+      <c r="C300" t="str">
+        <f t="shared" si="18"/>
+        <v>'2302'</v>
+      </c>
+      <c r="D300" t="str">
+        <f>$N$1 &amp; "Menu-Roles" &amp; $N$1</f>
+        <v>'Menu-Roles'</v>
+      </c>
+      <c r="E300" t="str">
+        <f>$N$1 &amp; "Roles" &amp; $N$1</f>
+        <v>'Roles'</v>
+      </c>
+      <c r="F300" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2302,      'pt-br','2302','Menu-Roles','Roles',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>2303</v>
+      </c>
+      <c r="B301" t="s">
+        <v>97</v>
+      </c>
+      <c r="C301" t="str">
+        <f t="shared" si="18"/>
+        <v>'2303'</v>
+      </c>
+      <c r="D301" t="str">
+        <f>$N$1 &amp; "Menu-ObjectPermissions" &amp; $N$1</f>
+        <v>'Menu-ObjectPermissions'</v>
+      </c>
+      <c r="E301" t="str">
+        <f>$N$1 &amp; "Objetos de Permissões" &amp; $N$1</f>
+        <v>'Objetos de Permissões'</v>
+      </c>
+      <c r="F301" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2303,      'pt-br','2303','Menu-ObjectPermissions','Objetos de Permissões',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>2304</v>
+      </c>
+      <c r="B302" t="s">
+        <v>97</v>
+      </c>
+      <c r="C302" t="str">
+        <f t="shared" si="18"/>
+        <v>'2304'</v>
+      </c>
+      <c r="D302" t="str">
+        <f>$N$1 &amp; "Menu-Permissions" &amp; $N$1</f>
+        <v>'Menu-Permissions'</v>
+      </c>
+      <c r="E302" t="str">
+        <f>$N$1 &amp; "Permissões" &amp; $N$1</f>
+        <v>'Permissões'</v>
+      </c>
+      <c r="F302" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2304,      'pt-br','2304','Menu-Permissions','Permissões',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>2305</v>
+      </c>
+      <c r="B303" t="s">
+        <v>97</v>
+      </c>
+      <c r="C303" t="str">
+        <f t="shared" si="18"/>
+        <v>'2305'</v>
+      </c>
+      <c r="D303" t="str">
+        <f>$N$1 &amp; "Menu-Users" &amp; $N$1</f>
+        <v>'Menu-Users'</v>
+      </c>
+      <c r="E303" t="str">
+        <f>$N$1 &amp; "Usuários" &amp; $N$1</f>
+        <v>'Usuários'</v>
+      </c>
+      <c r="F303" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2305,      'pt-br','2305','Menu-Users','Usuários',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>2306</v>
+      </c>
+      <c r="B304" t="s">
+        <v>97</v>
+      </c>
+      <c r="C304" t="str">
+        <f t="shared" si="18"/>
+        <v>'2306'</v>
+      </c>
+      <c r="D304" t="str">
+        <f>$N$1 &amp; "Menu-LocalizationTexts" &amp; $N$1</f>
+        <v>'Menu-LocalizationTexts'</v>
+      </c>
+      <c r="E304" t="str">
+        <f>$N$1 &amp; "Textos de Localização" &amp; $N$1</f>
+        <v>'Textos de Localização'</v>
+      </c>
+      <c r="F304" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2306,      'pt-br','2306','Menu-LocalizationTexts','Textos de Localização',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>2307</v>
+      </c>
+      <c r="B305" t="s">
+        <v>97</v>
+      </c>
+      <c r="C305" t="str">
+        <f t="shared" si="18"/>
+        <v>'2307'</v>
+      </c>
+      <c r="D305" t="str">
+        <f>$N$1 &amp; "Menu-GroupParameters" &amp; $N$1</f>
+        <v>'Menu-GroupParameters'</v>
+      </c>
+      <c r="E305" t="str">
+        <f>$N$1 &amp; "Grupo de Parâmetros" &amp; $N$1</f>
+        <v>'Grupo de Parâmetros'</v>
+      </c>
+      <c r="F305" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2307,      'pt-br','2307','Menu-GroupParameters','Grupo de Parâmetros',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>2308</v>
+      </c>
+      <c r="B306" t="s">
+        <v>97</v>
+      </c>
+      <c r="C306" t="str">
+        <f t="shared" si="18"/>
+        <v>'2308'</v>
+      </c>
+      <c r="D306" t="str">
+        <f>$N$1 &amp; "Menu-Parameters" &amp; $N$1</f>
+        <v>'Menu-Parameters'</v>
+      </c>
+      <c r="E306" t="str">
+        <f>$N$1 &amp; "Parâmetros" &amp; $N$1</f>
+        <v>'Parâmetros'</v>
+      </c>
+      <c r="F306" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2308,      'pt-br','2308','Menu-Parameters','Parâmetros',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>2309</v>
+      </c>
+      <c r="B307" t="s">
+        <v>97</v>
+      </c>
+      <c r="C307" t="str">
+        <f t="shared" si="18"/>
+        <v>'2309'</v>
+      </c>
+      <c r="D307" t="str">
+        <f>$N$1 &amp; "Menu-Monitoring" &amp; $N$1</f>
+        <v>'Menu-Monitoring'</v>
+      </c>
+      <c r="E307" t="str">
+        <f>$N$1 &amp; "Monitoramento" &amp; $N$1</f>
+        <v>'Monitoramento'</v>
+      </c>
+      <c r="F307" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2309,      'pt-br','2309','Menu-Monitoring','Monitoramento',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>2310</v>
+      </c>
+      <c r="B308" t="s">
+        <v>97</v>
+      </c>
+      <c r="C308" t="str">
+        <f t="shared" si="18"/>
+        <v>'2310'</v>
+      </c>
+      <c r="D308" t="str">
+        <f>$N$1 &amp; "Menu-SessionLog" &amp; $N$1</f>
+        <v>'Menu-SessionLog'</v>
+      </c>
+      <c r="E308" t="str">
+        <f>$N$1 &amp; "Logs de Acessos" &amp; $N$1</f>
+        <v>'Logs de Acessos'</v>
+      </c>
+      <c r="F308" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2310,      'pt-br','2310','Menu-SessionLog','Logs de Acessos',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>2311</v>
+      </c>
+      <c r="B309" t="s">
+        <v>97</v>
+      </c>
+      <c r="C309" t="str">
+        <f t="shared" si="18"/>
+        <v>'2311'</v>
+      </c>
+      <c r="D309" t="str">
+        <f>$N$1 &amp; "Menu-DataLog" &amp; $N$1</f>
+        <v>'Menu-DataLog'</v>
+      </c>
+      <c r="E309" t="str">
+        <f>$N$1 &amp; "Logs de Dados" &amp; $N$1</f>
+        <v>'Logs de Dados'</v>
+      </c>
+      <c r="F309" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2311,      'pt-br','2311','Menu-DataLog','Logs de Dados',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>2312</v>
+      </c>
+      <c r="B310" t="s">
+        <v>97</v>
+      </c>
+      <c r="C310" t="str">
+        <f t="shared" si="18"/>
+        <v>'2312'</v>
+      </c>
+      <c r="D310" t="str">
+        <f>$N$1 &amp; "Menu-ExceptionLog" &amp; $N$1</f>
+        <v>'Menu-ExceptionLog'</v>
+      </c>
+      <c r="E310" t="str">
+        <f>$N$1 &amp; "Logs de Erros" &amp; $N$1</f>
+        <v>'Logs de Erros'</v>
+      </c>
+      <c r="F310" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2312,      'pt-br','2312','Menu-ExceptionLog','Logs de Erros',getdate(),getdate())</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/InsertLocalizationText.xlsx
+++ b/Docs/InsertLocalizationText.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="156">
   <si>
     <t xml:space="preserve">      'en-us'</t>
   </si>
@@ -884,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N310"/>
+  <dimension ref="A1:N317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="E303" sqref="E303"/>
+    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="F315" sqref="F315:F317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +896,7 @@
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="49.140625" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" customWidth="1"/>
     <col min="6" max="6" width="45.140625" customWidth="1"/>
     <col min="7" max="7" width="70.7109375" customWidth="1"/>
   </cols>
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="C297" t="str">
-        <f t="shared" ref="C297:C310" si="33">"'" &amp; A297 &amp; "'"</f>
+        <f t="shared" ref="C297:C311" si="33">"'" &amp; A297 &amp; "'"</f>
         <v>'1299'</v>
       </c>
       <c r="D297" t="str">
@@ -8243,6 +8243,174 @@
       <c r="F310" t="str">
         <f t="shared" si="34"/>
         <v>insert into sysLocalizationText Values(1312,      'en-us','1312','Menu-ExceptionLog','Exception Log',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>1313</v>
+      </c>
+      <c r="B311" t="s">
+        <v>0</v>
+      </c>
+      <c r="C311" t="str">
+        <f t="shared" si="33"/>
+        <v>'1313'</v>
+      </c>
+      <c r="D311" t="str">
+        <f>$N$1 &amp; "Editing-Label" &amp; $N$1</f>
+        <v>'Editing-Label'</v>
+      </c>
+      <c r="E311" t="str">
+        <f>$N$1 &amp; "Editing" &amp; $N$1</f>
+        <v>'Editing'</v>
+      </c>
+      <c r="F311" t="str">
+        <f t="shared" ref="F311" si="35">"insert into sysLocalizationText Values(" &amp;A311 &amp; "," &amp; B311 &amp; "," &amp;C311 &amp; "," &amp; D311 &amp; "," &amp; E311 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(1313,      'en-us','1313','Editing-Label','Editing',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>1314</v>
+      </c>
+      <c r="B312" t="s">
+        <v>0</v>
+      </c>
+      <c r="C312" t="str">
+        <f t="shared" ref="C312" si="36">"'" &amp; A312 &amp; "'"</f>
+        <v>'1314'</v>
+      </c>
+      <c r="D312" t="str">
+        <f>$N$1 &amp; "Inserting-Label" &amp; $N$1</f>
+        <v>'Inserting-Label'</v>
+      </c>
+      <c r="E312" t="str">
+        <f>$N$1 &amp; "Inserting" &amp; $N$1</f>
+        <v>'Inserting'</v>
+      </c>
+      <c r="F312" t="str">
+        <f t="shared" ref="F312" si="37">"insert into sysLocalizationText Values(" &amp;A312 &amp; "," &amp; B312 &amp; "," &amp;C312 &amp; "," &amp; D312 &amp; "," &amp; E312 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(1314,      'en-us','1314','Inserting-Label','Inserting',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>1315</v>
+      </c>
+      <c r="B313" t="s">
+        <v>0</v>
+      </c>
+      <c r="C313" t="str">
+        <f t="shared" ref="C313" si="38">"'" &amp; A313 &amp; "'"</f>
+        <v>'1315'</v>
+      </c>
+      <c r="D313" t="str">
+        <f>$N$1 &amp; "RemoveConfirmation-Label" &amp; $N$1</f>
+        <v>'RemoveConfirmation-Label'</v>
+      </c>
+      <c r="E313" t="str">
+        <f>$N$1 &amp; "Are you sure to remove this record?" &amp; $N$1</f>
+        <v>'Are you sure to remove this record?'</v>
+      </c>
+      <c r="F313" t="str">
+        <f t="shared" ref="F313" si="39">"insert into sysLocalizationText Values(" &amp;A313 &amp; "," &amp; B313 &amp; "," &amp;C313 &amp; "," &amp; D313 &amp; "," &amp; E313 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(1315,      'en-us','1315','RemoveConfirmation-Label','Are you sure to remove this record?',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>1316</v>
+      </c>
+      <c r="B314" t="s">
+        <v>0</v>
+      </c>
+      <c r="C314" t="str">
+        <f t="shared" ref="C314:C315" si="40">"'" &amp; A314 &amp; "'"</f>
+        <v>'1316'</v>
+      </c>
+      <c r="D314" t="str">
+        <f>$N$1 &amp; "RemoveConfirmation-Message" &amp; $N$1</f>
+        <v>'RemoveConfirmation-Message'</v>
+      </c>
+      <c r="E314" t="str">
+        <f>$N$1 &amp; "The record was removed successfuly." &amp; $N$1</f>
+        <v>'The record was removed successfuly.'</v>
+      </c>
+      <c r="F314" t="str">
+        <f t="shared" ref="F314:F315" si="41">"insert into sysLocalizationText Values(" &amp;A314 &amp; "," &amp; B314 &amp; "," &amp;C314 &amp; "," &amp; D314 &amp; "," &amp; E314 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(1316,      'en-us','1316','RemoveConfirmation-Message','The record was removed successfuly.',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>1317</v>
+      </c>
+      <c r="B315" t="s">
+        <v>0</v>
+      </c>
+      <c r="C315" t="str">
+        <f t="shared" si="40"/>
+        <v>'1317'</v>
+      </c>
+      <c r="D315" t="str">
+        <f>$N$1 &amp; "AllowRead-Label" &amp; $N$1</f>
+        <v>'AllowRead-Label'</v>
+      </c>
+      <c r="E315" t="str">
+        <f>$N$1 &amp; "Read" &amp; $N$1</f>
+        <v>'Read'</v>
+      </c>
+      <c r="F315" t="str">
+        <f t="shared" si="41"/>
+        <v>insert into sysLocalizationText Values(1317,      'en-us','1317','AllowRead-Label','Read',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>1318</v>
+      </c>
+      <c r="B316" t="s">
+        <v>0</v>
+      </c>
+      <c r="C316" t="str">
+        <f t="shared" ref="C316" si="42">"'" &amp; A316 &amp; "'"</f>
+        <v>'1318'</v>
+      </c>
+      <c r="D316" t="str">
+        <f>$N$1 &amp; "AllowSave-Label" &amp; $N$1</f>
+        <v>'AllowSave-Label'</v>
+      </c>
+      <c r="E316" t="str">
+        <f>$N$1 &amp; "Save" &amp; $N$1</f>
+        <v>'Save'</v>
+      </c>
+      <c r="F316" t="str">
+        <f t="shared" ref="F316" si="43">"insert into sysLocalizationText Values(" &amp;A316 &amp; "," &amp; B316 &amp; "," &amp;C316 &amp; "," &amp; D316 &amp; "," &amp; E316 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(1318,      'en-us','1318','AllowSave-Label','Save',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>1319</v>
+      </c>
+      <c r="B317" t="s">
+        <v>0</v>
+      </c>
+      <c r="C317" t="str">
+        <f t="shared" ref="C317" si="44">"'" &amp; A317 &amp; "'"</f>
+        <v>'1319'</v>
+      </c>
+      <c r="D317" t="str">
+        <f>$N$1 &amp; "AllowDelete-Label" &amp; $N$1</f>
+        <v>'AllowDelete-Label'</v>
+      </c>
+      <c r="E317" t="str">
+        <f>$N$1 &amp; "Delete" &amp; $N$1</f>
+        <v>'Delete'</v>
+      </c>
+      <c r="F317" t="str">
+        <f t="shared" ref="F317" si="45">"insert into sysLocalizationText Values(" &amp;A317 &amp; "," &amp; B317 &amp; "," &amp;C317 &amp; "," &amp; D317 &amp; "," &amp; E317 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(1319,      'en-us','1319','AllowDelete-Label','Delete',getdate(),getdate())</v>
       </c>
     </row>
   </sheetData>
@@ -8254,10 +8422,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N310"/>
+  <dimension ref="A1:N317"/>
   <sheetViews>
-    <sheetView topLeftCell="E289" workbookViewId="0">
-      <selection activeCell="E301" sqref="E301"/>
+    <sheetView topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="F315" sqref="F315:F317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14360,7 +14528,7 @@
         <v>'Novo Grupo de Parâmetro'</v>
       </c>
       <c r="F258" t="str">
-        <f t="shared" ref="F258:F310" si="13">"insert into sysLocalizationText Values(" &amp;A258 &amp; "," &amp; B258 &amp; "," &amp;C258 &amp; "," &amp; D258 &amp; "," &amp; E258 &amp; ",getdate(),getdate())"</f>
+        <f t="shared" ref="F258:F317" si="13">"insert into sysLocalizationText Values(" &amp;A258 &amp; "," &amp; B258 &amp; "," &amp;C258 &amp; "," &amp; D258 &amp; "," &amp; E258 &amp; ",getdate(),getdate())"</f>
         <v>insert into sysLocalizationText Values(2260,      'pt-br','2260','NewGroupParameter-Label','Novo Grupo de Parâmetro',getdate(),getdate())</v>
       </c>
     </row>
@@ -15280,7 +15448,7 @@
         <v>97</v>
       </c>
       <c r="C297" t="str">
-        <f t="shared" ref="C297:C310" si="18">"'" &amp; A297 &amp; "'"</f>
+        <f t="shared" ref="C297:C317" si="18">"'" &amp; A297 &amp; "'"</f>
         <v>'2299'</v>
       </c>
       <c r="D297" t="str">
@@ -15606,6 +15774,174 @@
       <c r="F310" t="str">
         <f t="shared" si="13"/>
         <v>insert into sysLocalizationText Values(2312,      'pt-br','2312','Menu-ExceptionLog','Logs de Erros',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>2313</v>
+      </c>
+      <c r="B311" t="s">
+        <v>97</v>
+      </c>
+      <c r="C311" t="str">
+        <f t="shared" si="18"/>
+        <v>'2313'</v>
+      </c>
+      <c r="D311" t="str">
+        <f>$N$1 &amp; "Editing-Label" &amp; $N$1</f>
+        <v>'Editing-Label'</v>
+      </c>
+      <c r="E311" t="str">
+        <f>$N$1 &amp; "Editando" &amp; $N$1</f>
+        <v>'Editando'</v>
+      </c>
+      <c r="F311" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2313,      'pt-br','2313','Editing-Label','Editando',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>2314</v>
+      </c>
+      <c r="B312" t="s">
+        <v>97</v>
+      </c>
+      <c r="C312" t="str">
+        <f t="shared" si="18"/>
+        <v>'2314'</v>
+      </c>
+      <c r="D312" t="str">
+        <f>$N$1 &amp; "Inserting-Label" &amp; $N$1</f>
+        <v>'Inserting-Label'</v>
+      </c>
+      <c r="E312" t="str">
+        <f>$N$1 &amp; "Inserindo" &amp; $N$1</f>
+        <v>'Inserindo'</v>
+      </c>
+      <c r="F312" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2314,      'pt-br','2314','Inserting-Label','Inserindo',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>2315</v>
+      </c>
+      <c r="B313" t="s">
+        <v>97</v>
+      </c>
+      <c r="C313" t="str">
+        <f t="shared" si="18"/>
+        <v>'2315'</v>
+      </c>
+      <c r="D313" t="str">
+        <f>$N$1 &amp; "RemoveConfirmation-Label" &amp; $N$1</f>
+        <v>'RemoveConfirmation-Label'</v>
+      </c>
+      <c r="E313" t="str">
+        <f>$N$1 &amp; "Deseja realmente remover este registro?" &amp; $N$1</f>
+        <v>'Deseja realmente remover este registro?'</v>
+      </c>
+      <c r="F313" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2315,      'pt-br','2315','RemoveConfirmation-Label','Deseja realmente remover este registro?',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>2316</v>
+      </c>
+      <c r="B314" t="s">
+        <v>97</v>
+      </c>
+      <c r="C314" t="str">
+        <f t="shared" si="18"/>
+        <v>'2316'</v>
+      </c>
+      <c r="D314" t="str">
+        <f>$N$1 &amp; "RemoveConfirmation-Message" &amp; $N$1</f>
+        <v>'RemoveConfirmation-Message'</v>
+      </c>
+      <c r="E314" t="str">
+        <f>$N$1 &amp; "O registro foi removido com sucesso." &amp; $N$1</f>
+        <v>'O registro foi removido com sucesso.'</v>
+      </c>
+      <c r="F314" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2316,      'pt-br','2316','RemoveConfirmation-Message','O registro foi removido com sucesso.',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>2317</v>
+      </c>
+      <c r="B315" t="s">
+        <v>97</v>
+      </c>
+      <c r="C315" t="str">
+        <f t="shared" si="18"/>
+        <v>'2317'</v>
+      </c>
+      <c r="D315" t="str">
+        <f>$N$1 &amp; "AllowRead-Label" &amp; $N$1</f>
+        <v>'AllowRead-Label'</v>
+      </c>
+      <c r="E315" t="str">
+        <f>$N$1 &amp; "Ler" &amp; $N$1</f>
+        <v>'Ler'</v>
+      </c>
+      <c r="F315" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2317,      'pt-br','2317','AllowRead-Label','Ler',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>2318</v>
+      </c>
+      <c r="B316" t="s">
+        <v>97</v>
+      </c>
+      <c r="C316" t="str">
+        <f t="shared" si="18"/>
+        <v>'2318'</v>
+      </c>
+      <c r="D316" t="str">
+        <f>$N$1 &amp; "AllowSave-Label" &amp; $N$1</f>
+        <v>'AllowSave-Label'</v>
+      </c>
+      <c r="E316" t="str">
+        <f>$N$1 &amp; "Salvar" &amp; $N$1</f>
+        <v>'Salvar'</v>
+      </c>
+      <c r="F316" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2318,      'pt-br','2318','AllowSave-Label','Salvar',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>2319</v>
+      </c>
+      <c r="B317" t="s">
+        <v>97</v>
+      </c>
+      <c r="C317" t="str">
+        <f t="shared" si="18"/>
+        <v>'2319'</v>
+      </c>
+      <c r="D317" t="str">
+        <f>$N$1 &amp; "AllowDelete-Label" &amp; $N$1</f>
+        <v>'AllowDelete-Label'</v>
+      </c>
+      <c r="E317" t="str">
+        <f>$N$1 &amp; "Remover" &amp; $N$1</f>
+        <v>'Remover'</v>
+      </c>
+      <c r="F317" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2319,      'pt-br','2319','AllowDelete-Label','Remover',getdate(),getdate())</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/InsertLocalizationText.xlsx
+++ b/Docs/InsertLocalizationText.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="156">
   <si>
     <t xml:space="preserve">      'en-us'</t>
   </si>
@@ -884,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N317"/>
+  <dimension ref="A1:N320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="F315" sqref="F315:F317"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,12 +2789,12 @@
         <v>'LoginTitle-Description'</v>
       </c>
       <c r="E83" t="str">
-        <f>$N$1 &amp; "Enter your login and password" &amp; $N$1</f>
-        <v>'Enter your login and password'</v>
+        <f>$N$1 &amp; "Enter your access credentials" &amp; $N$1</f>
+        <v>'Enter your access credentials'</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(1083,      'en-us','1083','LoginTitle-Description','Enter your login and password',getdate(),getdate())</v>
+        <v>insert into sysLocalizationText Values(1083,      'en-us','1083','LoginTitle-Description','Enter your access credentials',getdate(),getdate())</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -8397,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="C317" t="str">
-        <f t="shared" ref="C317" si="44">"'" &amp; A317 &amp; "'"</f>
+        <f t="shared" ref="C317:C318" si="44">"'" &amp; A317 &amp; "'"</f>
         <v>'1319'</v>
       </c>
       <c r="D317" t="str">
@@ -8409,8 +8409,80 @@
         <v>'Delete'</v>
       </c>
       <c r="F317" t="str">
-        <f t="shared" ref="F317" si="45">"insert into sysLocalizationText Values(" &amp;A317 &amp; "," &amp; B317 &amp; "," &amp;C317 &amp; "," &amp; D317 &amp; "," &amp; E317 &amp; ",getdate(),getdate())"</f>
+        <f t="shared" ref="F317:F318" si="45">"insert into sysLocalizationText Values(" &amp;A317 &amp; "," &amp; B317 &amp; "," &amp;C317 &amp; "," &amp; D317 &amp; "," &amp; E317 &amp; ",getdate(),getdate())"</f>
         <v>insert into sysLocalizationText Values(1319,      'en-us','1319','AllowDelete-Label','Delete',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>1320</v>
+      </c>
+      <c r="B318" t="s">
+        <v>0</v>
+      </c>
+      <c r="C318" t="str">
+        <f t="shared" si="44"/>
+        <v>'1320'</v>
+      </c>
+      <c r="D318" t="str">
+        <f>$N$1 &amp; "InsertOperation-Text" &amp; $N$1</f>
+        <v>'InsertOperation-Text'</v>
+      </c>
+      <c r="E318" t="str">
+        <f>$N$1 &amp; "Insert" &amp; $N$1</f>
+        <v>'Insert'</v>
+      </c>
+      <c r="F318" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into sysLocalizationText Values(1320,      'en-us','1320','InsertOperation-Text','Insert',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>1321</v>
+      </c>
+      <c r="B319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C319" t="str">
+        <f t="shared" ref="C319:C320" si="46">"'" &amp; A319 &amp; "'"</f>
+        <v>'1321'</v>
+      </c>
+      <c r="D319" t="str">
+        <f>$N$1 &amp; "UpdateOperation-Text" &amp; $N$1</f>
+        <v>'UpdateOperation-Text'</v>
+      </c>
+      <c r="E319" t="str">
+        <f>$N$1 &amp; "Update" &amp; $N$1</f>
+        <v>'Update'</v>
+      </c>
+      <c r="F319" t="str">
+        <f t="shared" ref="F319:F320" si="47">"insert into sysLocalizationText Values(" &amp;A319 &amp; "," &amp; B319 &amp; "," &amp;C319 &amp; "," &amp; D319 &amp; "," &amp; E319 &amp; ",getdate(),getdate())"</f>
+        <v>insert into sysLocalizationText Values(1321,      'en-us','1321','UpdateOperation-Text','Update',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>1322</v>
+      </c>
+      <c r="B320" t="s">
+        <v>0</v>
+      </c>
+      <c r="C320" t="str">
+        <f t="shared" si="46"/>
+        <v>'1322'</v>
+      </c>
+      <c r="D320" t="str">
+        <f>$N$1 &amp; "DeleteOperation-Text" &amp; $N$1</f>
+        <v>'DeleteOperation-Text'</v>
+      </c>
+      <c r="E320" t="str">
+        <f>$N$1 &amp; "Delete" &amp; $N$1</f>
+        <v>'Delete'</v>
+      </c>
+      <c r="F320" t="str">
+        <f t="shared" si="47"/>
+        <v>insert into sysLocalizationText Values(1322,      'en-us','1322','DeleteOperation-Text','Delete',getdate(),getdate())</v>
       </c>
     </row>
   </sheetData>
@@ -8422,10 +8494,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N317"/>
+  <dimension ref="A1:N320"/>
   <sheetViews>
-    <sheetView topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="F315" sqref="F315:F317"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10324,12 +10396,12 @@
         <v>'LoginTitle-Description'</v>
       </c>
       <c r="E83" t="str">
-        <f>$N$1 &amp; "Insira seu login e senha" &amp; $N$1</f>
-        <v>'Insira seu login e senha'</v>
+        <f>$N$1 &amp; "Insira suas credenciais de acesso" &amp; $N$1</f>
+        <v>'Insira suas credenciais de acesso'</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="3"/>
-        <v>insert into sysLocalizationText Values(2083,      'pt-br','2083','LoginTitle-Description','Insira seu login e senha',getdate(),getdate())</v>
+        <v>insert into sysLocalizationText Values(2083,      'pt-br','2083','LoginTitle-Description','Insira suas credenciais de acesso',getdate(),getdate())</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -14528,7 +14600,7 @@
         <v>'Novo Grupo de Parâmetro'</v>
       </c>
       <c r="F258" t="str">
-        <f t="shared" ref="F258:F317" si="13">"insert into sysLocalizationText Values(" &amp;A258 &amp; "," &amp; B258 &amp; "," &amp;C258 &amp; "," &amp; D258 &amp; "," &amp; E258 &amp; ",getdate(),getdate())"</f>
+        <f t="shared" ref="F258:F320" si="13">"insert into sysLocalizationText Values(" &amp;A258 &amp; "," &amp; B258 &amp; "," &amp;C258 &amp; "," &amp; D258 &amp; "," &amp; E258 &amp; ",getdate(),getdate())"</f>
         <v>insert into sysLocalizationText Values(2260,      'pt-br','2260','NewGroupParameter-Label','Novo Grupo de Parâmetro',getdate(),getdate())</v>
       </c>
     </row>
@@ -15448,7 +15520,7 @@
         <v>97</v>
       </c>
       <c r="C297" t="str">
-        <f t="shared" ref="C297:C317" si="18">"'" &amp; A297 &amp; "'"</f>
+        <f t="shared" ref="C297:C320" si="18">"'" &amp; A297 &amp; "'"</f>
         <v>'2299'</v>
       </c>
       <c r="D297" t="str">
@@ -15942,6 +16014,78 @@
       <c r="F317" t="str">
         <f t="shared" si="13"/>
         <v>insert into sysLocalizationText Values(2319,      'pt-br','2319','AllowDelete-Label','Remover',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>2320</v>
+      </c>
+      <c r="B318" t="s">
+        <v>97</v>
+      </c>
+      <c r="C318" t="str">
+        <f t="shared" si="18"/>
+        <v>'2320'</v>
+      </c>
+      <c r="D318" t="str">
+        <f>$N$1 &amp; "InsertOperation-Text" &amp; $N$1</f>
+        <v>'InsertOperation-Text'</v>
+      </c>
+      <c r="E318" t="str">
+        <f>$N$1 &amp; "Inserção" &amp; $N$1</f>
+        <v>'Inserção'</v>
+      </c>
+      <c r="F318" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2320,      'pt-br','2320','InsertOperation-Text','Inserção',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>2321</v>
+      </c>
+      <c r="B319" t="s">
+        <v>97</v>
+      </c>
+      <c r="C319" t="str">
+        <f t="shared" si="18"/>
+        <v>'2321'</v>
+      </c>
+      <c r="D319" t="str">
+        <f>$N$1 &amp; "UpdateOperation-Text" &amp; $N$1</f>
+        <v>'UpdateOperation-Text'</v>
+      </c>
+      <c r="E319" t="str">
+        <f>$N$1 &amp; "Edição" &amp; $N$1</f>
+        <v>'Edição'</v>
+      </c>
+      <c r="F319" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2321,      'pt-br','2321','UpdateOperation-Text','Edição',getdate(),getdate())</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>2322</v>
+      </c>
+      <c r="B320" t="s">
+        <v>97</v>
+      </c>
+      <c r="C320" t="str">
+        <f t="shared" si="18"/>
+        <v>'2322'</v>
+      </c>
+      <c r="D320" t="str">
+        <f>$N$1 &amp; "DeleteOperation-Text" &amp; $N$1</f>
+        <v>'DeleteOperation-Text'</v>
+      </c>
+      <c r="E320" t="str">
+        <f>$N$1 &amp; "Exclusão" &amp; $N$1</f>
+        <v>'Exclusão'</v>
+      </c>
+      <c r="F320" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into sysLocalizationText Values(2322,      'pt-br','2322','DeleteOperation-Text','Exclusão',getdate(),getdate())</v>
       </c>
     </row>
   </sheetData>
